--- a/work/Оснастка/Ремонтные листы/2022 год/сентябрь.xlsx
+++ b/work/Оснастка/Ремонтные листы/2022 год/сентябрь.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="45" windowWidth="11295" windowHeight="5730"/>
+    <workbookView xWindow="90" yWindow="45" windowWidth="11295" windowHeight="5730" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ремонтные листы" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="299">
   <si>
     <t>РЕМОНТНЫЙ ЛИСТ</t>
   </si>
@@ -878,9 +878,6 @@
     <t>№8328</t>
   </si>
   <si>
-    <t>757244.039</t>
-  </si>
-  <si>
     <t>1700-5596</t>
   </si>
   <si>
@@ -888,6 +885,39 @@
   </si>
   <si>
     <t>Гайка 004, 758431.004</t>
+  </si>
+  <si>
+    <t>РЕМОНТНЫЙ ЛИСТ за 22.09.2022 г.</t>
+  </si>
+  <si>
+    <t>Якорь 039, контур 757244.039</t>
+  </si>
+  <si>
+    <t>22.09.2022 в 09:30</t>
+  </si>
+  <si>
+    <t>22.09.2022 в 12:30</t>
+  </si>
+  <si>
+    <t>1681-6497</t>
+  </si>
+  <si>
+    <t>№8214</t>
+  </si>
+  <si>
+    <t>Ламель 007, 757468.007</t>
+  </si>
+  <si>
+    <t>нет размеров</t>
+  </si>
+  <si>
+    <t>1740-5373</t>
+  </si>
+  <si>
+    <t>№3948</t>
+  </si>
+  <si>
+    <t>Поводок 021, 8БК254.021</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1098,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1268,14 +1298,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1284,6 +1311,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1592,10 +1625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T228"/>
+  <dimension ref="A1:T241"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A215" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="D220" sqref="D220"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A223" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="H232" sqref="H232:H233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1616,21 +1649,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="20.45" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -1696,9 +1729,9 @@
         <v>24</v>
       </c>
       <c r="F3" s="29"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
       <c r="L3" s="29"/>
@@ -1721,9 +1754,9 @@
         <v>37</v>
       </c>
       <c r="F4" s="28"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
       <c r="L4" s="28"/>
@@ -1753,9 +1786,9 @@
         <v>14</v>
       </c>
       <c r="F5" s="28"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
       <c r="J5" s="28"/>
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
@@ -1785,9 +1818,9 @@
         <v>14</v>
       </c>
       <c r="F6" s="28"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
@@ -1810,9 +1843,9 @@
         <v>38</v>
       </c>
       <c r="F7" s="28"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
       <c r="L7" s="28"/>
@@ -1835,9 +1868,9 @@
         <v>23</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
@@ -1860,9 +1893,9 @@
         <v>39</v>
       </c>
       <c r="F9" s="28"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
       <c r="J9" s="28"/>
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
@@ -1885,9 +1918,9 @@
         <v>39</v>
       </c>
       <c r="F10" s="28"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
       <c r="L10" s="28"/>
@@ -1910,9 +1943,9 @@
         <v>24</v>
       </c>
       <c r="F11" s="28"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
       <c r="L11" s="28"/>
@@ -1935,9 +1968,9 @@
         <v>41</v>
       </c>
       <c r="F12" s="29"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
@@ -1959,18 +1992,18 @@
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="69" t="s">
+      <c r="G14" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="69"/>
+      <c r="H14" s="70"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -1993,13 +2026,13 @@
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -2025,13 +2058,13 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -2057,21 +2090,21 @@
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" ht="20.25">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
     </row>
     <row r="21" spans="1:13" ht="75">
       <c r="A21" s="29" t="s">
@@ -2131,9 +2164,9 @@
         <v>50</v>
       </c>
       <c r="F22" s="29"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
       <c r="L22" s="29"/>
@@ -2156,9 +2189,9 @@
         <v>24</v>
       </c>
       <c r="F23" s="29"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
       <c r="J23" s="29"/>
       <c r="K23" s="29"/>
       <c r="L23" s="29"/>
@@ -2181,9 +2214,9 @@
         <v>23</v>
       </c>
       <c r="F24" s="29"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
       <c r="J24" s="29"/>
       <c r="K24" s="29"/>
       <c r="L24" s="29"/>
@@ -2206,9 +2239,9 @@
         <v>51</v>
       </c>
       <c r="F25" s="29"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
       <c r="J25" s="29"/>
       <c r="K25" s="29"/>
       <c r="L25" s="29"/>
@@ -2231,9 +2264,9 @@
         <v>52</v>
       </c>
       <c r="F26" s="29"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
       <c r="J26" s="29"/>
       <c r="K26" s="29"/>
       <c r="L26" s="29"/>
@@ -2255,18 +2288,18 @@
       <c r="M27" s="30"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
       <c r="F28" s="30"/>
-      <c r="G28" s="69" t="s">
+      <c r="G28" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="69"/>
+      <c r="H28" s="70"/>
       <c r="I28" s="30"/>
       <c r="J28" s="30"/>
       <c r="K28" s="30"/>
@@ -2289,13 +2322,13 @@
       <c r="M29" s="30"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="69" t="s">
+      <c r="A30" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
       <c r="F30" s="30"/>
       <c r="G30" s="30"/>
       <c r="H30" s="30"/>
@@ -2321,13 +2354,13 @@
       <c r="M31" s="30"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="69" t="s">
+      <c r="A32" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
       <c r="F32" s="30"/>
       <c r="G32" s="30"/>
       <c r="H32" s="30"/>
@@ -2353,21 +2386,21 @@
       <c r="M33" s="5"/>
     </row>
     <row r="34" spans="1:13" ht="20.25">
-      <c r="A34" s="70" t="s">
+      <c r="A34" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="70"/>
-      <c r="M34" s="70"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
     </row>
     <row r="35" spans="1:13" ht="75">
       <c r="A35" s="29" t="s">
@@ -2427,9 +2460,9 @@
         <v>14</v>
       </c>
       <c r="F36" s="29"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
       <c r="J36" s="29"/>
       <c r="K36" s="29"/>
       <c r="L36" s="29"/>
@@ -2452,9 +2485,9 @@
         <v>23</v>
       </c>
       <c r="F37" s="29"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="75"/>
       <c r="J37" s="29"/>
       <c r="K37" s="29"/>
       <c r="L37" s="29"/>
@@ -2477,9 +2510,9 @@
         <v>55</v>
       </c>
       <c r="F38" s="29"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="71"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="75"/>
       <c r="J38" s="29"/>
       <c r="K38" s="29"/>
       <c r="L38" s="29"/>
@@ -2502,9 +2535,9 @@
         <v>23</v>
       </c>
       <c r="F39" s="29"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="71"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
       <c r="J39" s="29"/>
       <c r="K39" s="29"/>
       <c r="L39" s="29"/>
@@ -2526,18 +2559,18 @@
       <c r="M40" s="30"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="69" t="s">
+      <c r="A41" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="69"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="69"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="70"/>
       <c r="F41" s="30"/>
-      <c r="G41" s="69" t="s">
+      <c r="G41" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H41" s="69"/>
+      <c r="H41" s="70"/>
       <c r="I41" s="30"/>
       <c r="J41" s="30"/>
       <c r="K41" s="30"/>
@@ -2560,13 +2593,13 @@
       <c r="M42" s="30"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="69" t="s">
+      <c r="A43" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="69"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
       <c r="F43" s="30"/>
       <c r="G43" s="30"/>
       <c r="H43" s="30"/>
@@ -2592,13 +2625,13 @@
       <c r="M44" s="30"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="69" t="s">
+      <c r="A45" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="69"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="69"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="70"/>
       <c r="F45" s="30"/>
       <c r="G45" s="30"/>
       <c r="H45" s="30"/>
@@ -2624,21 +2657,21 @@
       <c r="M46" s="5"/>
     </row>
     <row r="47" spans="1:13" ht="20.25">
-      <c r="A47" s="70" t="s">
+      <c r="A47" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="70"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="70"/>
-      <c r="J47" s="70"/>
-      <c r="K47" s="70"/>
-      <c r="L47" s="70"/>
-      <c r="M47" s="70"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="74"/>
+      <c r="K47" s="74"/>
+      <c r="L47" s="74"/>
+      <c r="M47" s="74"/>
     </row>
     <row r="48" spans="1:13" ht="75">
       <c r="A48" s="33" t="s">
@@ -2698,9 +2731,9 @@
         <v>62</v>
       </c>
       <c r="F49" s="33"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="71"/>
+      <c r="G49" s="75"/>
+      <c r="H49" s="75"/>
+      <c r="I49" s="75"/>
       <c r="J49" s="33"/>
       <c r="K49" s="33"/>
       <c r="L49" s="33"/>
@@ -2723,9 +2756,9 @@
         <v>14</v>
       </c>
       <c r="F50" s="33"/>
-      <c r="G50" s="71"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="71"/>
+      <c r="G50" s="75"/>
+      <c r="H50" s="75"/>
+      <c r="I50" s="75"/>
       <c r="J50" s="33"/>
       <c r="K50" s="33"/>
       <c r="L50" s="33"/>
@@ -2748,9 +2781,9 @@
         <v>63</v>
       </c>
       <c r="F51" s="33"/>
-      <c r="G51" s="71"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="71"/>
+      <c r="G51" s="75"/>
+      <c r="H51" s="75"/>
+      <c r="I51" s="75"/>
       <c r="J51" s="33"/>
       <c r="K51" s="33"/>
       <c r="L51" s="33"/>
@@ -2772,18 +2805,18 @@
       <c r="M52" s="32"/>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="69" t="s">
+      <c r="A53" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="69"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="69"/>
-      <c r="E53" s="69"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="70"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="69" t="s">
+      <c r="G53" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H53" s="69"/>
+      <c r="H53" s="70"/>
       <c r="I53" s="32"/>
       <c r="J53" s="32"/>
       <c r="K53" s="32"/>
@@ -2806,13 +2839,13 @@
       <c r="M54" s="32"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="69" t="s">
+      <c r="A55" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="69"/>
-      <c r="C55" s="69"/>
-      <c r="D55" s="69"/>
-      <c r="E55" s="69"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="70"/>
       <c r="F55" s="32"/>
       <c r="G55" s="32"/>
       <c r="H55" s="32"/>
@@ -2838,13 +2871,13 @@
       <c r="M56" s="32"/>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="69" t="s">
+      <c r="A57" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="69"/>
-      <c r="C57" s="69"/>
-      <c r="D57" s="69"/>
-      <c r="E57" s="69"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="70"/>
       <c r="F57" s="32"/>
       <c r="G57" s="32"/>
       <c r="H57" s="32"/>
@@ -2885,21 +2918,21 @@
       <c r="M59" s="5"/>
     </row>
     <row r="60" spans="1:13" ht="20.25">
-      <c r="A60" s="70" t="s">
+      <c r="A60" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B60" s="70"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="70"/>
-      <c r="H60" s="70"/>
-      <c r="I60" s="70"/>
-      <c r="J60" s="70"/>
-      <c r="K60" s="70"/>
-      <c r="L60" s="70"/>
-      <c r="M60" s="70"/>
+      <c r="B60" s="74"/>
+      <c r="C60" s="74"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="74"/>
+      <c r="G60" s="74"/>
+      <c r="H60" s="74"/>
+      <c r="I60" s="74"/>
+      <c r="J60" s="74"/>
+      <c r="K60" s="74"/>
+      <c r="L60" s="74"/>
+      <c r="M60" s="74"/>
     </row>
     <row r="61" spans="1:13" ht="75">
       <c r="A61" s="34" t="s">
@@ -2959,9 +2992,9 @@
         <v>14</v>
       </c>
       <c r="F62" s="34"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="71"/>
-      <c r="I62" s="71"/>
+      <c r="G62" s="75"/>
+      <c r="H62" s="75"/>
+      <c r="I62" s="75"/>
       <c r="J62" s="34"/>
       <c r="K62" s="34"/>
       <c r="L62" s="34"/>
@@ -2984,9 +3017,9 @@
         <v>69</v>
       </c>
       <c r="F63" s="34"/>
-      <c r="G63" s="71"/>
-      <c r="H63" s="71"/>
-      <c r="I63" s="71"/>
+      <c r="G63" s="75"/>
+      <c r="H63" s="75"/>
+      <c r="I63" s="75"/>
       <c r="J63" s="34"/>
       <c r="K63" s="34"/>
       <c r="L63" s="34"/>
@@ -3009,9 +3042,9 @@
         <v>70</v>
       </c>
       <c r="F64" s="34"/>
-      <c r="G64" s="71"/>
-      <c r="H64" s="71"/>
-      <c r="I64" s="71"/>
+      <c r="G64" s="75"/>
+      <c r="H64" s="75"/>
+      <c r="I64" s="75"/>
       <c r="J64" s="34"/>
       <c r="K64" s="34"/>
       <c r="L64" s="34"/>
@@ -3034,9 +3067,9 @@
         <v>70</v>
       </c>
       <c r="F65" s="34"/>
-      <c r="G65" s="71"/>
-      <c r="H65" s="71"/>
-      <c r="I65" s="71"/>
+      <c r="G65" s="75"/>
+      <c r="H65" s="75"/>
+      <c r="I65" s="75"/>
       <c r="J65" s="34"/>
       <c r="K65" s="34"/>
       <c r="L65" s="34"/>
@@ -3058,18 +3091,18 @@
       <c r="M66" s="35"/>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="69" t="s">
+      <c r="A67" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="69"/>
-      <c r="C67" s="69"/>
-      <c r="D67" s="69"/>
-      <c r="E67" s="69"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="70"/>
+      <c r="E67" s="70"/>
       <c r="F67" s="35"/>
-      <c r="G67" s="69" t="s">
+      <c r="G67" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H67" s="69"/>
+      <c r="H67" s="70"/>
       <c r="I67" s="35"/>
       <c r="J67" s="35"/>
       <c r="K67" s="35"/>
@@ -3092,13 +3125,13 @@
       <c r="M68" s="35"/>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="69" t="s">
+      <c r="A69" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B69" s="69"/>
-      <c r="C69" s="69"/>
-      <c r="D69" s="69"/>
-      <c r="E69" s="69"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="70"/>
+      <c r="E69" s="70"/>
       <c r="F69" s="35"/>
       <c r="G69" s="35"/>
       <c r="H69" s="35"/>
@@ -3124,13 +3157,13 @@
       <c r="M70" s="35"/>
     </row>
     <row r="71" spans="1:13">
-      <c r="A71" s="69" t="s">
+      <c r="A71" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="69"/>
-      <c r="C71" s="69"/>
-      <c r="D71" s="69"/>
-      <c r="E71" s="69"/>
+      <c r="B71" s="70"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="70"/>
+      <c r="E71" s="70"/>
       <c r="F71" s="35"/>
       <c r="G71" s="35"/>
       <c r="H71" s="35"/>
@@ -3156,21 +3189,21 @@
       <c r="M72" s="5"/>
     </row>
     <row r="73" spans="1:13" ht="20.25">
-      <c r="A73" s="70" t="s">
+      <c r="A73" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="70"/>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="70"/>
-      <c r="H73" s="70"/>
-      <c r="I73" s="70"/>
-      <c r="J73" s="70"/>
-      <c r="K73" s="70"/>
-      <c r="L73" s="70"/>
-      <c r="M73" s="70"/>
+      <c r="B73" s="74"/>
+      <c r="C73" s="74"/>
+      <c r="D73" s="74"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="74"/>
+      <c r="G73" s="74"/>
+      <c r="H73" s="74"/>
+      <c r="I73" s="74"/>
+      <c r="J73" s="74"/>
+      <c r="K73" s="74"/>
+      <c r="L73" s="74"/>
+      <c r="M73" s="74"/>
     </row>
     <row r="74" spans="1:13" ht="75">
       <c r="A74" s="39" t="s">
@@ -3230,9 +3263,9 @@
         <v>24</v>
       </c>
       <c r="F75" s="39"/>
-      <c r="G75" s="71"/>
-      <c r="H75" s="72"/>
-      <c r="I75" s="71"/>
+      <c r="G75" s="75"/>
+      <c r="H75" s="71"/>
+      <c r="I75" s="75"/>
       <c r="J75" s="39"/>
       <c r="K75" s="39"/>
       <c r="L75" s="39"/>
@@ -3255,9 +3288,9 @@
         <v>14</v>
       </c>
       <c r="F76" s="39"/>
-      <c r="G76" s="71"/>
-      <c r="H76" s="73"/>
-      <c r="I76" s="71"/>
+      <c r="G76" s="75"/>
+      <c r="H76" s="72"/>
+      <c r="I76" s="75"/>
       <c r="J76" s="39"/>
       <c r="K76" s="39"/>
       <c r="L76" s="39"/>
@@ -3280,9 +3313,9 @@
         <v>14</v>
       </c>
       <c r="F77" s="39"/>
-      <c r="G77" s="71"/>
-      <c r="H77" s="72"/>
-      <c r="I77" s="71"/>
+      <c r="G77" s="75"/>
+      <c r="H77" s="71"/>
+      <c r="I77" s="75"/>
       <c r="J77" s="39"/>
       <c r="K77" s="39"/>
       <c r="L77" s="39"/>
@@ -3305,9 +3338,9 @@
         <v>84</v>
       </c>
       <c r="F78" s="39"/>
-      <c r="G78" s="71"/>
-      <c r="H78" s="74"/>
-      <c r="I78" s="71"/>
+      <c r="G78" s="75"/>
+      <c r="H78" s="73"/>
+      <c r="I78" s="75"/>
       <c r="J78" s="39"/>
       <c r="K78" s="39"/>
       <c r="L78" s="39"/>
@@ -3329,18 +3362,18 @@
       <c r="M79" s="38"/>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="69" t="s">
+      <c r="A80" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B80" s="69"/>
-      <c r="C80" s="69"/>
-      <c r="D80" s="69"/>
-      <c r="E80" s="69"/>
+      <c r="B80" s="70"/>
+      <c r="C80" s="70"/>
+      <c r="D80" s="70"/>
+      <c r="E80" s="70"/>
       <c r="F80" s="38"/>
-      <c r="G80" s="69" t="s">
+      <c r="G80" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H80" s="69"/>
+      <c r="H80" s="70"/>
       <c r="I80" s="38"/>
       <c r="J80" s="38"/>
       <c r="K80" s="38"/>
@@ -3363,18 +3396,18 @@
       <c r="M81" s="38"/>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="69" t="s">
+      <c r="A82" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="69"/>
-      <c r="C82" s="69"/>
-      <c r="D82" s="69"/>
-      <c r="E82" s="69"/>
+      <c r="B82" s="70"/>
+      <c r="C82" s="70"/>
+      <c r="D82" s="70"/>
+      <c r="E82" s="70"/>
       <c r="F82" s="38"/>
-      <c r="G82" s="69" t="s">
+      <c r="G82" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="H82" s="69"/>
+      <c r="H82" s="70"/>
       <c r="I82" s="38"/>
       <c r="J82" s="38"/>
       <c r="K82" s="38"/>
@@ -3397,18 +3430,18 @@
       <c r="M83" s="38"/>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="69" t="s">
+      <c r="A84" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B84" s="69"/>
-      <c r="C84" s="69"/>
-      <c r="D84" s="69"/>
-      <c r="E84" s="69"/>
+      <c r="B84" s="70"/>
+      <c r="C84" s="70"/>
+      <c r="D84" s="70"/>
+      <c r="E84" s="70"/>
       <c r="F84" s="38"/>
-      <c r="G84" s="69" t="s">
+      <c r="G84" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="H84" s="69"/>
+      <c r="H84" s="70"/>
       <c r="I84" s="38"/>
       <c r="J84" s="38"/>
       <c r="K84" s="38"/>
@@ -3431,13 +3464,13 @@
       <c r="M85" s="5"/>
     </row>
     <row r="86" spans="1:13" ht="20.25">
-      <c r="A86" s="69" t="s">
+      <c r="A86" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B86" s="69"/>
-      <c r="C86" s="69"/>
-      <c r="D86" s="69"/>
-      <c r="E86" s="69"/>
+      <c r="B86" s="70"/>
+      <c r="C86" s="70"/>
+      <c r="D86" s="70"/>
+      <c r="E86" s="70"/>
       <c r="F86" s="46"/>
       <c r="G86" s="46"/>
       <c r="H86" s="46"/>
@@ -3463,21 +3496,21 @@
       <c r="M87" s="49"/>
     </row>
     <row r="88" spans="1:13" ht="20.25">
-      <c r="A88" s="70" t="s">
+      <c r="A88" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="B88" s="70"/>
-      <c r="C88" s="70"/>
-      <c r="D88" s="70"/>
-      <c r="E88" s="70"/>
-      <c r="F88" s="70"/>
-      <c r="G88" s="70"/>
-      <c r="H88" s="70"/>
-      <c r="I88" s="70"/>
-      <c r="J88" s="70"/>
-      <c r="K88" s="70"/>
-      <c r="L88" s="70"/>
-      <c r="M88" s="70"/>
+      <c r="B88" s="74"/>
+      <c r="C88" s="74"/>
+      <c r="D88" s="74"/>
+      <c r="E88" s="74"/>
+      <c r="F88" s="74"/>
+      <c r="G88" s="74"/>
+      <c r="H88" s="74"/>
+      <c r="I88" s="74"/>
+      <c r="J88" s="74"/>
+      <c r="K88" s="74"/>
+      <c r="L88" s="74"/>
+      <c r="M88" s="74"/>
     </row>
     <row r="89" spans="1:13" ht="75">
       <c r="A89" s="48" t="s">
@@ -3537,9 +3570,9 @@
         <v>24</v>
       </c>
       <c r="F90" s="48"/>
-      <c r="G90" s="71"/>
-      <c r="H90" s="72"/>
-      <c r="I90" s="71"/>
+      <c r="G90" s="75"/>
+      <c r="H90" s="71"/>
+      <c r="I90" s="75"/>
       <c r="J90" s="48"/>
       <c r="K90" s="48"/>
       <c r="L90" s="48"/>
@@ -3562,9 +3595,9 @@
         <v>14</v>
       </c>
       <c r="F91" s="48"/>
-      <c r="G91" s="71"/>
-      <c r="H91" s="73"/>
-      <c r="I91" s="71"/>
+      <c r="G91" s="75"/>
+      <c r="H91" s="72"/>
+      <c r="I91" s="75"/>
       <c r="J91" s="48"/>
       <c r="K91" s="48"/>
       <c r="L91" s="48"/>
@@ -3587,9 +3620,9 @@
         <v>152</v>
       </c>
       <c r="F92" s="48"/>
-      <c r="G92" s="71"/>
-      <c r="H92" s="72"/>
-      <c r="I92" s="71"/>
+      <c r="G92" s="75"/>
+      <c r="H92" s="71"/>
+      <c r="I92" s="75"/>
       <c r="J92" s="48"/>
       <c r="K92" s="48"/>
       <c r="L92" s="48"/>
@@ -3612,9 +3645,9 @@
         <v>155</v>
       </c>
       <c r="F93" s="48"/>
-      <c r="G93" s="71"/>
-      <c r="H93" s="73"/>
-      <c r="I93" s="71"/>
+      <c r="G93" s="75"/>
+      <c r="H93" s="72"/>
+      <c r="I93" s="75"/>
       <c r="J93" s="48"/>
       <c r="K93" s="48"/>
       <c r="L93" s="48"/>
@@ -3637,9 +3670,9 @@
         <v>155</v>
       </c>
       <c r="F94" s="48"/>
-      <c r="G94" s="71"/>
-      <c r="H94" s="73"/>
-      <c r="I94" s="71"/>
+      <c r="G94" s="75"/>
+      <c r="H94" s="72"/>
+      <c r="I94" s="75"/>
       <c r="J94" s="48"/>
       <c r="K94" s="48"/>
       <c r="L94" s="48"/>
@@ -3662,9 +3695,9 @@
         <v>158</v>
       </c>
       <c r="F95" s="48"/>
-      <c r="G95" s="71"/>
-      <c r="H95" s="73"/>
-      <c r="I95" s="71"/>
+      <c r="G95" s="75"/>
+      <c r="H95" s="72"/>
+      <c r="I95" s="75"/>
       <c r="J95" s="48"/>
       <c r="K95" s="48"/>
       <c r="L95" s="48"/>
@@ -3687,9 +3720,9 @@
         <v>162</v>
       </c>
       <c r="F96" s="48"/>
-      <c r="G96" s="71"/>
-      <c r="H96" s="73"/>
-      <c r="I96" s="71"/>
+      <c r="G96" s="75"/>
+      <c r="H96" s="72"/>
+      <c r="I96" s="75"/>
       <c r="J96" s="48"/>
       <c r="K96" s="48"/>
       <c r="L96" s="48"/>
@@ -3712,9 +3745,9 @@
         <v>14</v>
       </c>
       <c r="F97" s="48"/>
-      <c r="G97" s="71"/>
-      <c r="H97" s="74"/>
-      <c r="I97" s="71"/>
+      <c r="G97" s="75"/>
+      <c r="H97" s="73"/>
+      <c r="I97" s="75"/>
       <c r="J97" s="48"/>
       <c r="K97" s="48"/>
       <c r="L97" s="48"/>
@@ -3736,18 +3769,18 @@
       <c r="M98" s="49"/>
     </row>
     <row r="99" spans="1:13">
-      <c r="A99" s="69" t="s">
+      <c r="A99" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B99" s="69"/>
-      <c r="C99" s="69"/>
-      <c r="D99" s="69"/>
-      <c r="E99" s="69"/>
+      <c r="B99" s="70"/>
+      <c r="C99" s="70"/>
+      <c r="D99" s="70"/>
+      <c r="E99" s="70"/>
       <c r="F99" s="49"/>
-      <c r="G99" s="69" t="s">
+      <c r="G99" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H99" s="69"/>
+      <c r="H99" s="70"/>
       <c r="I99" s="49"/>
       <c r="J99" s="49"/>
       <c r="K99" s="49"/>
@@ -3770,18 +3803,18 @@
       <c r="M100" s="49"/>
     </row>
     <row r="101" spans="1:13">
-      <c r="A101" s="69" t="s">
+      <c r="A101" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="B101" s="69"/>
-      <c r="C101" s="69"/>
-      <c r="D101" s="69"/>
-      <c r="E101" s="69"/>
+      <c r="B101" s="70"/>
+      <c r="C101" s="70"/>
+      <c r="D101" s="70"/>
+      <c r="E101" s="70"/>
       <c r="F101" s="49"/>
-      <c r="G101" s="69" t="s">
+      <c r="G101" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="H101" s="69"/>
+      <c r="H101" s="70"/>
       <c r="I101" s="49"/>
       <c r="J101" s="49"/>
       <c r="K101" s="49"/>
@@ -3804,18 +3837,18 @@
       <c r="M102" s="49"/>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="69" t="s">
+      <c r="A103" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B103" s="69"/>
-      <c r="C103" s="69"/>
-      <c r="D103" s="69"/>
-      <c r="E103" s="69"/>
+      <c r="B103" s="70"/>
+      <c r="C103" s="70"/>
+      <c r="D103" s="70"/>
+      <c r="E103" s="70"/>
       <c r="F103" s="49"/>
-      <c r="G103" s="69" t="s">
+      <c r="G103" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="H103" s="69"/>
+      <c r="H103" s="70"/>
       <c r="I103" s="49"/>
       <c r="J103" s="49"/>
       <c r="K103" s="49"/>
@@ -3838,13 +3871,13 @@
       <c r="M104" s="49"/>
     </row>
     <row r="105" spans="1:13" ht="20.25">
-      <c r="A105" s="69" t="s">
+      <c r="A105" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="69"/>
-      <c r="C105" s="69"/>
-      <c r="D105" s="69"/>
-      <c r="E105" s="69"/>
+      <c r="B105" s="70"/>
+      <c r="C105" s="70"/>
+      <c r="D105" s="70"/>
+      <c r="E105" s="70"/>
       <c r="F105" s="46"/>
       <c r="G105" s="46"/>
       <c r="H105" s="46"/>
@@ -3870,21 +3903,21 @@
       <c r="M106" s="49"/>
     </row>
     <row r="107" spans="1:13" ht="20.25">
-      <c r="A107" s="70" t="s">
+      <c r="A107" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="B107" s="70"/>
-      <c r="C107" s="70"/>
-      <c r="D107" s="70"/>
-      <c r="E107" s="70"/>
-      <c r="F107" s="70"/>
-      <c r="G107" s="70"/>
-      <c r="H107" s="70"/>
-      <c r="I107" s="70"/>
-      <c r="J107" s="70"/>
-      <c r="K107" s="70"/>
-      <c r="L107" s="70"/>
-      <c r="M107" s="70"/>
+      <c r="B107" s="74"/>
+      <c r="C107" s="74"/>
+      <c r="D107" s="74"/>
+      <c r="E107" s="74"/>
+      <c r="F107" s="74"/>
+      <c r="G107" s="74"/>
+      <c r="H107" s="74"/>
+      <c r="I107" s="74"/>
+      <c r="J107" s="74"/>
+      <c r="K107" s="74"/>
+      <c r="L107" s="74"/>
+      <c r="M107" s="74"/>
     </row>
     <row r="108" spans="1:13" ht="75">
       <c r="A108" s="50" t="s">
@@ -3944,9 +3977,9 @@
         <v>169</v>
       </c>
       <c r="F109" s="50"/>
-      <c r="G109" s="71"/>
+      <c r="G109" s="75"/>
       <c r="H109" s="53"/>
-      <c r="I109" s="71"/>
+      <c r="I109" s="75"/>
       <c r="J109" s="50"/>
       <c r="K109" s="50"/>
       <c r="L109" s="50"/>
@@ -3969,9 +4002,9 @@
         <v>24</v>
       </c>
       <c r="F110" s="50"/>
-      <c r="G110" s="71"/>
+      <c r="G110" s="75"/>
       <c r="H110" s="55"/>
-      <c r="I110" s="71"/>
+      <c r="I110" s="75"/>
       <c r="J110" s="50"/>
       <c r="K110" s="50"/>
       <c r="L110" s="50"/>
@@ -3994,9 +4027,9 @@
         <v>204</v>
       </c>
       <c r="F111" s="50"/>
-      <c r="G111" s="71"/>
+      <c r="G111" s="75"/>
       <c r="H111" s="55"/>
-      <c r="I111" s="71"/>
+      <c r="I111" s="75"/>
       <c r="J111" s="50"/>
       <c r="K111" s="50"/>
       <c r="L111" s="50"/>
@@ -4019,9 +4052,9 @@
         <v>175</v>
       </c>
       <c r="F112" s="50"/>
-      <c r="G112" s="71"/>
+      <c r="G112" s="75"/>
       <c r="H112" s="54"/>
-      <c r="I112" s="71"/>
+      <c r="I112" s="75"/>
       <c r="J112" s="50"/>
       <c r="K112" s="50"/>
       <c r="L112" s="50"/>
@@ -4044,9 +4077,9 @@
         <v>23</v>
       </c>
       <c r="F113" s="50"/>
-      <c r="G113" s="71"/>
+      <c r="G113" s="75"/>
       <c r="H113" s="55"/>
-      <c r="I113" s="71"/>
+      <c r="I113" s="75"/>
       <c r="J113" s="50"/>
       <c r="K113" s="50"/>
       <c r="L113" s="50"/>
@@ -4069,9 +4102,9 @@
         <v>14</v>
       </c>
       <c r="F114" s="50"/>
-      <c r="G114" s="71"/>
+      <c r="G114" s="75"/>
       <c r="H114" s="55"/>
-      <c r="I114" s="71"/>
+      <c r="I114" s="75"/>
       <c r="J114" s="50"/>
       <c r="K114" s="50"/>
       <c r="L114" s="50"/>
@@ -4094,9 +4127,9 @@
         <v>23</v>
       </c>
       <c r="F115" s="50"/>
-      <c r="G115" s="71"/>
+      <c r="G115" s="75"/>
       <c r="H115" s="54"/>
-      <c r="I115" s="71"/>
+      <c r="I115" s="75"/>
       <c r="J115" s="50"/>
       <c r="K115" s="50"/>
       <c r="L115" s="50"/>
@@ -4118,18 +4151,18 @@
       <c r="M116" s="49"/>
     </row>
     <row r="117" spans="1:13">
-      <c r="A117" s="69" t="s">
+      <c r="A117" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B117" s="69"/>
-      <c r="C117" s="69"/>
-      <c r="D117" s="69"/>
-      <c r="E117" s="69"/>
+      <c r="B117" s="70"/>
+      <c r="C117" s="70"/>
+      <c r="D117" s="70"/>
+      <c r="E117" s="70"/>
       <c r="F117" s="49"/>
-      <c r="G117" s="69" t="s">
+      <c r="G117" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H117" s="69"/>
+      <c r="H117" s="70"/>
       <c r="I117" s="49"/>
       <c r="J117" s="49"/>
       <c r="K117" s="49"/>
@@ -4152,18 +4185,18 @@
       <c r="M118" s="49"/>
     </row>
     <row r="119" spans="1:13">
-      <c r="A119" s="69" t="s">
+      <c r="A119" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="B119" s="69"/>
-      <c r="C119" s="69"/>
-      <c r="D119" s="69"/>
-      <c r="E119" s="69"/>
+      <c r="B119" s="70"/>
+      <c r="C119" s="70"/>
+      <c r="D119" s="70"/>
+      <c r="E119" s="70"/>
       <c r="F119" s="49"/>
-      <c r="G119" s="69" t="s">
+      <c r="G119" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="H119" s="69"/>
+      <c r="H119" s="70"/>
       <c r="I119" s="49"/>
       <c r="J119" s="49"/>
       <c r="K119" s="49"/>
@@ -4186,18 +4219,18 @@
       <c r="M120" s="49"/>
     </row>
     <row r="121" spans="1:13">
-      <c r="A121" s="69" t="s">
+      <c r="A121" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B121" s="69"/>
-      <c r="C121" s="69"/>
-      <c r="D121" s="69"/>
-      <c r="E121" s="69"/>
+      <c r="B121" s="70"/>
+      <c r="C121" s="70"/>
+      <c r="D121" s="70"/>
+      <c r="E121" s="70"/>
       <c r="F121" s="49"/>
-      <c r="G121" s="69" t="s">
+      <c r="G121" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="H121" s="69"/>
+      <c r="H121" s="70"/>
       <c r="I121" s="49"/>
       <c r="J121" s="49"/>
       <c r="K121" s="49"/>
@@ -4220,13 +4253,13 @@
       <c r="M122" s="49"/>
     </row>
     <row r="123" spans="1:13" ht="20.25">
-      <c r="A123" s="69" t="s">
+      <c r="A123" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B123" s="69"/>
-      <c r="C123" s="69"/>
-      <c r="D123" s="69"/>
-      <c r="E123" s="69"/>
+      <c r="B123" s="70"/>
+      <c r="C123" s="70"/>
+      <c r="D123" s="70"/>
+      <c r="E123" s="70"/>
       <c r="F123" s="46"/>
       <c r="G123" s="46"/>
       <c r="H123" s="46"/>
@@ -4252,21 +4285,21 @@
       <c r="M124" s="46"/>
     </row>
     <row r="125" spans="1:13" ht="20.25">
-      <c r="A125" s="70" t="s">
+      <c r="A125" s="74" t="s">
         <v>176</v>
       </c>
-      <c r="B125" s="70"/>
-      <c r="C125" s="70"/>
-      <c r="D125" s="70"/>
-      <c r="E125" s="70"/>
-      <c r="F125" s="70"/>
-      <c r="G125" s="70"/>
-      <c r="H125" s="70"/>
-      <c r="I125" s="70"/>
-      <c r="J125" s="70"/>
-      <c r="K125" s="70"/>
-      <c r="L125" s="70"/>
-      <c r="M125" s="70"/>
+      <c r="B125" s="74"/>
+      <c r="C125" s="74"/>
+      <c r="D125" s="74"/>
+      <c r="E125" s="74"/>
+      <c r="F125" s="74"/>
+      <c r="G125" s="74"/>
+      <c r="H125" s="74"/>
+      <c r="I125" s="74"/>
+      <c r="J125" s="74"/>
+      <c r="K125" s="74"/>
+      <c r="L125" s="74"/>
+      <c r="M125" s="74"/>
     </row>
     <row r="126" spans="1:13" ht="75">
       <c r="A126" s="50" t="s">
@@ -4326,9 +4359,9 @@
         <v>14</v>
       </c>
       <c r="F127" s="50"/>
-      <c r="G127" s="71"/>
+      <c r="G127" s="75"/>
       <c r="H127" s="53"/>
-      <c r="I127" s="71"/>
+      <c r="I127" s="75"/>
       <c r="J127" s="50"/>
       <c r="K127" s="50"/>
       <c r="L127" s="50"/>
@@ -4351,9 +4384,9 @@
         <v>14</v>
       </c>
       <c r="F128" s="50"/>
-      <c r="G128" s="71"/>
+      <c r="G128" s="75"/>
       <c r="H128" s="55"/>
-      <c r="I128" s="71"/>
+      <c r="I128" s="75"/>
       <c r="J128" s="50"/>
       <c r="K128" s="50"/>
       <c r="L128" s="50"/>
@@ -4376,9 +4409,9 @@
         <v>14</v>
       </c>
       <c r="F129" s="50"/>
-      <c r="G129" s="71"/>
+      <c r="G129" s="75"/>
       <c r="H129" s="55"/>
-      <c r="I129" s="71"/>
+      <c r="I129" s="75"/>
       <c r="J129" s="50"/>
       <c r="K129" s="50"/>
       <c r="L129" s="50"/>
@@ -4401,9 +4434,9 @@
         <v>14</v>
       </c>
       <c r="F130" s="50"/>
-      <c r="G130" s="75"/>
+      <c r="G130" s="76"/>
       <c r="H130" s="55"/>
-      <c r="I130" s="76"/>
+      <c r="I130" s="77"/>
       <c r="J130" s="50"/>
       <c r="K130" s="50"/>
       <c r="L130" s="50"/>
@@ -4426,9 +4459,9 @@
         <v>23</v>
       </c>
       <c r="F131" s="50"/>
-      <c r="G131" s="71"/>
+      <c r="G131" s="75"/>
       <c r="H131" s="55"/>
-      <c r="I131" s="71"/>
+      <c r="I131" s="75"/>
       <c r="J131" s="50"/>
       <c r="K131" s="50"/>
       <c r="L131" s="50"/>
@@ -4451,9 +4484,9 @@
         <v>14</v>
       </c>
       <c r="F132" s="50"/>
-      <c r="G132" s="71"/>
+      <c r="G132" s="75"/>
       <c r="H132" s="55"/>
-      <c r="I132" s="71"/>
+      <c r="I132" s="75"/>
       <c r="J132" s="50"/>
       <c r="K132" s="50"/>
       <c r="L132" s="50"/>
@@ -4476,9 +4509,9 @@
         <v>215</v>
       </c>
       <c r="F133" s="50"/>
-      <c r="G133" s="71"/>
+      <c r="G133" s="75"/>
       <c r="H133" s="54"/>
-      <c r="I133" s="71"/>
+      <c r="I133" s="75"/>
       <c r="J133" s="50"/>
       <c r="K133" s="50"/>
       <c r="L133" s="50"/>
@@ -4501,9 +4534,9 @@
         <v>23</v>
       </c>
       <c r="F134" s="50"/>
-      <c r="G134" s="71"/>
+      <c r="G134" s="75"/>
       <c r="H134" s="55"/>
-      <c r="I134" s="71"/>
+      <c r="I134" s="75"/>
       <c r="J134" s="50"/>
       <c r="K134" s="50"/>
       <c r="L134" s="50"/>
@@ -4526,9 +4559,9 @@
         <v>219</v>
       </c>
       <c r="F135" s="50"/>
-      <c r="G135" s="71"/>
+      <c r="G135" s="75"/>
       <c r="H135" s="55"/>
-      <c r="I135" s="71"/>
+      <c r="I135" s="75"/>
       <c r="J135" s="50"/>
       <c r="K135" s="50"/>
       <c r="L135" s="50"/>
@@ -4551,9 +4584,9 @@
         <v>14</v>
       </c>
       <c r="F136" s="50"/>
-      <c r="G136" s="71"/>
+      <c r="G136" s="75"/>
       <c r="H136" s="54"/>
-      <c r="I136" s="71"/>
+      <c r="I136" s="75"/>
       <c r="J136" s="50"/>
       <c r="K136" s="50"/>
       <c r="L136" s="50"/>
@@ -4575,18 +4608,18 @@
       <c r="M137" s="49"/>
     </row>
     <row r="138" spans="1:13">
-      <c r="A138" s="69" t="s">
+      <c r="A138" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B138" s="69"/>
-      <c r="C138" s="69"/>
-      <c r="D138" s="69"/>
-      <c r="E138" s="69"/>
+      <c r="B138" s="70"/>
+      <c r="C138" s="70"/>
+      <c r="D138" s="70"/>
+      <c r="E138" s="70"/>
       <c r="F138" s="49"/>
-      <c r="G138" s="69" t="s">
+      <c r="G138" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H138" s="69"/>
+      <c r="H138" s="70"/>
       <c r="I138" s="49"/>
       <c r="J138" s="49"/>
       <c r="K138" s="49"/>
@@ -4609,18 +4642,18 @@
       <c r="M139" s="49"/>
     </row>
     <row r="140" spans="1:13">
-      <c r="A140" s="69" t="s">
+      <c r="A140" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="B140" s="69"/>
-      <c r="C140" s="69"/>
-      <c r="D140" s="69"/>
-      <c r="E140" s="69"/>
+      <c r="B140" s="70"/>
+      <c r="C140" s="70"/>
+      <c r="D140" s="70"/>
+      <c r="E140" s="70"/>
       <c r="F140" s="49"/>
-      <c r="G140" s="69" t="s">
+      <c r="G140" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="H140" s="69"/>
+      <c r="H140" s="70"/>
       <c r="I140" s="49"/>
       <c r="J140" s="49"/>
       <c r="K140" s="49"/>
@@ -4643,18 +4676,18 @@
       <c r="M141" s="49"/>
     </row>
     <row r="142" spans="1:13">
-      <c r="A142" s="69" t="s">
+      <c r="A142" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B142" s="69"/>
-      <c r="C142" s="69"/>
-      <c r="D142" s="69"/>
-      <c r="E142" s="69"/>
+      <c r="B142" s="70"/>
+      <c r="C142" s="70"/>
+      <c r="D142" s="70"/>
+      <c r="E142" s="70"/>
       <c r="F142" s="49"/>
-      <c r="G142" s="69" t="s">
+      <c r="G142" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="H142" s="69"/>
+      <c r="H142" s="70"/>
       <c r="I142" s="49"/>
       <c r="J142" s="49"/>
       <c r="K142" s="49"/>
@@ -4677,18 +4710,18 @@
       <c r="M143" s="49"/>
     </row>
     <row r="144" spans="1:13" ht="20.25">
-      <c r="A144" s="69" t="s">
+      <c r="A144" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B144" s="69"/>
-      <c r="C144" s="69"/>
-      <c r="D144" s="69"/>
-      <c r="E144" s="69"/>
+      <c r="B144" s="70"/>
+      <c r="C144" s="70"/>
+      <c r="D144" s="70"/>
+      <c r="E144" s="70"/>
       <c r="F144" s="46"/>
-      <c r="G144" s="69" t="s">
+      <c r="G144" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="H144" s="69"/>
+      <c r="H144" s="70"/>
       <c r="I144" s="46"/>
       <c r="J144" s="46"/>
       <c r="K144" s="46"/>
@@ -4711,21 +4744,21 @@
       <c r="M145" s="49"/>
     </row>
     <row r="146" spans="1:13" ht="20.25">
-      <c r="A146" s="70" t="s">
+      <c r="A146" s="74" t="s">
         <v>222</v>
       </c>
-      <c r="B146" s="70"/>
-      <c r="C146" s="70"/>
-      <c r="D146" s="70"/>
-      <c r="E146" s="70"/>
-      <c r="F146" s="70"/>
-      <c r="G146" s="70"/>
-      <c r="H146" s="70"/>
-      <c r="I146" s="70"/>
-      <c r="J146" s="70"/>
-      <c r="K146" s="70"/>
-      <c r="L146" s="70"/>
-      <c r="M146" s="70"/>
+      <c r="B146" s="74"/>
+      <c r="C146" s="74"/>
+      <c r="D146" s="74"/>
+      <c r="E146" s="74"/>
+      <c r="F146" s="74"/>
+      <c r="G146" s="74"/>
+      <c r="H146" s="74"/>
+      <c r="I146" s="74"/>
+      <c r="J146" s="74"/>
+      <c r="K146" s="74"/>
+      <c r="L146" s="74"/>
+      <c r="M146" s="74"/>
     </row>
     <row r="147" spans="1:13" ht="75">
       <c r="A147" s="57" t="s">
@@ -4785,9 +4818,9 @@
         <v>14</v>
       </c>
       <c r="F148" s="57"/>
-      <c r="G148" s="71"/>
+      <c r="G148" s="75"/>
       <c r="H148" s="60"/>
-      <c r="I148" s="71"/>
+      <c r="I148" s="75"/>
       <c r="J148" s="57"/>
       <c r="K148" s="57"/>
       <c r="L148" s="57"/>
@@ -4810,9 +4843,9 @@
         <v>229</v>
       </c>
       <c r="F149" s="57"/>
-      <c r="G149" s="71"/>
+      <c r="G149" s="75"/>
       <c r="H149" s="60"/>
-      <c r="I149" s="71"/>
+      <c r="I149" s="75"/>
       <c r="J149" s="57"/>
       <c r="K149" s="57"/>
       <c r="L149" s="57"/>
@@ -4835,9 +4868,9 @@
         <v>14</v>
       </c>
       <c r="F150" s="57"/>
-      <c r="G150" s="71"/>
+      <c r="G150" s="75"/>
       <c r="H150" s="60"/>
-      <c r="I150" s="71"/>
+      <c r="I150" s="75"/>
       <c r="J150" s="57"/>
       <c r="K150" s="57"/>
       <c r="L150" s="57"/>
@@ -4860,9 +4893,9 @@
         <v>24</v>
       </c>
       <c r="F151" s="57"/>
-      <c r="G151" s="71"/>
+      <c r="G151" s="75"/>
       <c r="H151" s="60"/>
-      <c r="I151" s="71"/>
+      <c r="I151" s="75"/>
       <c r="J151" s="57"/>
       <c r="K151" s="57"/>
       <c r="L151" s="57"/>
@@ -4885,9 +4918,9 @@
         <v>234</v>
       </c>
       <c r="F152" s="57"/>
-      <c r="G152" s="71"/>
+      <c r="G152" s="75"/>
       <c r="H152" s="60"/>
-      <c r="I152" s="71"/>
+      <c r="I152" s="75"/>
       <c r="J152" s="57"/>
       <c r="K152" s="57"/>
       <c r="L152" s="57"/>
@@ -4909,18 +4942,18 @@
       <c r="M153" s="49"/>
     </row>
     <row r="154" spans="1:13">
-      <c r="A154" s="69" t="s">
+      <c r="A154" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B154" s="69"/>
-      <c r="C154" s="69"/>
-      <c r="D154" s="69"/>
-      <c r="E154" s="69"/>
+      <c r="B154" s="70"/>
+      <c r="C154" s="70"/>
+      <c r="D154" s="70"/>
+      <c r="E154" s="70"/>
       <c r="F154" s="49"/>
-      <c r="G154" s="69" t="s">
+      <c r="G154" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H154" s="69"/>
+      <c r="H154" s="70"/>
       <c r="I154" s="49"/>
       <c r="J154" s="49"/>
       <c r="K154" s="49"/>
@@ -4943,18 +4976,18 @@
       <c r="M155" s="49"/>
     </row>
     <row r="156" spans="1:13">
-      <c r="A156" s="69" t="s">
+      <c r="A156" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="B156" s="69"/>
-      <c r="C156" s="69"/>
-      <c r="D156" s="69"/>
-      <c r="E156" s="69"/>
+      <c r="B156" s="70"/>
+      <c r="C156" s="70"/>
+      <c r="D156" s="70"/>
+      <c r="E156" s="70"/>
       <c r="F156" s="49"/>
-      <c r="G156" s="69" t="s">
+      <c r="G156" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="H156" s="69"/>
+      <c r="H156" s="70"/>
       <c r="I156" s="49"/>
       <c r="J156" s="49"/>
       <c r="K156" s="49"/>
@@ -4977,18 +5010,18 @@
       <c r="M157" s="49"/>
     </row>
     <row r="158" spans="1:13">
-      <c r="A158" s="69" t="s">
+      <c r="A158" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B158" s="69"/>
-      <c r="C158" s="69"/>
-      <c r="D158" s="69"/>
-      <c r="E158" s="69"/>
+      <c r="B158" s="70"/>
+      <c r="C158" s="70"/>
+      <c r="D158" s="70"/>
+      <c r="E158" s="70"/>
       <c r="F158" s="49"/>
-      <c r="G158" s="69" t="s">
+      <c r="G158" s="70" t="s">
         <v>253</v>
       </c>
-      <c r="H158" s="69"/>
+      <c r="H158" s="70"/>
       <c r="I158" s="49"/>
       <c r="J158" s="49"/>
       <c r="K158" s="49"/>
@@ -5011,18 +5044,18 @@
       <c r="M159" s="49"/>
     </row>
     <row r="160" spans="1:13" ht="20.25" customHeight="1">
-      <c r="A160" s="69" t="s">
+      <c r="A160" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="69"/>
-      <c r="C160" s="69"/>
-      <c r="D160" s="69"/>
-      <c r="E160" s="69"/>
+      <c r="B160" s="70"/>
+      <c r="C160" s="70"/>
+      <c r="D160" s="70"/>
+      <c r="E160" s="70"/>
       <c r="F160" s="46"/>
-      <c r="G160" s="69" t="s">
+      <c r="G160" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="H160" s="69"/>
+      <c r="H160" s="70"/>
       <c r="I160" s="46"/>
       <c r="J160" s="46"/>
       <c r="K160" s="46"/>
@@ -5045,21 +5078,21 @@
       <c r="M161" s="49"/>
     </row>
     <row r="162" spans="1:13" ht="20.25">
-      <c r="A162" s="70" t="s">
+      <c r="A162" s="74" t="s">
         <v>248</v>
       </c>
-      <c r="B162" s="70"/>
-      <c r="C162" s="70"/>
-      <c r="D162" s="70"/>
-      <c r="E162" s="70"/>
-      <c r="F162" s="70"/>
-      <c r="G162" s="70"/>
-      <c r="H162" s="70"/>
-      <c r="I162" s="70"/>
-      <c r="J162" s="70"/>
-      <c r="K162" s="70"/>
-      <c r="L162" s="70"/>
-      <c r="M162" s="70"/>
+      <c r="B162" s="74"/>
+      <c r="C162" s="74"/>
+      <c r="D162" s="74"/>
+      <c r="E162" s="74"/>
+      <c r="F162" s="74"/>
+      <c r="G162" s="74"/>
+      <c r="H162" s="74"/>
+      <c r="I162" s="74"/>
+      <c r="J162" s="74"/>
+      <c r="K162" s="74"/>
+      <c r="L162" s="74"/>
+      <c r="M162" s="74"/>
     </row>
     <row r="163" spans="1:13" ht="75">
       <c r="A163" s="61" t="s">
@@ -5119,9 +5152,9 @@
         <v>14</v>
       </c>
       <c r="F164" s="61"/>
-      <c r="G164" s="71"/>
+      <c r="G164" s="75"/>
       <c r="H164" s="60"/>
-      <c r="I164" s="71"/>
+      <c r="I164" s="75"/>
       <c r="J164" s="61"/>
       <c r="K164" s="61"/>
       <c r="L164" s="61"/>
@@ -5144,9 +5177,9 @@
         <v>14</v>
       </c>
       <c r="F165" s="61"/>
-      <c r="G165" s="71"/>
+      <c r="G165" s="75"/>
       <c r="H165" s="60"/>
-      <c r="I165" s="71"/>
+      <c r="I165" s="75"/>
       <c r="J165" s="61"/>
       <c r="K165" s="61"/>
       <c r="L165" s="61"/>
@@ -5168,18 +5201,18 @@
       <c r="M166" s="49"/>
     </row>
     <row r="167" spans="1:13">
-      <c r="A167" s="69" t="s">
+      <c r="A167" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B167" s="69"/>
-      <c r="C167" s="69"/>
-      <c r="D167" s="69"/>
-      <c r="E167" s="69"/>
+      <c r="B167" s="70"/>
+      <c r="C167" s="70"/>
+      <c r="D167" s="70"/>
+      <c r="E167" s="70"/>
       <c r="F167" s="49"/>
-      <c r="G167" s="69" t="s">
+      <c r="G167" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H167" s="69"/>
+      <c r="H167" s="70"/>
       <c r="I167" s="49"/>
       <c r="J167" s="49"/>
       <c r="K167" s="49"/>
@@ -5202,18 +5235,18 @@
       <c r="M168" s="49"/>
     </row>
     <row r="169" spans="1:13">
-      <c r="A169" s="69" t="s">
+      <c r="A169" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="B169" s="69"/>
-      <c r="C169" s="69"/>
-      <c r="D169" s="69"/>
-      <c r="E169" s="69"/>
+      <c r="B169" s="70"/>
+      <c r="C169" s="70"/>
+      <c r="D169" s="70"/>
+      <c r="E169" s="70"/>
       <c r="F169" s="49"/>
-      <c r="G169" s="69" t="s">
+      <c r="G169" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="H169" s="69"/>
+      <c r="H169" s="70"/>
       <c r="I169" s="49"/>
       <c r="J169" s="49"/>
       <c r="K169" s="49"/>
@@ -5236,18 +5269,18 @@
       <c r="M170" s="49"/>
     </row>
     <row r="171" spans="1:13">
-      <c r="A171" s="69" t="s">
+      <c r="A171" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B171" s="69"/>
-      <c r="C171" s="69"/>
-      <c r="D171" s="69"/>
-      <c r="E171" s="69"/>
+      <c r="B171" s="70"/>
+      <c r="C171" s="70"/>
+      <c r="D171" s="70"/>
+      <c r="E171" s="70"/>
       <c r="F171" s="49"/>
-      <c r="G171" s="69" t="s">
+      <c r="G171" s="70" t="s">
         <v>253</v>
       </c>
-      <c r="H171" s="69"/>
+      <c r="H171" s="70"/>
       <c r="I171" s="49"/>
       <c r="J171" s="49"/>
       <c r="K171" s="49"/>
@@ -5270,18 +5303,18 @@
       <c r="M172" s="49"/>
     </row>
     <row r="173" spans="1:13" ht="20.25">
-      <c r="A173" s="69" t="s">
+      <c r="A173" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B173" s="69"/>
-      <c r="C173" s="69"/>
-      <c r="D173" s="69"/>
-      <c r="E173" s="69"/>
+      <c r="B173" s="70"/>
+      <c r="C173" s="70"/>
+      <c r="D173" s="70"/>
+      <c r="E173" s="70"/>
       <c r="F173" s="46"/>
-      <c r="G173" s="69" t="s">
+      <c r="G173" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="H173" s="69"/>
+      <c r="H173" s="70"/>
       <c r="I173" s="46"/>
       <c r="J173" s="46"/>
       <c r="K173" s="46"/>
@@ -5304,21 +5337,21 @@
       <c r="M174" s="46"/>
     </row>
     <row r="175" spans="1:13" ht="20.25">
-      <c r="A175" s="70" t="s">
+      <c r="A175" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="B175" s="70"/>
-      <c r="C175" s="70"/>
-      <c r="D175" s="70"/>
-      <c r="E175" s="70"/>
-      <c r="F175" s="70"/>
-      <c r="G175" s="70"/>
-      <c r="H175" s="70"/>
-      <c r="I175" s="70"/>
-      <c r="J175" s="70"/>
-      <c r="K175" s="70"/>
-      <c r="L175" s="70"/>
-      <c r="M175" s="70"/>
+      <c r="B175" s="74"/>
+      <c r="C175" s="74"/>
+      <c r="D175" s="74"/>
+      <c r="E175" s="74"/>
+      <c r="F175" s="74"/>
+      <c r="G175" s="74"/>
+      <c r="H175" s="74"/>
+      <c r="I175" s="74"/>
+      <c r="J175" s="74"/>
+      <c r="K175" s="74"/>
+      <c r="L175" s="74"/>
+      <c r="M175" s="74"/>
     </row>
     <row r="176" spans="1:13" ht="75">
       <c r="A176" s="63" t="s">
@@ -5378,9 +5411,9 @@
         <v>24</v>
       </c>
       <c r="F177" s="63"/>
-      <c r="G177" s="71"/>
+      <c r="G177" s="75"/>
       <c r="H177" s="60"/>
-      <c r="I177" s="71"/>
+      <c r="I177" s="75"/>
       <c r="J177" s="63"/>
       <c r="K177" s="63"/>
       <c r="L177" s="63"/>
@@ -5403,9 +5436,9 @@
         <v>252</v>
       </c>
       <c r="F178" s="63"/>
-      <c r="G178" s="71"/>
+      <c r="G178" s="75"/>
       <c r="H178" s="60"/>
-      <c r="I178" s="71"/>
+      <c r="I178" s="75"/>
       <c r="J178" s="63"/>
       <c r="K178" s="63"/>
       <c r="L178" s="63"/>
@@ -5427,18 +5460,18 @@
       <c r="M179" s="49"/>
     </row>
     <row r="180" spans="1:13">
-      <c r="A180" s="69" t="s">
+      <c r="A180" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B180" s="69"/>
-      <c r="C180" s="69"/>
-      <c r="D180" s="69"/>
-      <c r="E180" s="69"/>
+      <c r="B180" s="70"/>
+      <c r="C180" s="70"/>
+      <c r="D180" s="70"/>
+      <c r="E180" s="70"/>
       <c r="F180" s="49"/>
-      <c r="G180" s="69" t="s">
+      <c r="G180" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H180" s="69"/>
+      <c r="H180" s="70"/>
       <c r="I180" s="49"/>
       <c r="J180" s="49"/>
       <c r="K180" s="49"/>
@@ -5461,18 +5494,18 @@
       <c r="M181" s="49"/>
     </row>
     <row r="182" spans="1:13">
-      <c r="A182" s="69" t="s">
+      <c r="A182" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="B182" s="69"/>
-      <c r="C182" s="69"/>
-      <c r="D182" s="69"/>
-      <c r="E182" s="69"/>
+      <c r="B182" s="70"/>
+      <c r="C182" s="70"/>
+      <c r="D182" s="70"/>
+      <c r="E182" s="70"/>
       <c r="F182" s="49"/>
-      <c r="G182" s="69" t="s">
+      <c r="G182" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="H182" s="69"/>
+      <c r="H182" s="70"/>
       <c r="I182" s="49"/>
       <c r="J182" s="49"/>
       <c r="K182" s="49"/>
@@ -5495,18 +5528,18 @@
       <c r="M183" s="49"/>
     </row>
     <row r="184" spans="1:13">
-      <c r="A184" s="69" t="s">
+      <c r="A184" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B184" s="69"/>
-      <c r="C184" s="69"/>
-      <c r="D184" s="69"/>
-      <c r="E184" s="69"/>
+      <c r="B184" s="70"/>
+      <c r="C184" s="70"/>
+      <c r="D184" s="70"/>
+      <c r="E184" s="70"/>
       <c r="F184" s="49"/>
-      <c r="G184" s="69" t="s">
+      <c r="G184" s="70" t="s">
         <v>253</v>
       </c>
-      <c r="H184" s="69"/>
+      <c r="H184" s="70"/>
       <c r="I184" s="49"/>
       <c r="J184" s="49"/>
       <c r="K184" s="49"/>
@@ -5529,18 +5562,18 @@
       <c r="M185" s="49"/>
     </row>
     <row r="186" spans="1:13" ht="20.25">
-      <c r="A186" s="69" t="s">
+      <c r="A186" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="69"/>
-      <c r="C186" s="69"/>
-      <c r="D186" s="69"/>
-      <c r="E186" s="69"/>
+      <c r="B186" s="70"/>
+      <c r="C186" s="70"/>
+      <c r="D186" s="70"/>
+      <c r="E186" s="70"/>
       <c r="F186" s="46"/>
-      <c r="G186" s="69" t="s">
+      <c r="G186" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="H186" s="69"/>
+      <c r="H186" s="70"/>
       <c r="I186" s="46"/>
       <c r="J186" s="46"/>
       <c r="K186" s="46"/>
@@ -5548,21 +5581,21 @@
       <c r="M186" s="46"/>
     </row>
     <row r="188" spans="1:13" ht="20.25">
-      <c r="A188" s="70" t="s">
+      <c r="A188" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="B188" s="70"/>
-      <c r="C188" s="70"/>
-      <c r="D188" s="70"/>
-      <c r="E188" s="70"/>
-      <c r="F188" s="70"/>
-      <c r="G188" s="70"/>
-      <c r="H188" s="70"/>
-      <c r="I188" s="70"/>
-      <c r="J188" s="70"/>
-      <c r="K188" s="70"/>
-      <c r="L188" s="70"/>
-      <c r="M188" s="70"/>
+      <c r="B188" s="74"/>
+      <c r="C188" s="74"/>
+      <c r="D188" s="74"/>
+      <c r="E188" s="74"/>
+      <c r="F188" s="74"/>
+      <c r="G188" s="74"/>
+      <c r="H188" s="74"/>
+      <c r="I188" s="74"/>
+      <c r="J188" s="74"/>
+      <c r="K188" s="74"/>
+      <c r="L188" s="74"/>
+      <c r="M188" s="74"/>
     </row>
     <row r="189" spans="1:13" ht="75">
       <c r="A189" s="64" t="s">
@@ -5622,9 +5655,9 @@
         <v>14</v>
       </c>
       <c r="F190" s="64"/>
-      <c r="G190" s="71"/>
+      <c r="G190" s="75"/>
       <c r="H190" s="60"/>
-      <c r="I190" s="71"/>
+      <c r="I190" s="75"/>
       <c r="J190" s="64"/>
       <c r="K190" s="64"/>
       <c r="L190" s="64"/>
@@ -5647,9 +5680,9 @@
         <v>155</v>
       </c>
       <c r="F191" s="64"/>
-      <c r="G191" s="71"/>
+      <c r="G191" s="75"/>
       <c r="H191" s="60"/>
-      <c r="I191" s="71"/>
+      <c r="I191" s="75"/>
       <c r="J191" s="64"/>
       <c r="K191" s="64"/>
       <c r="L191" s="64"/>
@@ -5671,18 +5704,18 @@
       <c r="M192" s="49"/>
     </row>
     <row r="193" spans="1:13">
-      <c r="A193" s="69" t="s">
+      <c r="A193" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B193" s="69"/>
-      <c r="C193" s="69"/>
-      <c r="D193" s="69"/>
-      <c r="E193" s="69"/>
+      <c r="B193" s="70"/>
+      <c r="C193" s="70"/>
+      <c r="D193" s="70"/>
+      <c r="E193" s="70"/>
       <c r="F193" s="49"/>
-      <c r="G193" s="69" t="s">
+      <c r="G193" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H193" s="69"/>
+      <c r="H193" s="70"/>
       <c r="I193" s="49"/>
       <c r="J193" s="49"/>
       <c r="K193" s="49"/>
@@ -5705,18 +5738,18 @@
       <c r="M194" s="49"/>
     </row>
     <row r="195" spans="1:13">
-      <c r="A195" s="69" t="s">
+      <c r="A195" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="B195" s="69"/>
-      <c r="C195" s="69"/>
-      <c r="D195" s="69"/>
-      <c r="E195" s="69"/>
+      <c r="B195" s="70"/>
+      <c r="C195" s="70"/>
+      <c r="D195" s="70"/>
+      <c r="E195" s="70"/>
       <c r="F195" s="49"/>
-      <c r="G195" s="69" t="s">
+      <c r="G195" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="H195" s="69"/>
+      <c r="H195" s="70"/>
       <c r="I195" s="49"/>
       <c r="J195" s="49"/>
       <c r="K195" s="49"/>
@@ -5739,18 +5772,18 @@
       <c r="M196" s="49"/>
     </row>
     <row r="197" spans="1:13">
-      <c r="A197" s="69" t="s">
+      <c r="A197" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B197" s="69"/>
-      <c r="C197" s="69"/>
-      <c r="D197" s="69"/>
-      <c r="E197" s="69"/>
+      <c r="B197" s="70"/>
+      <c r="C197" s="70"/>
+      <c r="D197" s="70"/>
+      <c r="E197" s="70"/>
       <c r="F197" s="49"/>
-      <c r="G197" s="69" t="s">
+      <c r="G197" s="70" t="s">
         <v>253</v>
       </c>
-      <c r="H197" s="69"/>
+      <c r="H197" s="70"/>
       <c r="I197" s="49"/>
       <c r="J197" s="49"/>
       <c r="K197" s="49"/>
@@ -5773,18 +5806,18 @@
       <c r="M198" s="49"/>
     </row>
     <row r="199" spans="1:13" ht="20.25">
-      <c r="A199" s="69" t="s">
+      <c r="A199" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B199" s="69"/>
-      <c r="C199" s="69"/>
-      <c r="D199" s="69"/>
-      <c r="E199" s="69"/>
+      <c r="B199" s="70"/>
+      <c r="C199" s="70"/>
+      <c r="D199" s="70"/>
+      <c r="E199" s="70"/>
       <c r="F199" s="46"/>
-      <c r="G199" s="69" t="s">
+      <c r="G199" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="H199" s="69"/>
+      <c r="H199" s="70"/>
       <c r="I199" s="46"/>
       <c r="J199" s="46"/>
       <c r="K199" s="46"/>
@@ -5792,21 +5825,21 @@
       <c r="M199" s="46"/>
     </row>
     <row r="201" spans="1:13" ht="20.25">
-      <c r="A201" s="70" t="s">
+      <c r="A201" s="74" t="s">
         <v>261</v>
       </c>
-      <c r="B201" s="70"/>
-      <c r="C201" s="70"/>
-      <c r="D201" s="70"/>
-      <c r="E201" s="70"/>
-      <c r="F201" s="70"/>
-      <c r="G201" s="70"/>
-      <c r="H201" s="70"/>
-      <c r="I201" s="70"/>
-      <c r="J201" s="70"/>
-      <c r="K201" s="70"/>
-      <c r="L201" s="70"/>
-      <c r="M201" s="70"/>
+      <c r="B201" s="74"/>
+      <c r="C201" s="74"/>
+      <c r="D201" s="74"/>
+      <c r="E201" s="74"/>
+      <c r="F201" s="74"/>
+      <c r="G201" s="74"/>
+      <c r="H201" s="74"/>
+      <c r="I201" s="74"/>
+      <c r="J201" s="74"/>
+      <c r="K201" s="74"/>
+      <c r="L201" s="74"/>
+      <c r="M201" s="74"/>
     </row>
     <row r="202" spans="1:13" ht="75">
       <c r="A202" s="65" t="s">
@@ -5866,9 +5899,9 @@
         <v>264</v>
       </c>
       <c r="F203" s="65"/>
-      <c r="G203" s="71"/>
-      <c r="H203" s="72"/>
-      <c r="I203" s="71"/>
+      <c r="G203" s="75"/>
+      <c r="H203" s="71"/>
+      <c r="I203" s="75"/>
       <c r="J203" s="65"/>
       <c r="K203" s="65"/>
       <c r="L203" s="65"/>
@@ -5891,9 +5924,9 @@
         <v>14</v>
       </c>
       <c r="F204" s="65"/>
-      <c r="G204" s="71"/>
-      <c r="H204" s="73"/>
-      <c r="I204" s="71"/>
+      <c r="G204" s="75"/>
+      <c r="H204" s="72"/>
+      <c r="I204" s="75"/>
       <c r="J204" s="65"/>
       <c r="K204" s="65"/>
       <c r="L204" s="65"/>
@@ -5916,9 +5949,9 @@
         <v>272</v>
       </c>
       <c r="F205" s="65"/>
-      <c r="G205" s="71"/>
-      <c r="H205" s="74"/>
-      <c r="I205" s="71"/>
+      <c r="G205" s="75"/>
+      <c r="H205" s="73"/>
+      <c r="I205" s="75"/>
       <c r="J205" s="65"/>
       <c r="K205" s="65"/>
       <c r="L205" s="65"/>
@@ -5940,18 +5973,18 @@
       <c r="M206" s="49"/>
     </row>
     <row r="207" spans="1:13">
-      <c r="A207" s="69" t="s">
+      <c r="A207" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B207" s="69"/>
-      <c r="C207" s="69"/>
-      <c r="D207" s="69"/>
-      <c r="E207" s="69"/>
+      <c r="B207" s="70"/>
+      <c r="C207" s="70"/>
+      <c r="D207" s="70"/>
+      <c r="E207" s="70"/>
       <c r="F207" s="49"/>
-      <c r="G207" s="69" t="s">
+      <c r="G207" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H207" s="69"/>
+      <c r="H207" s="70"/>
       <c r="I207" s="49"/>
       <c r="J207" s="49"/>
       <c r="K207" s="49"/>
@@ -5974,18 +6007,18 @@
       <c r="M208" s="49"/>
     </row>
     <row r="209" spans="1:13">
-      <c r="A209" s="69" t="s">
+      <c r="A209" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="B209" s="69"/>
-      <c r="C209" s="69"/>
-      <c r="D209" s="69"/>
-      <c r="E209" s="69"/>
+      <c r="B209" s="70"/>
+      <c r="C209" s="70"/>
+      <c r="D209" s="70"/>
+      <c r="E209" s="70"/>
       <c r="F209" s="49"/>
-      <c r="G209" s="69" t="s">
+      <c r="G209" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="H209" s="69"/>
+      <c r="H209" s="70"/>
       <c r="I209" s="49"/>
       <c r="J209" s="49"/>
       <c r="K209" s="49"/>
@@ -6008,18 +6041,18 @@
       <c r="M210" s="49"/>
     </row>
     <row r="211" spans="1:13">
-      <c r="A211" s="69" t="s">
+      <c r="A211" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B211" s="69"/>
-      <c r="C211" s="69"/>
-      <c r="D211" s="69"/>
-      <c r="E211" s="69"/>
+      <c r="B211" s="70"/>
+      <c r="C211" s="70"/>
+      <c r="D211" s="70"/>
+      <c r="E211" s="70"/>
       <c r="F211" s="49"/>
-      <c r="G211" s="69" t="s">
+      <c r="G211" s="70" t="s">
         <v>253</v>
       </c>
-      <c r="H211" s="69"/>
+      <c r="H211" s="70"/>
       <c r="I211" s="49"/>
       <c r="J211" s="49"/>
       <c r="K211" s="49"/>
@@ -6042,18 +6075,18 @@
       <c r="M212" s="49"/>
     </row>
     <row r="213" spans="1:13" ht="20.25">
-      <c r="A213" s="69" t="s">
+      <c r="A213" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B213" s="69"/>
-      <c r="C213" s="69"/>
-      <c r="D213" s="69"/>
-      <c r="E213" s="69"/>
+      <c r="B213" s="70"/>
+      <c r="C213" s="70"/>
+      <c r="D213" s="70"/>
+      <c r="E213" s="70"/>
       <c r="F213" s="46"/>
-      <c r="G213" s="69" t="s">
+      <c r="G213" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="H213" s="69"/>
+      <c r="H213" s="70"/>
       <c r="I213" s="46"/>
       <c r="J213" s="46"/>
       <c r="K213" s="46"/>
@@ -6061,21 +6094,21 @@
       <c r="M213" s="46"/>
     </row>
     <row r="215" spans="1:13" ht="20.25">
-      <c r="A215" s="70" t="s">
+      <c r="A215" s="74" t="s">
         <v>277</v>
       </c>
-      <c r="B215" s="70"/>
-      <c r="C215" s="70"/>
-      <c r="D215" s="70"/>
-      <c r="E215" s="70"/>
-      <c r="F215" s="70"/>
-      <c r="G215" s="70"/>
-      <c r="H215" s="70"/>
-      <c r="I215" s="70"/>
-      <c r="J215" s="70"/>
-      <c r="K215" s="70"/>
-      <c r="L215" s="70"/>
-      <c r="M215" s="70"/>
+      <c r="B215" s="74"/>
+      <c r="C215" s="74"/>
+      <c r="D215" s="74"/>
+      <c r="E215" s="74"/>
+      <c r="F215" s="74"/>
+      <c r="G215" s="74"/>
+      <c r="H215" s="74"/>
+      <c r="I215" s="74"/>
+      <c r="J215" s="74"/>
+      <c r="K215" s="74"/>
+      <c r="L215" s="74"/>
+      <c r="M215" s="74"/>
     </row>
     <row r="216" spans="1:13" ht="75">
       <c r="A216" s="67" t="s">
@@ -6135,9 +6168,9 @@
         <v>264</v>
       </c>
       <c r="F217" s="67"/>
-      <c r="G217" s="71"/>
-      <c r="H217" s="72"/>
-      <c r="I217" s="71"/>
+      <c r="G217" s="75"/>
+      <c r="H217" s="71"/>
+      <c r="I217" s="75"/>
       <c r="J217" s="67"/>
       <c r="K217" s="67"/>
       <c r="L217" s="67"/>
@@ -6160,15 +6193,15 @@
         <v>14</v>
       </c>
       <c r="F218" s="67"/>
-      <c r="G218" s="71"/>
-      <c r="H218" s="73"/>
-      <c r="I218" s="71"/>
+      <c r="G218" s="75"/>
+      <c r="H218" s="72"/>
+      <c r="I218" s="75"/>
       <c r="J218" s="67"/>
       <c r="K218" s="67"/>
       <c r="L218" s="67"/>
       <c r="M218" s="67"/>
     </row>
-    <row r="219" spans="1:13" ht="30">
+    <row r="219" spans="1:13" ht="45">
       <c r="A219" s="3" t="s">
         <v>280</v>
       </c>
@@ -6179,15 +6212,15 @@
         <v>284</v>
       </c>
       <c r="D219" s="36" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E219" s="20" t="s">
         <v>14</v>
       </c>
       <c r="F219" s="67"/>
-      <c r="G219" s="71"/>
-      <c r="H219" s="73"/>
-      <c r="I219" s="71"/>
+      <c r="G219" s="75"/>
+      <c r="H219" s="72"/>
+      <c r="I219" s="75"/>
       <c r="J219" s="67"/>
       <c r="K219" s="67"/>
       <c r="L219" s="67"/>
@@ -6198,21 +6231,21 @@
         <v>281</v>
       </c>
       <c r="B220" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="C220" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="C220" s="23" t="s">
+      <c r="D220" s="42" t="s">
         <v>287</v>
-      </c>
-      <c r="D220" s="42" t="s">
-        <v>288</v>
       </c>
       <c r="E220" s="20" t="s">
         <v>14</v>
       </c>
       <c r="F220" s="67"/>
-      <c r="G220" s="71"/>
-      <c r="H220" s="74"/>
-      <c r="I220" s="71"/>
+      <c r="G220" s="75"/>
+      <c r="H220" s="73"/>
+      <c r="I220" s="75"/>
       <c r="J220" s="67"/>
       <c r="K220" s="67"/>
       <c r="L220" s="67"/>
@@ -6234,18 +6267,18 @@
       <c r="M221" s="49"/>
     </row>
     <row r="222" spans="1:13">
-      <c r="A222" s="69" t="s">
+      <c r="A222" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B222" s="69"/>
-      <c r="C222" s="69"/>
-      <c r="D222" s="69"/>
-      <c r="E222" s="69"/>
+      <c r="B222" s="70"/>
+      <c r="C222" s="70"/>
+      <c r="D222" s="70"/>
+      <c r="E222" s="70"/>
       <c r="F222" s="49"/>
-      <c r="G222" s="69" t="s">
+      <c r="G222" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H222" s="69"/>
+      <c r="H222" s="70"/>
       <c r="I222" s="49"/>
       <c r="J222" s="49"/>
       <c r="K222" s="49"/>
@@ -6268,18 +6301,18 @@
       <c r="M223" s="49"/>
     </row>
     <row r="224" spans="1:13">
-      <c r="A224" s="69" t="s">
+      <c r="A224" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="B224" s="69"/>
-      <c r="C224" s="69"/>
-      <c r="D224" s="69"/>
-      <c r="E224" s="69"/>
+      <c r="B224" s="70"/>
+      <c r="C224" s="70"/>
+      <c r="D224" s="70"/>
+      <c r="E224" s="70"/>
       <c r="F224" s="49"/>
-      <c r="G224" s="69" t="s">
+      <c r="G224" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="H224" s="69"/>
+      <c r="H224" s="70"/>
       <c r="I224" s="49"/>
       <c r="J224" s="49"/>
       <c r="K224" s="49"/>
@@ -6302,18 +6335,18 @@
       <c r="M225" s="49"/>
     </row>
     <row r="226" spans="1:13">
-      <c r="A226" s="69" t="s">
+      <c r="A226" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B226" s="69"/>
-      <c r="C226" s="69"/>
-      <c r="D226" s="69"/>
-      <c r="E226" s="69"/>
+      <c r="B226" s="70"/>
+      <c r="C226" s="70"/>
+      <c r="D226" s="70"/>
+      <c r="E226" s="70"/>
       <c r="F226" s="49"/>
-      <c r="G226" s="69" t="s">
+      <c r="G226" s="70" t="s">
         <v>253</v>
       </c>
-      <c r="H226" s="69"/>
+      <c r="H226" s="70"/>
       <c r="I226" s="49"/>
       <c r="J226" s="49"/>
       <c r="K226" s="49"/>
@@ -6336,112 +6369,325 @@
       <c r="M227" s="49"/>
     </row>
     <row r="228" spans="1:13" ht="20.25">
-      <c r="A228" s="69" t="s">
+      <c r="A228" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B228" s="69"/>
-      <c r="C228" s="69"/>
-      <c r="D228" s="69"/>
-      <c r="E228" s="69"/>
+      <c r="B228" s="70"/>
+      <c r="C228" s="70"/>
+      <c r="D228" s="70"/>
+      <c r="E228" s="70"/>
       <c r="F228" s="46"/>
-      <c r="G228" s="69" t="s">
+      <c r="G228" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="H228" s="69"/>
+      <c r="H228" s="70"/>
       <c r="I228" s="46"/>
       <c r="J228" s="46"/>
       <c r="K228" s="46"/>
       <c r="L228" s="46"/>
       <c r="M228" s="46"/>
     </row>
+    <row r="230" spans="1:13" ht="20.25">
+      <c r="A230" s="74" t="s">
+        <v>288</v>
+      </c>
+      <c r="B230" s="74"/>
+      <c r="C230" s="74"/>
+      <c r="D230" s="74"/>
+      <c r="E230" s="74"/>
+      <c r="F230" s="74"/>
+      <c r="G230" s="74"/>
+      <c r="H230" s="74"/>
+      <c r="I230" s="74"/>
+      <c r="J230" s="74"/>
+      <c r="K230" s="74"/>
+      <c r="L230" s="74"/>
+      <c r="M230" s="74"/>
+    </row>
+    <row r="231" spans="1:13" ht="75">
+      <c r="A231" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C231" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D231" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E231" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="F231" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="G231" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="H231" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="I231" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="J231" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="K231" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="L231" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="M231" s="69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" ht="30">
+      <c r="A232" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B232" s="69" t="s">
+        <v>292</v>
+      </c>
+      <c r="C232" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="D232" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="E232" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="F232" s="69"/>
+      <c r="G232" s="75"/>
+      <c r="H232" s="71"/>
+      <c r="I232" s="75"/>
+      <c r="J232" s="69"/>
+      <c r="K232" s="69"/>
+      <c r="L232" s="69"/>
+      <c r="M232" s="69"/>
+    </row>
+    <row r="233" spans="1:13" ht="30">
+      <c r="A233" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B233" s="69" t="s">
+        <v>296</v>
+      </c>
+      <c r="C233" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="D233" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="E233" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F233" s="69"/>
+      <c r="G233" s="75"/>
+      <c r="H233" s="73"/>
+      <c r="I233" s="75"/>
+      <c r="J233" s="69"/>
+      <c r="K233" s="69"/>
+      <c r="L233" s="69"/>
+      <c r="M233" s="69"/>
+    </row>
+    <row r="234" spans="1:13">
+      <c r="A234" s="31"/>
+      <c r="B234" s="31"/>
+      <c r="C234" s="31"/>
+      <c r="D234" s="44"/>
+      <c r="E234" s="22"/>
+      <c r="F234" s="49"/>
+      <c r="G234" s="49"/>
+      <c r="H234" s="52"/>
+      <c r="I234" s="49"/>
+      <c r="J234" s="49"/>
+      <c r="K234" s="49"/>
+      <c r="L234" s="49"/>
+      <c r="M234" s="49"/>
+    </row>
+    <row r="235" spans="1:13">
+      <c r="A235" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B235" s="70"/>
+      <c r="C235" s="70"/>
+      <c r="D235" s="70"/>
+      <c r="E235" s="70"/>
+      <c r="F235" s="49"/>
+      <c r="G235" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="H235" s="70"/>
+      <c r="I235" s="49"/>
+      <c r="J235" s="49"/>
+      <c r="K235" s="49"/>
+      <c r="L235" s="49"/>
+      <c r="M235" s="49"/>
+    </row>
+    <row r="236" spans="1:13">
+      <c r="A236" s="49"/>
+      <c r="B236" s="49"/>
+      <c r="C236" s="43"/>
+      <c r="D236" s="49"/>
+      <c r="E236" s="49"/>
+      <c r="F236" s="49"/>
+      <c r="G236" s="49"/>
+      <c r="H236" s="49"/>
+      <c r="I236" s="49"/>
+      <c r="J236" s="49"/>
+      <c r="K236" s="49"/>
+      <c r="L236" s="49"/>
+      <c r="M236" s="49"/>
+    </row>
+    <row r="237" spans="1:13">
+      <c r="A237" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="B237" s="70"/>
+      <c r="C237" s="70"/>
+      <c r="D237" s="70"/>
+      <c r="E237" s="70"/>
+      <c r="F237" s="49"/>
+      <c r="G237" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="H237" s="70"/>
+      <c r="I237" s="49"/>
+      <c r="J237" s="49"/>
+      <c r="K237" s="49"/>
+      <c r="L237" s="49"/>
+      <c r="M237" s="49"/>
+    </row>
+    <row r="238" spans="1:13">
+      <c r="A238" s="49"/>
+      <c r="B238" s="49"/>
+      <c r="C238" s="43"/>
+      <c r="D238" s="49"/>
+      <c r="E238" s="49"/>
+      <c r="F238" s="49"/>
+      <c r="G238" s="49"/>
+      <c r="H238" s="49"/>
+      <c r="I238" s="49"/>
+      <c r="J238" s="49"/>
+      <c r="K238" s="49"/>
+      <c r="L238" s="49"/>
+      <c r="M238" s="49"/>
+    </row>
+    <row r="239" spans="1:13">
+      <c r="A239" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B239" s="70"/>
+      <c r="C239" s="70"/>
+      <c r="D239" s="70"/>
+      <c r="E239" s="70"/>
+      <c r="F239" s="49"/>
+      <c r="G239" s="70" t="s">
+        <v>253</v>
+      </c>
+      <c r="H239" s="70"/>
+      <c r="I239" s="49"/>
+      <c r="J239" s="49"/>
+      <c r="K239" s="49"/>
+      <c r="L239" s="49"/>
+      <c r="M239" s="49"/>
+    </row>
+    <row r="240" spans="1:13">
+      <c r="A240" s="49"/>
+      <c r="B240" s="49"/>
+      <c r="C240" s="43"/>
+      <c r="D240" s="49"/>
+      <c r="E240" s="49"/>
+      <c r="F240" s="49"/>
+      <c r="G240" s="49"/>
+      <c r="H240" s="49"/>
+      <c r="I240" s="49"/>
+      <c r="J240" s="49"/>
+      <c r="K240" s="49"/>
+      <c r="L240" s="49"/>
+      <c r="M240" s="49"/>
+    </row>
+    <row r="241" spans="1:13" ht="20.25">
+      <c r="A241" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B241" s="70"/>
+      <c r="C241" s="70"/>
+      <c r="D241" s="70"/>
+      <c r="E241" s="70"/>
+      <c r="F241" s="46"/>
+      <c r="G241" s="70" t="s">
+        <v>239</v>
+      </c>
+      <c r="H241" s="70"/>
+      <c r="I241" s="46"/>
+      <c r="J241" s="46"/>
+      <c r="K241" s="46"/>
+      <c r="L241" s="46"/>
+      <c r="M241" s="46"/>
+    </row>
   </sheetData>
-  <mergeCells count="153">
-    <mergeCell ref="A213:E213"/>
-    <mergeCell ref="G213:H213"/>
-    <mergeCell ref="H203:H205"/>
-    <mergeCell ref="A201:M201"/>
-    <mergeCell ref="G203:G205"/>
-    <mergeCell ref="I203:I205"/>
-    <mergeCell ref="A207:E207"/>
-    <mergeCell ref="G207:H207"/>
-    <mergeCell ref="A209:E209"/>
-    <mergeCell ref="G209:H209"/>
-    <mergeCell ref="A211:E211"/>
-    <mergeCell ref="G211:H211"/>
-    <mergeCell ref="A169:E169"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="A171:E171"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="A173:E173"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="A162:M162"/>
-    <mergeCell ref="G164:G165"/>
-    <mergeCell ref="I164:I165"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="A156:E156"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="A160:E160"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="A146:M146"/>
-    <mergeCell ref="G148:G152"/>
-    <mergeCell ref="I148:I152"/>
-    <mergeCell ref="A154:E154"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="A144:E144"/>
-    <mergeCell ref="A138:E138"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="A142:E142"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="A123:E123"/>
-    <mergeCell ref="A125:M125"/>
-    <mergeCell ref="G127:G136"/>
-    <mergeCell ref="I127:I136"/>
-    <mergeCell ref="A117:E117"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="A119:E119"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="A121:E121"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="A107:M107"/>
-    <mergeCell ref="G109:G115"/>
-    <mergeCell ref="I109:I115"/>
-    <mergeCell ref="A73:M73"/>
-    <mergeCell ref="A99:E99"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="I62:I65"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="I90:I97"/>
-    <mergeCell ref="H92:H97"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A88:M88"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="H36:H39"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="A60:M60"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A47:M47"/>
-    <mergeCell ref="G49:G51"/>
-    <mergeCell ref="G62:G65"/>
-    <mergeCell ref="H62:H65"/>
+  <mergeCells count="165">
+    <mergeCell ref="A241:E241"/>
+    <mergeCell ref="G241:H241"/>
+    <mergeCell ref="A230:M230"/>
+    <mergeCell ref="G232:G233"/>
+    <mergeCell ref="H232:H233"/>
+    <mergeCell ref="I232:I233"/>
+    <mergeCell ref="A235:E235"/>
+    <mergeCell ref="G235:H235"/>
+    <mergeCell ref="A237:E237"/>
+    <mergeCell ref="G237:H237"/>
+    <mergeCell ref="A239:E239"/>
+    <mergeCell ref="G239:H239"/>
+    <mergeCell ref="A228:E228"/>
+    <mergeCell ref="G228:H228"/>
+    <mergeCell ref="A215:M215"/>
+    <mergeCell ref="G217:G220"/>
+    <mergeCell ref="H217:H220"/>
+    <mergeCell ref="I217:I220"/>
+    <mergeCell ref="A222:E222"/>
+    <mergeCell ref="G222:H222"/>
+    <mergeCell ref="A224:E224"/>
+    <mergeCell ref="G224:H224"/>
+    <mergeCell ref="A226:E226"/>
+    <mergeCell ref="G226:H226"/>
+    <mergeCell ref="A199:E199"/>
+    <mergeCell ref="G199:H199"/>
+    <mergeCell ref="A188:M188"/>
+    <mergeCell ref="G190:G191"/>
+    <mergeCell ref="I190:I191"/>
+    <mergeCell ref="A193:E193"/>
+    <mergeCell ref="G193:H193"/>
+    <mergeCell ref="A195:E195"/>
+    <mergeCell ref="G195:H195"/>
+    <mergeCell ref="A197:E197"/>
+    <mergeCell ref="G197:H197"/>
+    <mergeCell ref="A186:E186"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="A175:M175"/>
+    <mergeCell ref="G177:G178"/>
+    <mergeCell ref="I177:I178"/>
+    <mergeCell ref="A180:E180"/>
+    <mergeCell ref="G180:H180"/>
+    <mergeCell ref="A182:E182"/>
+    <mergeCell ref="G182:H182"/>
+    <mergeCell ref="A184:E184"/>
+    <mergeCell ref="G184:H184"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G90:G97"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="G101:H101"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="A1:M1"/>
@@ -6466,49 +6712,92 @@
     <mergeCell ref="A34:M34"/>
     <mergeCell ref="G36:G39"/>
     <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="A105:E105"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G90:G97"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="A186:E186"/>
-    <mergeCell ref="G186:H186"/>
-    <mergeCell ref="A175:M175"/>
-    <mergeCell ref="G177:G178"/>
-    <mergeCell ref="I177:I178"/>
-    <mergeCell ref="A180:E180"/>
-    <mergeCell ref="G180:H180"/>
-    <mergeCell ref="A182:E182"/>
-    <mergeCell ref="G182:H182"/>
-    <mergeCell ref="A184:E184"/>
-    <mergeCell ref="G184:H184"/>
-    <mergeCell ref="A199:E199"/>
-    <mergeCell ref="G199:H199"/>
-    <mergeCell ref="A188:M188"/>
-    <mergeCell ref="G190:G191"/>
-    <mergeCell ref="I190:I191"/>
-    <mergeCell ref="A193:E193"/>
-    <mergeCell ref="G193:H193"/>
-    <mergeCell ref="A195:E195"/>
-    <mergeCell ref="G195:H195"/>
-    <mergeCell ref="A197:E197"/>
-    <mergeCell ref="G197:H197"/>
-    <mergeCell ref="A228:E228"/>
-    <mergeCell ref="G228:H228"/>
-    <mergeCell ref="A215:M215"/>
-    <mergeCell ref="G217:G220"/>
-    <mergeCell ref="H217:H220"/>
-    <mergeCell ref="I217:I220"/>
-    <mergeCell ref="A222:E222"/>
-    <mergeCell ref="G222:H222"/>
-    <mergeCell ref="A224:E224"/>
-    <mergeCell ref="G224:H224"/>
-    <mergeCell ref="A226:E226"/>
-    <mergeCell ref="G226:H226"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="A60:M60"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A47:M47"/>
+    <mergeCell ref="G49:G51"/>
+    <mergeCell ref="G62:G65"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="A73:M73"/>
+    <mergeCell ref="A99:E99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="I62:I65"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="I90:I97"/>
+    <mergeCell ref="H92:H97"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A88:M88"/>
+    <mergeCell ref="A117:E117"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="A119:E119"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="A121:E121"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="A107:M107"/>
+    <mergeCell ref="G109:G115"/>
+    <mergeCell ref="I109:I115"/>
+    <mergeCell ref="A144:E144"/>
+    <mergeCell ref="A138:E138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="A142:E142"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="A123:E123"/>
+    <mergeCell ref="A125:M125"/>
+    <mergeCell ref="G127:G136"/>
+    <mergeCell ref="I127:I136"/>
+    <mergeCell ref="A156:E156"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="A160:E160"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="A146:M146"/>
+    <mergeCell ref="G148:G152"/>
+    <mergeCell ref="I148:I152"/>
+    <mergeCell ref="A154:E154"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="A169:E169"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="A171:E171"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="A173:E173"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="A162:M162"/>
+    <mergeCell ref="G164:G165"/>
+    <mergeCell ref="I164:I165"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="A213:E213"/>
+    <mergeCell ref="G213:H213"/>
+    <mergeCell ref="H203:H205"/>
+    <mergeCell ref="A201:M201"/>
+    <mergeCell ref="G203:G205"/>
+    <mergeCell ref="I203:I205"/>
+    <mergeCell ref="A207:E207"/>
+    <mergeCell ref="G207:H207"/>
+    <mergeCell ref="A209:E209"/>
+    <mergeCell ref="G209:H209"/>
+    <mergeCell ref="A211:E211"/>
+    <mergeCell ref="G211:H211"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
@@ -6519,9 +6808,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A73" sqref="A73:E76"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -6539,30 +6828,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9" ht="18.75">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
     </row>
     <row r="4" spans="1:9" ht="63">
       <c r="A4" s="7" t="s">
@@ -8445,7 +8734,7 @@
       </c>
       <c r="D75" s="12" t="str">
         <f>'Ремонтные листы'!D219</f>
-        <v>757244.039</v>
+        <v>Якорь 039, контур 757244.039</v>
       </c>
       <c r="E75" s="12" t="str">
         <f>'Ремонтные листы'!E219</f>
@@ -8482,23 +8771,53 @@
       <c r="H76" s="11"/>
       <c r="I76" s="13"/>
     </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="12"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
+    <row r="77" spans="1:9" ht="30">
+      <c r="A77" s="12" t="str">
+        <f>'Ремонтные листы'!A232</f>
+        <v>22.09.2022 в 09:30</v>
+      </c>
+      <c r="B77" s="12" t="str">
+        <f>'Ремонтные листы'!B232</f>
+        <v>1681-6497</v>
+      </c>
+      <c r="C77" s="12" t="str">
+        <f>'Ремонтные листы'!C232</f>
+        <v>№8214</v>
+      </c>
+      <c r="D77" s="12" t="str">
+        <f>'Ремонтные листы'!D232</f>
+        <v>Ламель 007, 757468.007</v>
+      </c>
+      <c r="E77" s="12" t="str">
+        <f>'Ремонтные листы'!E232</f>
+        <v>нет размеров</v>
+      </c>
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
       <c r="I77" s="13"/>
     </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
+    <row r="78" spans="1:9" ht="30">
+      <c r="A78" s="12" t="str">
+        <f>'Ремонтные листы'!A233</f>
+        <v>22.09.2022 в 12:30</v>
+      </c>
+      <c r="B78" s="12" t="str">
+        <f>'Ремонтные листы'!B233</f>
+        <v>1740-5373</v>
+      </c>
+      <c r="C78" s="12" t="str">
+        <f>'Ремонтные листы'!C233</f>
+        <v>№3948</v>
+      </c>
+      <c r="D78" s="12" t="str">
+        <f>'Ремонтные листы'!D233</f>
+        <v>Поводок 021, 8БК254.021</v>
+      </c>
+      <c r="E78" s="12" t="str">
+        <f>'Ремонтные листы'!E233</f>
+        <v>заусенец</v>
+      </c>
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>

--- a/work/Оснастка/Ремонтные листы/2022 год/сентябрь.xlsx
+++ b/work/Оснастка/Ремонтные листы/2022 год/сентябрь.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="45" windowWidth="11295" windowHeight="5730" activeTab="1"/>
+    <workbookView xWindow="90" yWindow="45" windowWidth="11295" windowHeight="5730"/>
   </bookViews>
   <sheets>
     <sheet name="Ремонтные листы" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="323">
   <si>
     <t>РЕМОНТНЫЙ ЛИСТ</t>
   </si>
@@ -918,6 +918,78 @@
   </si>
   <si>
     <t>Поводок 021, 8БК254.021</t>
+  </si>
+  <si>
+    <t>РЕМОНТНЫЙ ЛИСТ за 23.09.2022 г.</t>
+  </si>
+  <si>
+    <t>23.09.2022 в 09:30</t>
+  </si>
+  <si>
+    <t>замена резины, заусенец</t>
+  </si>
+  <si>
+    <t>Магнитопровод, 8БК616.013</t>
+  </si>
+  <si>
+    <t>РЕМОНТНЫЙ ЛИСТ за 26.09.2022 г.</t>
+  </si>
+  <si>
+    <t>26.09.2022 в 07:56</t>
+  </si>
+  <si>
+    <t>1651-6000</t>
+  </si>
+  <si>
+    <t>№705</t>
+  </si>
+  <si>
+    <t>Разгонка 143 планки, 741352.143</t>
+  </si>
+  <si>
+    <t>ломает ухо</t>
+  </si>
+  <si>
+    <t>РЕМОНТНЫЙ ЛИСТ за 29.09.2022 г.</t>
+  </si>
+  <si>
+    <t>№5152</t>
+  </si>
+  <si>
+    <t>1700-5420-01</t>
+  </si>
+  <si>
+    <t>Пластина 005, 741335.005</t>
+  </si>
+  <si>
+    <t>29.09.2022 в 14:00</t>
+  </si>
+  <si>
+    <t>РЕМОНТНЫЙ ЛИСТ за 30.09.2022 г.</t>
+  </si>
+  <si>
+    <t>30.09.2022 в 10:30</t>
+  </si>
+  <si>
+    <t>30.09.2022 в 13:41</t>
+  </si>
+  <si>
+    <t>1651-5045</t>
+  </si>
+  <si>
+    <t>№4331</t>
+  </si>
+  <si>
+    <t>1700-5077</t>
+  </si>
+  <si>
+    <t>№8219</t>
+  </si>
+  <si>
+    <t>Запрессовка витка, 5РЕ 640.107</t>
+  </si>
+  <si>
+    <t>Гайка 196, 8БК940.196</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1301,22 +1373,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1625,10 +1709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T241"/>
+  <dimension ref="A1:T290"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A223" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="H232" sqref="H232:H233"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A57" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1649,21 +1733,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="20.45" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -1729,9 +1813,9 @@
         <v>24</v>
       </c>
       <c r="F3" s="29"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
       <c r="L3" s="29"/>
@@ -1754,9 +1838,9 @@
         <v>37</v>
       </c>
       <c r="F4" s="28"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
       <c r="L4" s="28"/>
@@ -1786,9 +1870,9 @@
         <v>14</v>
       </c>
       <c r="F5" s="28"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
       <c r="J5" s="28"/>
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
@@ -1818,9 +1902,9 @@
         <v>14</v>
       </c>
       <c r="F6" s="28"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
       <c r="L6" s="28"/>
@@ -1843,9 +1927,9 @@
         <v>38</v>
       </c>
       <c r="F7" s="28"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
       <c r="L7" s="28"/>
@@ -1868,9 +1952,9 @@
         <v>23</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
@@ -1893,9 +1977,9 @@
         <v>39</v>
       </c>
       <c r="F9" s="28"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
       <c r="J9" s="28"/>
       <c r="K9" s="28"/>
       <c r="L9" s="28"/>
@@ -1918,9 +2002,9 @@
         <v>39</v>
       </c>
       <c r="F10" s="28"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
       <c r="L10" s="28"/>
@@ -1943,9 +2027,9 @@
         <v>24</v>
       </c>
       <c r="F11" s="28"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
       <c r="L11" s="28"/>
@@ -1968,9 +2052,9 @@
         <v>41</v>
       </c>
       <c r="F12" s="29"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
@@ -1992,18 +2076,18 @@
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="70" t="s">
+      <c r="G14" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="70"/>
+      <c r="H14" s="74"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -2026,13 +2110,13 @@
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -2058,13 +2142,13 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -2090,21 +2174,21 @@
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" ht="20.25">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="74"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
     </row>
     <row r="21" spans="1:13" ht="75">
       <c r="A21" s="29" t="s">
@@ -2164,9 +2248,9 @@
         <v>50</v>
       </c>
       <c r="F22" s="29"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
       <c r="L22" s="29"/>
@@ -2189,9 +2273,9 @@
         <v>24</v>
       </c>
       <c r="F23" s="29"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
       <c r="J23" s="29"/>
       <c r="K23" s="29"/>
       <c r="L23" s="29"/>
@@ -2214,9 +2298,9 @@
         <v>23</v>
       </c>
       <c r="F24" s="29"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
       <c r="J24" s="29"/>
       <c r="K24" s="29"/>
       <c r="L24" s="29"/>
@@ -2239,9 +2323,9 @@
         <v>51</v>
       </c>
       <c r="F25" s="29"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
       <c r="J25" s="29"/>
       <c r="K25" s="29"/>
       <c r="L25" s="29"/>
@@ -2264,9 +2348,9 @@
         <v>52</v>
       </c>
       <c r="F26" s="29"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
       <c r="J26" s="29"/>
       <c r="K26" s="29"/>
       <c r="L26" s="29"/>
@@ -2288,18 +2372,18 @@
       <c r="M27" s="30"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
       <c r="F28" s="30"/>
-      <c r="G28" s="70" t="s">
+      <c r="G28" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="70"/>
+      <c r="H28" s="74"/>
       <c r="I28" s="30"/>
       <c r="J28" s="30"/>
       <c r="K28" s="30"/>
@@ -2322,13 +2406,13 @@
       <c r="M29" s="30"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="70" t="s">
+      <c r="A30" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
       <c r="F30" s="30"/>
       <c r="G30" s="30"/>
       <c r="H30" s="30"/>
@@ -2354,13 +2438,13 @@
       <c r="M31" s="30"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="70" t="s">
+      <c r="A32" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
       <c r="F32" s="30"/>
       <c r="G32" s="30"/>
       <c r="H32" s="30"/>
@@ -2386,21 +2470,21 @@
       <c r="M33" s="5"/>
     </row>
     <row r="34" spans="1:13" ht="20.25">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="74"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="74"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
     </row>
     <row r="35" spans="1:13" ht="75">
       <c r="A35" s="29" t="s">
@@ -2460,9 +2544,9 @@
         <v>14</v>
       </c>
       <c r="F36" s="29"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
       <c r="J36" s="29"/>
       <c r="K36" s="29"/>
       <c r="L36" s="29"/>
@@ -2485,9 +2569,9 @@
         <v>23</v>
       </c>
       <c r="F37" s="29"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="75"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
       <c r="J37" s="29"/>
       <c r="K37" s="29"/>
       <c r="L37" s="29"/>
@@ -2510,9 +2594,9 @@
         <v>55</v>
       </c>
       <c r="F38" s="29"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="75"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
       <c r="J38" s="29"/>
       <c r="K38" s="29"/>
       <c r="L38" s="29"/>
@@ -2535,9 +2619,9 @@
         <v>23</v>
       </c>
       <c r="F39" s="29"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="75"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
       <c r="J39" s="29"/>
       <c r="K39" s="29"/>
       <c r="L39" s="29"/>
@@ -2559,18 +2643,18 @@
       <c r="M40" s="30"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="70" t="s">
+      <c r="A41" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="70"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
       <c r="F41" s="30"/>
-      <c r="G41" s="70" t="s">
+      <c r="G41" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="H41" s="70"/>
+      <c r="H41" s="74"/>
       <c r="I41" s="30"/>
       <c r="J41" s="30"/>
       <c r="K41" s="30"/>
@@ -2593,13 +2677,13 @@
       <c r="M42" s="30"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="70" t="s">
+      <c r="A43" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="70"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="74"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="74"/>
       <c r="F43" s="30"/>
       <c r="G43" s="30"/>
       <c r="H43" s="30"/>
@@ -2625,13 +2709,13 @@
       <c r="M44" s="30"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="70" t="s">
+      <c r="A45" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="70"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="70"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
       <c r="F45" s="30"/>
       <c r="G45" s="30"/>
       <c r="H45" s="30"/>
@@ -2657,21 +2741,21 @@
       <c r="M46" s="5"/>
     </row>
     <row r="47" spans="1:13" ht="20.25">
-      <c r="A47" s="74" t="s">
+      <c r="A47" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="74"/>
-      <c r="C47" s="74"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74"/>
-      <c r="J47" s="74"/>
-      <c r="K47" s="74"/>
-      <c r="L47" s="74"/>
-      <c r="M47" s="74"/>
+      <c r="B47" s="75"/>
+      <c r="C47" s="75"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="75"/>
+      <c r="J47" s="75"/>
+      <c r="K47" s="75"/>
+      <c r="L47" s="75"/>
+      <c r="M47" s="75"/>
     </row>
     <row r="48" spans="1:13" ht="75">
       <c r="A48" s="33" t="s">
@@ -2731,9 +2815,9 @@
         <v>62</v>
       </c>
       <c r="F49" s="33"/>
-      <c r="G49" s="75"/>
-      <c r="H49" s="75"/>
-      <c r="I49" s="75"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="76"/>
+      <c r="I49" s="76"/>
       <c r="J49" s="33"/>
       <c r="K49" s="33"/>
       <c r="L49" s="33"/>
@@ -2756,9 +2840,9 @@
         <v>14</v>
       </c>
       <c r="F50" s="33"/>
-      <c r="G50" s="75"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="75"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="76"/>
+      <c r="I50" s="76"/>
       <c r="J50" s="33"/>
       <c r="K50" s="33"/>
       <c r="L50" s="33"/>
@@ -2781,9 +2865,9 @@
         <v>63</v>
       </c>
       <c r="F51" s="33"/>
-      <c r="G51" s="75"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="75"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="76"/>
+      <c r="I51" s="76"/>
       <c r="J51" s="33"/>
       <c r="K51" s="33"/>
       <c r="L51" s="33"/>
@@ -2805,18 +2889,18 @@
       <c r="M52" s="32"/>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="70" t="s">
+      <c r="A53" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="70"/>
-      <c r="C53" s="70"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="70" t="s">
+      <c r="G53" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="H53" s="70"/>
+      <c r="H53" s="74"/>
       <c r="I53" s="32"/>
       <c r="J53" s="32"/>
       <c r="K53" s="32"/>
@@ -2839,13 +2923,13 @@
       <c r="M54" s="32"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="70" t="s">
+      <c r="A55" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="70"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="70"/>
+      <c r="B55" s="74"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="74"/>
       <c r="F55" s="32"/>
       <c r="G55" s="32"/>
       <c r="H55" s="32"/>
@@ -2871,13 +2955,13 @@
       <c r="M56" s="32"/>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="70" t="s">
+      <c r="A57" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="70"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="70"/>
+      <c r="B57" s="74"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="74"/>
       <c r="F57" s="32"/>
       <c r="G57" s="32"/>
       <c r="H57" s="32"/>
@@ -2918,21 +3002,21 @@
       <c r="M59" s="5"/>
     </row>
     <row r="60" spans="1:13" ht="20.25">
-      <c r="A60" s="74" t="s">
+      <c r="A60" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B60" s="74"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="74"/>
-      <c r="E60" s="74"/>
-      <c r="F60" s="74"/>
-      <c r="G60" s="74"/>
-      <c r="H60" s="74"/>
-      <c r="I60" s="74"/>
-      <c r="J60" s="74"/>
-      <c r="K60" s="74"/>
-      <c r="L60" s="74"/>
-      <c r="M60" s="74"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="75"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="75"/>
+      <c r="F60" s="75"/>
+      <c r="G60" s="75"/>
+      <c r="H60" s="75"/>
+      <c r="I60" s="75"/>
+      <c r="J60" s="75"/>
+      <c r="K60" s="75"/>
+      <c r="L60" s="75"/>
+      <c r="M60" s="75"/>
     </row>
     <row r="61" spans="1:13" ht="75">
       <c r="A61" s="34" t="s">
@@ -2983,7 +3067,7 @@
         <v>120</v>
       </c>
       <c r="C62" s="36" t="s">
-        <v>157</v>
+        <v>258</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>68</v>
@@ -2992,9 +3076,9 @@
         <v>14</v>
       </c>
       <c r="F62" s="34"/>
-      <c r="G62" s="75"/>
-      <c r="H62" s="75"/>
-      <c r="I62" s="75"/>
+      <c r="G62" s="76"/>
+      <c r="H62" s="76"/>
+      <c r="I62" s="76"/>
       <c r="J62" s="34"/>
       <c r="K62" s="34"/>
       <c r="L62" s="34"/>
@@ -3017,9 +3101,9 @@
         <v>69</v>
       </c>
       <c r="F63" s="34"/>
-      <c r="G63" s="75"/>
-      <c r="H63" s="75"/>
-      <c r="I63" s="75"/>
+      <c r="G63" s="76"/>
+      <c r="H63" s="76"/>
+      <c r="I63" s="76"/>
       <c r="J63" s="34"/>
       <c r="K63" s="34"/>
       <c r="L63" s="34"/>
@@ -3042,9 +3126,9 @@
         <v>70</v>
       </c>
       <c r="F64" s="34"/>
-      <c r="G64" s="75"/>
-      <c r="H64" s="75"/>
-      <c r="I64" s="75"/>
+      <c r="G64" s="76"/>
+      <c r="H64" s="76"/>
+      <c r="I64" s="76"/>
       <c r="J64" s="34"/>
       <c r="K64" s="34"/>
       <c r="L64" s="34"/>
@@ -3067,9 +3151,9 @@
         <v>70</v>
       </c>
       <c r="F65" s="34"/>
-      <c r="G65" s="75"/>
-      <c r="H65" s="75"/>
-      <c r="I65" s="75"/>
+      <c r="G65" s="76"/>
+      <c r="H65" s="76"/>
+      <c r="I65" s="76"/>
       <c r="J65" s="34"/>
       <c r="K65" s="34"/>
       <c r="L65" s="34"/>
@@ -3091,18 +3175,18 @@
       <c r="M66" s="35"/>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="70" t="s">
+      <c r="A67" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="70"/>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="70"/>
+      <c r="B67" s="74"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="74"/>
       <c r="F67" s="35"/>
-      <c r="G67" s="70" t="s">
+      <c r="G67" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="H67" s="70"/>
+      <c r="H67" s="74"/>
       <c r="I67" s="35"/>
       <c r="J67" s="35"/>
       <c r="K67" s="35"/>
@@ -3125,13 +3209,13 @@
       <c r="M68" s="35"/>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="70" t="s">
+      <c r="A69" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B69" s="70"/>
-      <c r="C69" s="70"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="70"/>
+      <c r="B69" s="74"/>
+      <c r="C69" s="74"/>
+      <c r="D69" s="74"/>
+      <c r="E69" s="74"/>
       <c r="F69" s="35"/>
       <c r="G69" s="35"/>
       <c r="H69" s="35"/>
@@ -3157,13 +3241,13 @@
       <c r="M70" s="35"/>
     </row>
     <row r="71" spans="1:13">
-      <c r="A71" s="70" t="s">
+      <c r="A71" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="70"/>
-      <c r="C71" s="70"/>
-      <c r="D71" s="70"/>
-      <c r="E71" s="70"/>
+      <c r="B71" s="74"/>
+      <c r="C71" s="74"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="74"/>
       <c r="F71" s="35"/>
       <c r="G71" s="35"/>
       <c r="H71" s="35"/>
@@ -3189,21 +3273,21 @@
       <c r="M72" s="5"/>
     </row>
     <row r="73" spans="1:13" ht="20.25">
-      <c r="A73" s="74" t="s">
+      <c r="A73" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="74"/>
-      <c r="C73" s="74"/>
-      <c r="D73" s="74"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="74"/>
-      <c r="G73" s="74"/>
-      <c r="H73" s="74"/>
-      <c r="I73" s="74"/>
-      <c r="J73" s="74"/>
-      <c r="K73" s="74"/>
-      <c r="L73" s="74"/>
-      <c r="M73" s="74"/>
+      <c r="B73" s="75"/>
+      <c r="C73" s="75"/>
+      <c r="D73" s="75"/>
+      <c r="E73" s="75"/>
+      <c r="F73" s="75"/>
+      <c r="G73" s="75"/>
+      <c r="H73" s="75"/>
+      <c r="I73" s="75"/>
+      <c r="J73" s="75"/>
+      <c r="K73" s="75"/>
+      <c r="L73" s="75"/>
+      <c r="M73" s="75"/>
     </row>
     <row r="74" spans="1:13" ht="75">
       <c r="A74" s="39" t="s">
@@ -3263,9 +3347,9 @@
         <v>24</v>
       </c>
       <c r="F75" s="39"/>
-      <c r="G75" s="75"/>
-      <c r="H75" s="71"/>
-      <c r="I75" s="75"/>
+      <c r="G75" s="76"/>
+      <c r="H75" s="77"/>
+      <c r="I75" s="76"/>
       <c r="J75" s="39"/>
       <c r="K75" s="39"/>
       <c r="L75" s="39"/>
@@ -3288,9 +3372,9 @@
         <v>14</v>
       </c>
       <c r="F76" s="39"/>
-      <c r="G76" s="75"/>
-      <c r="H76" s="72"/>
-      <c r="I76" s="75"/>
+      <c r="G76" s="76"/>
+      <c r="H76" s="79"/>
+      <c r="I76" s="76"/>
       <c r="J76" s="39"/>
       <c r="K76" s="39"/>
       <c r="L76" s="39"/>
@@ -3313,9 +3397,9 @@
         <v>14</v>
       </c>
       <c r="F77" s="39"/>
-      <c r="G77" s="75"/>
-      <c r="H77" s="71"/>
-      <c r="I77" s="75"/>
+      <c r="G77" s="76"/>
+      <c r="H77" s="77"/>
+      <c r="I77" s="76"/>
       <c r="J77" s="39"/>
       <c r="K77" s="39"/>
       <c r="L77" s="39"/>
@@ -3338,9 +3422,9 @@
         <v>84</v>
       </c>
       <c r="F78" s="39"/>
-      <c r="G78" s="75"/>
-      <c r="H78" s="73"/>
-      <c r="I78" s="75"/>
+      <c r="G78" s="76"/>
+      <c r="H78" s="78"/>
+      <c r="I78" s="76"/>
       <c r="J78" s="39"/>
       <c r="K78" s="39"/>
       <c r="L78" s="39"/>
@@ -3362,18 +3446,18 @@
       <c r="M79" s="38"/>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="70" t="s">
+      <c r="A80" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B80" s="70"/>
-      <c r="C80" s="70"/>
-      <c r="D80" s="70"/>
-      <c r="E80" s="70"/>
+      <c r="B80" s="74"/>
+      <c r="C80" s="74"/>
+      <c r="D80" s="74"/>
+      <c r="E80" s="74"/>
       <c r="F80" s="38"/>
-      <c r="G80" s="70" t="s">
+      <c r="G80" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="H80" s="70"/>
+      <c r="H80" s="74"/>
       <c r="I80" s="38"/>
       <c r="J80" s="38"/>
       <c r="K80" s="38"/>
@@ -3396,18 +3480,18 @@
       <c r="M81" s="38"/>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="70" t="s">
+      <c r="A82" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="70"/>
-      <c r="C82" s="70"/>
-      <c r="D82" s="70"/>
-      <c r="E82" s="70"/>
+      <c r="B82" s="74"/>
+      <c r="C82" s="74"/>
+      <c r="D82" s="74"/>
+      <c r="E82" s="74"/>
       <c r="F82" s="38"/>
-      <c r="G82" s="70" t="s">
+      <c r="G82" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="H82" s="70"/>
+      <c r="H82" s="74"/>
       <c r="I82" s="38"/>
       <c r="J82" s="38"/>
       <c r="K82" s="38"/>
@@ -3430,18 +3514,18 @@
       <c r="M83" s="38"/>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="70" t="s">
+      <c r="A84" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B84" s="70"/>
-      <c r="C84" s="70"/>
-      <c r="D84" s="70"/>
-      <c r="E84" s="70"/>
+      <c r="B84" s="74"/>
+      <c r="C84" s="74"/>
+      <c r="D84" s="74"/>
+      <c r="E84" s="74"/>
       <c r="F84" s="38"/>
-      <c r="G84" s="70" t="s">
+      <c r="G84" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="H84" s="70"/>
+      <c r="H84" s="74"/>
       <c r="I84" s="38"/>
       <c r="J84" s="38"/>
       <c r="K84" s="38"/>
@@ -3464,13 +3548,13 @@
       <c r="M85" s="5"/>
     </row>
     <row r="86" spans="1:13" ht="20.25">
-      <c r="A86" s="70" t="s">
+      <c r="A86" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B86" s="70"/>
-      <c r="C86" s="70"/>
-      <c r="D86" s="70"/>
-      <c r="E86" s="70"/>
+      <c r="B86" s="74"/>
+      <c r="C86" s="74"/>
+      <c r="D86" s="74"/>
+      <c r="E86" s="74"/>
       <c r="F86" s="46"/>
       <c r="G86" s="46"/>
       <c r="H86" s="46"/>
@@ -3496,21 +3580,21 @@
       <c r="M87" s="49"/>
     </row>
     <row r="88" spans="1:13" ht="20.25">
-      <c r="A88" s="74" t="s">
+      <c r="A88" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="B88" s="74"/>
-      <c r="C88" s="74"/>
-      <c r="D88" s="74"/>
-      <c r="E88" s="74"/>
-      <c r="F88" s="74"/>
-      <c r="G88" s="74"/>
-      <c r="H88" s="74"/>
-      <c r="I88" s="74"/>
-      <c r="J88" s="74"/>
-      <c r="K88" s="74"/>
-      <c r="L88" s="74"/>
-      <c r="M88" s="74"/>
+      <c r="B88" s="75"/>
+      <c r="C88" s="75"/>
+      <c r="D88" s="75"/>
+      <c r="E88" s="75"/>
+      <c r="F88" s="75"/>
+      <c r="G88" s="75"/>
+      <c r="H88" s="75"/>
+      <c r="I88" s="75"/>
+      <c r="J88" s="75"/>
+      <c r="K88" s="75"/>
+      <c r="L88" s="75"/>
+      <c r="M88" s="75"/>
     </row>
     <row r="89" spans="1:13" ht="75">
       <c r="A89" s="48" t="s">
@@ -3570,9 +3654,9 @@
         <v>24</v>
       </c>
       <c r="F90" s="48"/>
-      <c r="G90" s="75"/>
-      <c r="H90" s="71"/>
-      <c r="I90" s="75"/>
+      <c r="G90" s="76"/>
+      <c r="H90" s="77"/>
+      <c r="I90" s="76"/>
       <c r="J90" s="48"/>
       <c r="K90" s="48"/>
       <c r="L90" s="48"/>
@@ -3595,9 +3679,9 @@
         <v>14</v>
       </c>
       <c r="F91" s="48"/>
-      <c r="G91" s="75"/>
-      <c r="H91" s="72"/>
-      <c r="I91" s="75"/>
+      <c r="G91" s="76"/>
+      <c r="H91" s="79"/>
+      <c r="I91" s="76"/>
       <c r="J91" s="48"/>
       <c r="K91" s="48"/>
       <c r="L91" s="48"/>
@@ -3620,9 +3704,9 @@
         <v>152</v>
       </c>
       <c r="F92" s="48"/>
-      <c r="G92" s="75"/>
-      <c r="H92" s="71"/>
-      <c r="I92" s="75"/>
+      <c r="G92" s="76"/>
+      <c r="H92" s="77"/>
+      <c r="I92" s="76"/>
       <c r="J92" s="48"/>
       <c r="K92" s="48"/>
       <c r="L92" s="48"/>
@@ -3645,9 +3729,9 @@
         <v>155</v>
       </c>
       <c r="F93" s="48"/>
-      <c r="G93" s="75"/>
-      <c r="H93" s="72"/>
-      <c r="I93" s="75"/>
+      <c r="G93" s="76"/>
+      <c r="H93" s="79"/>
+      <c r="I93" s="76"/>
       <c r="J93" s="48"/>
       <c r="K93" s="48"/>
       <c r="L93" s="48"/>
@@ -3670,9 +3754,9 @@
         <v>155</v>
       </c>
       <c r="F94" s="48"/>
-      <c r="G94" s="75"/>
-      <c r="H94" s="72"/>
-      <c r="I94" s="75"/>
+      <c r="G94" s="76"/>
+      <c r="H94" s="79"/>
+      <c r="I94" s="76"/>
       <c r="J94" s="48"/>
       <c r="K94" s="48"/>
       <c r="L94" s="48"/>
@@ -3695,9 +3779,9 @@
         <v>158</v>
       </c>
       <c r="F95" s="48"/>
-      <c r="G95" s="75"/>
-      <c r="H95" s="72"/>
-      <c r="I95" s="75"/>
+      <c r="G95" s="76"/>
+      <c r="H95" s="79"/>
+      <c r="I95" s="76"/>
       <c r="J95" s="48"/>
       <c r="K95" s="48"/>
       <c r="L95" s="48"/>
@@ -3720,9 +3804,9 @@
         <v>162</v>
       </c>
       <c r="F96" s="48"/>
-      <c r="G96" s="75"/>
-      <c r="H96" s="72"/>
-      <c r="I96" s="75"/>
+      <c r="G96" s="76"/>
+      <c r="H96" s="79"/>
+      <c r="I96" s="76"/>
       <c r="J96" s="48"/>
       <c r="K96" s="48"/>
       <c r="L96" s="48"/>
@@ -3745,9 +3829,9 @@
         <v>14</v>
       </c>
       <c r="F97" s="48"/>
-      <c r="G97" s="75"/>
-      <c r="H97" s="73"/>
-      <c r="I97" s="75"/>
+      <c r="G97" s="76"/>
+      <c r="H97" s="78"/>
+      <c r="I97" s="76"/>
       <c r="J97" s="48"/>
       <c r="K97" s="48"/>
       <c r="L97" s="48"/>
@@ -3769,18 +3853,18 @@
       <c r="M98" s="49"/>
     </row>
     <row r="99" spans="1:13">
-      <c r="A99" s="70" t="s">
+      <c r="A99" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B99" s="70"/>
-      <c r="C99" s="70"/>
-      <c r="D99" s="70"/>
-      <c r="E99" s="70"/>
+      <c r="B99" s="74"/>
+      <c r="C99" s="74"/>
+      <c r="D99" s="74"/>
+      <c r="E99" s="74"/>
       <c r="F99" s="49"/>
-      <c r="G99" s="70" t="s">
+      <c r="G99" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="H99" s="70"/>
+      <c r="H99" s="74"/>
       <c r="I99" s="49"/>
       <c r="J99" s="49"/>
       <c r="K99" s="49"/>
@@ -3803,18 +3887,18 @@
       <c r="M100" s="49"/>
     </row>
     <row r="101" spans="1:13">
-      <c r="A101" s="70" t="s">
+      <c r="A101" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="B101" s="70"/>
-      <c r="C101" s="70"/>
-      <c r="D101" s="70"/>
-      <c r="E101" s="70"/>
+      <c r="B101" s="74"/>
+      <c r="C101" s="74"/>
+      <c r="D101" s="74"/>
+      <c r="E101" s="74"/>
       <c r="F101" s="49"/>
-      <c r="G101" s="70" t="s">
+      <c r="G101" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="H101" s="70"/>
+      <c r="H101" s="74"/>
       <c r="I101" s="49"/>
       <c r="J101" s="49"/>
       <c r="K101" s="49"/>
@@ -3837,18 +3921,18 @@
       <c r="M102" s="49"/>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="70" t="s">
+      <c r="A103" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B103" s="70"/>
-      <c r="C103" s="70"/>
-      <c r="D103" s="70"/>
-      <c r="E103" s="70"/>
+      <c r="B103" s="74"/>
+      <c r="C103" s="74"/>
+      <c r="D103" s="74"/>
+      <c r="E103" s="74"/>
       <c r="F103" s="49"/>
-      <c r="G103" s="70" t="s">
+      <c r="G103" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="H103" s="70"/>
+      <c r="H103" s="74"/>
       <c r="I103" s="49"/>
       <c r="J103" s="49"/>
       <c r="K103" s="49"/>
@@ -3871,13 +3955,13 @@
       <c r="M104" s="49"/>
     </row>
     <row r="105" spans="1:13" ht="20.25">
-      <c r="A105" s="70" t="s">
+      <c r="A105" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="70"/>
-      <c r="C105" s="70"/>
-      <c r="D105" s="70"/>
-      <c r="E105" s="70"/>
+      <c r="B105" s="74"/>
+      <c r="C105" s="74"/>
+      <c r="D105" s="74"/>
+      <c r="E105" s="74"/>
       <c r="F105" s="46"/>
       <c r="G105" s="46"/>
       <c r="H105" s="46"/>
@@ -3903,21 +3987,21 @@
       <c r="M106" s="49"/>
     </row>
     <row r="107" spans="1:13" ht="20.25">
-      <c r="A107" s="74" t="s">
+      <c r="A107" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="B107" s="74"/>
-      <c r="C107" s="74"/>
-      <c r="D107" s="74"/>
-      <c r="E107" s="74"/>
-      <c r="F107" s="74"/>
-      <c r="G107" s="74"/>
-      <c r="H107" s="74"/>
-      <c r="I107" s="74"/>
-      <c r="J107" s="74"/>
-      <c r="K107" s="74"/>
-      <c r="L107" s="74"/>
-      <c r="M107" s="74"/>
+      <c r="B107" s="75"/>
+      <c r="C107" s="75"/>
+      <c r="D107" s="75"/>
+      <c r="E107" s="75"/>
+      <c r="F107" s="75"/>
+      <c r="G107" s="75"/>
+      <c r="H107" s="75"/>
+      <c r="I107" s="75"/>
+      <c r="J107" s="75"/>
+      <c r="K107" s="75"/>
+      <c r="L107" s="75"/>
+      <c r="M107" s="75"/>
     </row>
     <row r="108" spans="1:13" ht="75">
       <c r="A108" s="50" t="s">
@@ -3977,9 +4061,9 @@
         <v>169</v>
       </c>
       <c r="F109" s="50"/>
-      <c r="G109" s="75"/>
+      <c r="G109" s="76"/>
       <c r="H109" s="53"/>
-      <c r="I109" s="75"/>
+      <c r="I109" s="76"/>
       <c r="J109" s="50"/>
       <c r="K109" s="50"/>
       <c r="L109" s="50"/>
@@ -4002,9 +4086,9 @@
         <v>24</v>
       </c>
       <c r="F110" s="50"/>
-      <c r="G110" s="75"/>
+      <c r="G110" s="76"/>
       <c r="H110" s="55"/>
-      <c r="I110" s="75"/>
+      <c r="I110" s="76"/>
       <c r="J110" s="50"/>
       <c r="K110" s="50"/>
       <c r="L110" s="50"/>
@@ -4027,9 +4111,9 @@
         <v>204</v>
       </c>
       <c r="F111" s="50"/>
-      <c r="G111" s="75"/>
+      <c r="G111" s="76"/>
       <c r="H111" s="55"/>
-      <c r="I111" s="75"/>
+      <c r="I111" s="76"/>
       <c r="J111" s="50"/>
       <c r="K111" s="50"/>
       <c r="L111" s="50"/>
@@ -4052,9 +4136,9 @@
         <v>175</v>
       </c>
       <c r="F112" s="50"/>
-      <c r="G112" s="75"/>
+      <c r="G112" s="76"/>
       <c r="H112" s="54"/>
-      <c r="I112" s="75"/>
+      <c r="I112" s="76"/>
       <c r="J112" s="50"/>
       <c r="K112" s="50"/>
       <c r="L112" s="50"/>
@@ -4077,9 +4161,9 @@
         <v>23</v>
       </c>
       <c r="F113" s="50"/>
-      <c r="G113" s="75"/>
+      <c r="G113" s="76"/>
       <c r="H113" s="55"/>
-      <c r="I113" s="75"/>
+      <c r="I113" s="76"/>
       <c r="J113" s="50"/>
       <c r="K113" s="50"/>
       <c r="L113" s="50"/>
@@ -4102,9 +4186,9 @@
         <v>14</v>
       </c>
       <c r="F114" s="50"/>
-      <c r="G114" s="75"/>
+      <c r="G114" s="76"/>
       <c r="H114" s="55"/>
-      <c r="I114" s="75"/>
+      <c r="I114" s="76"/>
       <c r="J114" s="50"/>
       <c r="K114" s="50"/>
       <c r="L114" s="50"/>
@@ -4127,9 +4211,9 @@
         <v>23</v>
       </c>
       <c r="F115" s="50"/>
-      <c r="G115" s="75"/>
+      <c r="G115" s="76"/>
       <c r="H115" s="54"/>
-      <c r="I115" s="75"/>
+      <c r="I115" s="76"/>
       <c r="J115" s="50"/>
       <c r="K115" s="50"/>
       <c r="L115" s="50"/>
@@ -4151,18 +4235,18 @@
       <c r="M116" s="49"/>
     </row>
     <row r="117" spans="1:13">
-      <c r="A117" s="70" t="s">
+      <c r="A117" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B117" s="70"/>
-      <c r="C117" s="70"/>
-      <c r="D117" s="70"/>
-      <c r="E117" s="70"/>
+      <c r="B117" s="74"/>
+      <c r="C117" s="74"/>
+      <c r="D117" s="74"/>
+      <c r="E117" s="74"/>
       <c r="F117" s="49"/>
-      <c r="G117" s="70" t="s">
+      <c r="G117" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="H117" s="70"/>
+      <c r="H117" s="74"/>
       <c r="I117" s="49"/>
       <c r="J117" s="49"/>
       <c r="K117" s="49"/>
@@ -4185,18 +4269,18 @@
       <c r="M118" s="49"/>
     </row>
     <row r="119" spans="1:13">
-      <c r="A119" s="70" t="s">
+      <c r="A119" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="B119" s="70"/>
-      <c r="C119" s="70"/>
-      <c r="D119" s="70"/>
-      <c r="E119" s="70"/>
+      <c r="B119" s="74"/>
+      <c r="C119" s="74"/>
+      <c r="D119" s="74"/>
+      <c r="E119" s="74"/>
       <c r="F119" s="49"/>
-      <c r="G119" s="70" t="s">
+      <c r="G119" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="H119" s="70"/>
+      <c r="H119" s="74"/>
       <c r="I119" s="49"/>
       <c r="J119" s="49"/>
       <c r="K119" s="49"/>
@@ -4219,18 +4303,18 @@
       <c r="M120" s="49"/>
     </row>
     <row r="121" spans="1:13">
-      <c r="A121" s="70" t="s">
+      <c r="A121" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B121" s="70"/>
-      <c r="C121" s="70"/>
-      <c r="D121" s="70"/>
-      <c r="E121" s="70"/>
+      <c r="B121" s="74"/>
+      <c r="C121" s="74"/>
+      <c r="D121" s="74"/>
+      <c r="E121" s="74"/>
       <c r="F121" s="49"/>
-      <c r="G121" s="70" t="s">
+      <c r="G121" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="H121" s="70"/>
+      <c r="H121" s="74"/>
       <c r="I121" s="49"/>
       <c r="J121" s="49"/>
       <c r="K121" s="49"/>
@@ -4253,13 +4337,13 @@
       <c r="M122" s="49"/>
     </row>
     <row r="123" spans="1:13" ht="20.25">
-      <c r="A123" s="70" t="s">
+      <c r="A123" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B123" s="70"/>
-      <c r="C123" s="70"/>
-      <c r="D123" s="70"/>
-      <c r="E123" s="70"/>
+      <c r="B123" s="74"/>
+      <c r="C123" s="74"/>
+      <c r="D123" s="74"/>
+      <c r="E123" s="74"/>
       <c r="F123" s="46"/>
       <c r="G123" s="46"/>
       <c r="H123" s="46"/>
@@ -4285,21 +4369,21 @@
       <c r="M124" s="46"/>
     </row>
     <row r="125" spans="1:13" ht="20.25">
-      <c r="A125" s="74" t="s">
+      <c r="A125" s="75" t="s">
         <v>176</v>
       </c>
-      <c r="B125" s="74"/>
-      <c r="C125" s="74"/>
-      <c r="D125" s="74"/>
-      <c r="E125" s="74"/>
-      <c r="F125" s="74"/>
-      <c r="G125" s="74"/>
-      <c r="H125" s="74"/>
-      <c r="I125" s="74"/>
-      <c r="J125" s="74"/>
-      <c r="K125" s="74"/>
-      <c r="L125" s="74"/>
-      <c r="M125" s="74"/>
+      <c r="B125" s="75"/>
+      <c r="C125" s="75"/>
+      <c r="D125" s="75"/>
+      <c r="E125" s="75"/>
+      <c r="F125" s="75"/>
+      <c r="G125" s="75"/>
+      <c r="H125" s="75"/>
+      <c r="I125" s="75"/>
+      <c r="J125" s="75"/>
+      <c r="K125" s="75"/>
+      <c r="L125" s="75"/>
+      <c r="M125" s="75"/>
     </row>
     <row r="126" spans="1:13" ht="75">
       <c r="A126" s="50" t="s">
@@ -4359,9 +4443,9 @@
         <v>14</v>
       </c>
       <c r="F127" s="50"/>
-      <c r="G127" s="75"/>
+      <c r="G127" s="76"/>
       <c r="H127" s="53"/>
-      <c r="I127" s="75"/>
+      <c r="I127" s="76"/>
       <c r="J127" s="50"/>
       <c r="K127" s="50"/>
       <c r="L127" s="50"/>
@@ -4384,9 +4468,9 @@
         <v>14</v>
       </c>
       <c r="F128" s="50"/>
-      <c r="G128" s="75"/>
+      <c r="G128" s="76"/>
       <c r="H128" s="55"/>
-      <c r="I128" s="75"/>
+      <c r="I128" s="76"/>
       <c r="J128" s="50"/>
       <c r="K128" s="50"/>
       <c r="L128" s="50"/>
@@ -4409,9 +4493,9 @@
         <v>14</v>
       </c>
       <c r="F129" s="50"/>
-      <c r="G129" s="75"/>
+      <c r="G129" s="76"/>
       <c r="H129" s="55"/>
-      <c r="I129" s="75"/>
+      <c r="I129" s="76"/>
       <c r="J129" s="50"/>
       <c r="K129" s="50"/>
       <c r="L129" s="50"/>
@@ -4434,9 +4518,9 @@
         <v>14</v>
       </c>
       <c r="F130" s="50"/>
-      <c r="G130" s="76"/>
+      <c r="G130" s="80"/>
       <c r="H130" s="55"/>
-      <c r="I130" s="77"/>
+      <c r="I130" s="81"/>
       <c r="J130" s="50"/>
       <c r="K130" s="50"/>
       <c r="L130" s="50"/>
@@ -4459,9 +4543,9 @@
         <v>23</v>
       </c>
       <c r="F131" s="50"/>
-      <c r="G131" s="75"/>
+      <c r="G131" s="76"/>
       <c r="H131" s="55"/>
-      <c r="I131" s="75"/>
+      <c r="I131" s="76"/>
       <c r="J131" s="50"/>
       <c r="K131" s="50"/>
       <c r="L131" s="50"/>
@@ -4484,9 +4568,9 @@
         <v>14</v>
       </c>
       <c r="F132" s="50"/>
-      <c r="G132" s="75"/>
+      <c r="G132" s="76"/>
       <c r="H132" s="55"/>
-      <c r="I132" s="75"/>
+      <c r="I132" s="76"/>
       <c r="J132" s="50"/>
       <c r="K132" s="50"/>
       <c r="L132" s="50"/>
@@ -4509,9 +4593,9 @@
         <v>215</v>
       </c>
       <c r="F133" s="50"/>
-      <c r="G133" s="75"/>
+      <c r="G133" s="76"/>
       <c r="H133" s="54"/>
-      <c r="I133" s="75"/>
+      <c r="I133" s="76"/>
       <c r="J133" s="50"/>
       <c r="K133" s="50"/>
       <c r="L133" s="50"/>
@@ -4534,9 +4618,9 @@
         <v>23</v>
       </c>
       <c r="F134" s="50"/>
-      <c r="G134" s="75"/>
+      <c r="G134" s="76"/>
       <c r="H134" s="55"/>
-      <c r="I134" s="75"/>
+      <c r="I134" s="76"/>
       <c r="J134" s="50"/>
       <c r="K134" s="50"/>
       <c r="L134" s="50"/>
@@ -4559,9 +4643,9 @@
         <v>219</v>
       </c>
       <c r="F135" s="50"/>
-      <c r="G135" s="75"/>
+      <c r="G135" s="76"/>
       <c r="H135" s="55"/>
-      <c r="I135" s="75"/>
+      <c r="I135" s="76"/>
       <c r="J135" s="50"/>
       <c r="K135" s="50"/>
       <c r="L135" s="50"/>
@@ -4584,9 +4668,9 @@
         <v>14</v>
       </c>
       <c r="F136" s="50"/>
-      <c r="G136" s="75"/>
+      <c r="G136" s="76"/>
       <c r="H136" s="54"/>
-      <c r="I136" s="75"/>
+      <c r="I136" s="76"/>
       <c r="J136" s="50"/>
       <c r="K136" s="50"/>
       <c r="L136" s="50"/>
@@ -4608,18 +4692,18 @@
       <c r="M137" s="49"/>
     </row>
     <row r="138" spans="1:13">
-      <c r="A138" s="70" t="s">
+      <c r="A138" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B138" s="70"/>
-      <c r="C138" s="70"/>
-      <c r="D138" s="70"/>
-      <c r="E138" s="70"/>
+      <c r="B138" s="74"/>
+      <c r="C138" s="74"/>
+      <c r="D138" s="74"/>
+      <c r="E138" s="74"/>
       <c r="F138" s="49"/>
-      <c r="G138" s="70" t="s">
+      <c r="G138" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="H138" s="70"/>
+      <c r="H138" s="74"/>
       <c r="I138" s="49"/>
       <c r="J138" s="49"/>
       <c r="K138" s="49"/>
@@ -4642,18 +4726,18 @@
       <c r="M139" s="49"/>
     </row>
     <row r="140" spans="1:13">
-      <c r="A140" s="70" t="s">
+      <c r="A140" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="B140" s="70"/>
-      <c r="C140" s="70"/>
-      <c r="D140" s="70"/>
-      <c r="E140" s="70"/>
+      <c r="B140" s="74"/>
+      <c r="C140" s="74"/>
+      <c r="D140" s="74"/>
+      <c r="E140" s="74"/>
       <c r="F140" s="49"/>
-      <c r="G140" s="70" t="s">
+      <c r="G140" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="H140" s="70"/>
+      <c r="H140" s="74"/>
       <c r="I140" s="49"/>
       <c r="J140" s="49"/>
       <c r="K140" s="49"/>
@@ -4676,18 +4760,18 @@
       <c r="M141" s="49"/>
     </row>
     <row r="142" spans="1:13">
-      <c r="A142" s="70" t="s">
+      <c r="A142" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B142" s="70"/>
-      <c r="C142" s="70"/>
-      <c r="D142" s="70"/>
-      <c r="E142" s="70"/>
+      <c r="B142" s="74"/>
+      <c r="C142" s="74"/>
+      <c r="D142" s="74"/>
+      <c r="E142" s="74"/>
       <c r="F142" s="49"/>
-      <c r="G142" s="70" t="s">
+      <c r="G142" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="H142" s="70"/>
+      <c r="H142" s="74"/>
       <c r="I142" s="49"/>
       <c r="J142" s="49"/>
       <c r="K142" s="49"/>
@@ -4710,18 +4794,18 @@
       <c r="M143" s="49"/>
     </row>
     <row r="144" spans="1:13" ht="20.25">
-      <c r="A144" s="70" t="s">
+      <c r="A144" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B144" s="70"/>
-      <c r="C144" s="70"/>
-      <c r="D144" s="70"/>
-      <c r="E144" s="70"/>
+      <c r="B144" s="74"/>
+      <c r="C144" s="74"/>
+      <c r="D144" s="74"/>
+      <c r="E144" s="74"/>
       <c r="F144" s="46"/>
-      <c r="G144" s="70" t="s">
+      <c r="G144" s="74" t="s">
         <v>239</v>
       </c>
-      <c r="H144" s="70"/>
+      <c r="H144" s="74"/>
       <c r="I144" s="46"/>
       <c r="J144" s="46"/>
       <c r="K144" s="46"/>
@@ -4744,21 +4828,21 @@
       <c r="M145" s="49"/>
     </row>
     <row r="146" spans="1:13" ht="20.25">
-      <c r="A146" s="74" t="s">
+      <c r="A146" s="75" t="s">
         <v>222</v>
       </c>
-      <c r="B146" s="74"/>
-      <c r="C146" s="74"/>
-      <c r="D146" s="74"/>
-      <c r="E146" s="74"/>
-      <c r="F146" s="74"/>
-      <c r="G146" s="74"/>
-      <c r="H146" s="74"/>
-      <c r="I146" s="74"/>
-      <c r="J146" s="74"/>
-      <c r="K146" s="74"/>
-      <c r="L146" s="74"/>
-      <c r="M146" s="74"/>
+      <c r="B146" s="75"/>
+      <c r="C146" s="75"/>
+      <c r="D146" s="75"/>
+      <c r="E146" s="75"/>
+      <c r="F146" s="75"/>
+      <c r="G146" s="75"/>
+      <c r="H146" s="75"/>
+      <c r="I146" s="75"/>
+      <c r="J146" s="75"/>
+      <c r="K146" s="75"/>
+      <c r="L146" s="75"/>
+      <c r="M146" s="75"/>
     </row>
     <row r="147" spans="1:13" ht="75">
       <c r="A147" s="57" t="s">
@@ -4818,9 +4902,9 @@
         <v>14</v>
       </c>
       <c r="F148" s="57"/>
-      <c r="G148" s="75"/>
+      <c r="G148" s="76"/>
       <c r="H148" s="60"/>
-      <c r="I148" s="75"/>
+      <c r="I148" s="76"/>
       <c r="J148" s="57"/>
       <c r="K148" s="57"/>
       <c r="L148" s="57"/>
@@ -4843,9 +4927,9 @@
         <v>229</v>
       </c>
       <c r="F149" s="57"/>
-      <c r="G149" s="75"/>
+      <c r="G149" s="76"/>
       <c r="H149" s="60"/>
-      <c r="I149" s="75"/>
+      <c r="I149" s="76"/>
       <c r="J149" s="57"/>
       <c r="K149" s="57"/>
       <c r="L149" s="57"/>
@@ -4868,9 +4952,9 @@
         <v>14</v>
       </c>
       <c r="F150" s="57"/>
-      <c r="G150" s="75"/>
+      <c r="G150" s="76"/>
       <c r="H150" s="60"/>
-      <c r="I150" s="75"/>
+      <c r="I150" s="76"/>
       <c r="J150" s="57"/>
       <c r="K150" s="57"/>
       <c r="L150" s="57"/>
@@ -4893,9 +4977,9 @@
         <v>24</v>
       </c>
       <c r="F151" s="57"/>
-      <c r="G151" s="75"/>
+      <c r="G151" s="76"/>
       <c r="H151" s="60"/>
-      <c r="I151" s="75"/>
+      <c r="I151" s="76"/>
       <c r="J151" s="57"/>
       <c r="K151" s="57"/>
       <c r="L151" s="57"/>
@@ -4918,9 +5002,9 @@
         <v>234</v>
       </c>
       <c r="F152" s="57"/>
-      <c r="G152" s="75"/>
+      <c r="G152" s="76"/>
       <c r="H152" s="60"/>
-      <c r="I152" s="75"/>
+      <c r="I152" s="76"/>
       <c r="J152" s="57"/>
       <c r="K152" s="57"/>
       <c r="L152" s="57"/>
@@ -4942,18 +5026,18 @@
       <c r="M153" s="49"/>
     </row>
     <row r="154" spans="1:13">
-      <c r="A154" s="70" t="s">
+      <c r="A154" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B154" s="70"/>
-      <c r="C154" s="70"/>
-      <c r="D154" s="70"/>
-      <c r="E154" s="70"/>
+      <c r="B154" s="74"/>
+      <c r="C154" s="74"/>
+      <c r="D154" s="74"/>
+      <c r="E154" s="74"/>
       <c r="F154" s="49"/>
-      <c r="G154" s="70" t="s">
+      <c r="G154" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="H154" s="70"/>
+      <c r="H154" s="74"/>
       <c r="I154" s="49"/>
       <c r="J154" s="49"/>
       <c r="K154" s="49"/>
@@ -4976,18 +5060,18 @@
       <c r="M155" s="49"/>
     </row>
     <row r="156" spans="1:13">
-      <c r="A156" s="70" t="s">
+      <c r="A156" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="B156" s="70"/>
-      <c r="C156" s="70"/>
-      <c r="D156" s="70"/>
-      <c r="E156" s="70"/>
+      <c r="B156" s="74"/>
+      <c r="C156" s="74"/>
+      <c r="D156" s="74"/>
+      <c r="E156" s="74"/>
       <c r="F156" s="49"/>
-      <c r="G156" s="70" t="s">
+      <c r="G156" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="H156" s="70"/>
+      <c r="H156" s="74"/>
       <c r="I156" s="49"/>
       <c r="J156" s="49"/>
       <c r="K156" s="49"/>
@@ -5010,18 +5094,18 @@
       <c r="M157" s="49"/>
     </row>
     <row r="158" spans="1:13">
-      <c r="A158" s="70" t="s">
+      <c r="A158" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B158" s="70"/>
-      <c r="C158" s="70"/>
-      <c r="D158" s="70"/>
-      <c r="E158" s="70"/>
+      <c r="B158" s="74"/>
+      <c r="C158" s="74"/>
+      <c r="D158" s="74"/>
+      <c r="E158" s="74"/>
       <c r="F158" s="49"/>
-      <c r="G158" s="70" t="s">
+      <c r="G158" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="H158" s="70"/>
+      <c r="H158" s="74"/>
       <c r="I158" s="49"/>
       <c r="J158" s="49"/>
       <c r="K158" s="49"/>
@@ -5044,18 +5128,18 @@
       <c r="M159" s="49"/>
     </row>
     <row r="160" spans="1:13" ht="20.25" customHeight="1">
-      <c r="A160" s="70" t="s">
+      <c r="A160" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="70"/>
-      <c r="C160" s="70"/>
-      <c r="D160" s="70"/>
-      <c r="E160" s="70"/>
+      <c r="B160" s="74"/>
+      <c r="C160" s="74"/>
+      <c r="D160" s="74"/>
+      <c r="E160" s="74"/>
       <c r="F160" s="46"/>
-      <c r="G160" s="70" t="s">
+      <c r="G160" s="74" t="s">
         <v>239</v>
       </c>
-      <c r="H160" s="70"/>
+      <c r="H160" s="74"/>
       <c r="I160" s="46"/>
       <c r="J160" s="46"/>
       <c r="K160" s="46"/>
@@ -5078,21 +5162,21 @@
       <c r="M161" s="49"/>
     </row>
     <row r="162" spans="1:13" ht="20.25">
-      <c r="A162" s="74" t="s">
+      <c r="A162" s="75" t="s">
         <v>248</v>
       </c>
-      <c r="B162" s="74"/>
-      <c r="C162" s="74"/>
-      <c r="D162" s="74"/>
-      <c r="E162" s="74"/>
-      <c r="F162" s="74"/>
-      <c r="G162" s="74"/>
-      <c r="H162" s="74"/>
-      <c r="I162" s="74"/>
-      <c r="J162" s="74"/>
-      <c r="K162" s="74"/>
-      <c r="L162" s="74"/>
-      <c r="M162" s="74"/>
+      <c r="B162" s="75"/>
+      <c r="C162" s="75"/>
+      <c r="D162" s="75"/>
+      <c r="E162" s="75"/>
+      <c r="F162" s="75"/>
+      <c r="G162" s="75"/>
+      <c r="H162" s="75"/>
+      <c r="I162" s="75"/>
+      <c r="J162" s="75"/>
+      <c r="K162" s="75"/>
+      <c r="L162" s="75"/>
+      <c r="M162" s="75"/>
     </row>
     <row r="163" spans="1:13" ht="75">
       <c r="A163" s="61" t="s">
@@ -5152,9 +5236,9 @@
         <v>14</v>
       </c>
       <c r="F164" s="61"/>
-      <c r="G164" s="75"/>
+      <c r="G164" s="76"/>
       <c r="H164" s="60"/>
-      <c r="I164" s="75"/>
+      <c r="I164" s="76"/>
       <c r="J164" s="61"/>
       <c r="K164" s="61"/>
       <c r="L164" s="61"/>
@@ -5177,9 +5261,9 @@
         <v>14</v>
       </c>
       <c r="F165" s="61"/>
-      <c r="G165" s="75"/>
+      <c r="G165" s="76"/>
       <c r="H165" s="60"/>
-      <c r="I165" s="75"/>
+      <c r="I165" s="76"/>
       <c r="J165" s="61"/>
       <c r="K165" s="61"/>
       <c r="L165" s="61"/>
@@ -5201,18 +5285,18 @@
       <c r="M166" s="49"/>
     </row>
     <row r="167" spans="1:13">
-      <c r="A167" s="70" t="s">
+      <c r="A167" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B167" s="70"/>
-      <c r="C167" s="70"/>
-      <c r="D167" s="70"/>
-      <c r="E167" s="70"/>
+      <c r="B167" s="74"/>
+      <c r="C167" s="74"/>
+      <c r="D167" s="74"/>
+      <c r="E167" s="74"/>
       <c r="F167" s="49"/>
-      <c r="G167" s="70" t="s">
+      <c r="G167" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="H167" s="70"/>
+      <c r="H167" s="74"/>
       <c r="I167" s="49"/>
       <c r="J167" s="49"/>
       <c r="K167" s="49"/>
@@ -5235,18 +5319,18 @@
       <c r="M168" s="49"/>
     </row>
     <row r="169" spans="1:13">
-      <c r="A169" s="70" t="s">
+      <c r="A169" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="B169" s="70"/>
-      <c r="C169" s="70"/>
-      <c r="D169" s="70"/>
-      <c r="E169" s="70"/>
+      <c r="B169" s="74"/>
+      <c r="C169" s="74"/>
+      <c r="D169" s="74"/>
+      <c r="E169" s="74"/>
       <c r="F169" s="49"/>
-      <c r="G169" s="70" t="s">
+      <c r="G169" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="H169" s="70"/>
+      <c r="H169" s="74"/>
       <c r="I169" s="49"/>
       <c r="J169" s="49"/>
       <c r="K169" s="49"/>
@@ -5269,18 +5353,18 @@
       <c r="M170" s="49"/>
     </row>
     <row r="171" spans="1:13">
-      <c r="A171" s="70" t="s">
+      <c r="A171" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B171" s="70"/>
-      <c r="C171" s="70"/>
-      <c r="D171" s="70"/>
-      <c r="E171" s="70"/>
+      <c r="B171" s="74"/>
+      <c r="C171" s="74"/>
+      <c r="D171" s="74"/>
+      <c r="E171" s="74"/>
       <c r="F171" s="49"/>
-      <c r="G171" s="70" t="s">
+      <c r="G171" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="H171" s="70"/>
+      <c r="H171" s="74"/>
       <c r="I171" s="49"/>
       <c r="J171" s="49"/>
       <c r="K171" s="49"/>
@@ -5303,18 +5387,18 @@
       <c r="M172" s="49"/>
     </row>
     <row r="173" spans="1:13" ht="20.25">
-      <c r="A173" s="70" t="s">
+      <c r="A173" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B173" s="70"/>
-      <c r="C173" s="70"/>
-      <c r="D173" s="70"/>
-      <c r="E173" s="70"/>
+      <c r="B173" s="74"/>
+      <c r="C173" s="74"/>
+      <c r="D173" s="74"/>
+      <c r="E173" s="74"/>
       <c r="F173" s="46"/>
-      <c r="G173" s="70" t="s">
+      <c r="G173" s="74" t="s">
         <v>239</v>
       </c>
-      <c r="H173" s="70"/>
+      <c r="H173" s="74"/>
       <c r="I173" s="46"/>
       <c r="J173" s="46"/>
       <c r="K173" s="46"/>
@@ -5337,21 +5421,21 @@
       <c r="M174" s="46"/>
     </row>
     <row r="175" spans="1:13" ht="20.25">
-      <c r="A175" s="74" t="s">
+      <c r="A175" s="75" t="s">
         <v>249</v>
       </c>
-      <c r="B175" s="74"/>
-      <c r="C175" s="74"/>
-      <c r="D175" s="74"/>
-      <c r="E175" s="74"/>
-      <c r="F175" s="74"/>
-      <c r="G175" s="74"/>
-      <c r="H175" s="74"/>
-      <c r="I175" s="74"/>
-      <c r="J175" s="74"/>
-      <c r="K175" s="74"/>
-      <c r="L175" s="74"/>
-      <c r="M175" s="74"/>
+      <c r="B175" s="75"/>
+      <c r="C175" s="75"/>
+      <c r="D175" s="75"/>
+      <c r="E175" s="75"/>
+      <c r="F175" s="75"/>
+      <c r="G175" s="75"/>
+      <c r="H175" s="75"/>
+      <c r="I175" s="75"/>
+      <c r="J175" s="75"/>
+      <c r="K175" s="75"/>
+      <c r="L175" s="75"/>
+      <c r="M175" s="75"/>
     </row>
     <row r="176" spans="1:13" ht="75">
       <c r="A176" s="63" t="s">
@@ -5411,9 +5495,9 @@
         <v>24</v>
       </c>
       <c r="F177" s="63"/>
-      <c r="G177" s="75"/>
+      <c r="G177" s="76"/>
       <c r="H177" s="60"/>
-      <c r="I177" s="75"/>
+      <c r="I177" s="76"/>
       <c r="J177" s="63"/>
       <c r="K177" s="63"/>
       <c r="L177" s="63"/>
@@ -5436,9 +5520,9 @@
         <v>252</v>
       </c>
       <c r="F178" s="63"/>
-      <c r="G178" s="75"/>
+      <c r="G178" s="76"/>
       <c r="H178" s="60"/>
-      <c r="I178" s="75"/>
+      <c r="I178" s="76"/>
       <c r="J178" s="63"/>
       <c r="K178" s="63"/>
       <c r="L178" s="63"/>
@@ -5460,18 +5544,18 @@
       <c r="M179" s="49"/>
     </row>
     <row r="180" spans="1:13">
-      <c r="A180" s="70" t="s">
+      <c r="A180" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B180" s="70"/>
-      <c r="C180" s="70"/>
-      <c r="D180" s="70"/>
-      <c r="E180" s="70"/>
+      <c r="B180" s="74"/>
+      <c r="C180" s="74"/>
+      <c r="D180" s="74"/>
+      <c r="E180" s="74"/>
       <c r="F180" s="49"/>
-      <c r="G180" s="70" t="s">
+      <c r="G180" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="H180" s="70"/>
+      <c r="H180" s="74"/>
       <c r="I180" s="49"/>
       <c r="J180" s="49"/>
       <c r="K180" s="49"/>
@@ -5494,18 +5578,18 @@
       <c r="M181" s="49"/>
     </row>
     <row r="182" spans="1:13">
-      <c r="A182" s="70" t="s">
+      <c r="A182" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="B182" s="70"/>
-      <c r="C182" s="70"/>
-      <c r="D182" s="70"/>
-      <c r="E182" s="70"/>
+      <c r="B182" s="74"/>
+      <c r="C182" s="74"/>
+      <c r="D182" s="74"/>
+      <c r="E182" s="74"/>
       <c r="F182" s="49"/>
-      <c r="G182" s="70" t="s">
+      <c r="G182" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="H182" s="70"/>
+      <c r="H182" s="74"/>
       <c r="I182" s="49"/>
       <c r="J182" s="49"/>
       <c r="K182" s="49"/>
@@ -5528,18 +5612,18 @@
       <c r="M183" s="49"/>
     </row>
     <row r="184" spans="1:13">
-      <c r="A184" s="70" t="s">
+      <c r="A184" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B184" s="70"/>
-      <c r="C184" s="70"/>
-      <c r="D184" s="70"/>
-      <c r="E184" s="70"/>
+      <c r="B184" s="74"/>
+      <c r="C184" s="74"/>
+      <c r="D184" s="74"/>
+      <c r="E184" s="74"/>
       <c r="F184" s="49"/>
-      <c r="G184" s="70" t="s">
+      <c r="G184" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="H184" s="70"/>
+      <c r="H184" s="74"/>
       <c r="I184" s="49"/>
       <c r="J184" s="49"/>
       <c r="K184" s="49"/>
@@ -5562,18 +5646,18 @@
       <c r="M185" s="49"/>
     </row>
     <row r="186" spans="1:13" ht="20.25">
-      <c r="A186" s="70" t="s">
+      <c r="A186" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="70"/>
-      <c r="C186" s="70"/>
-      <c r="D186" s="70"/>
-      <c r="E186" s="70"/>
+      <c r="B186" s="74"/>
+      <c r="C186" s="74"/>
+      <c r="D186" s="74"/>
+      <c r="E186" s="74"/>
       <c r="F186" s="46"/>
-      <c r="G186" s="70" t="s">
+      <c r="G186" s="74" t="s">
         <v>239</v>
       </c>
-      <c r="H186" s="70"/>
+      <c r="H186" s="74"/>
       <c r="I186" s="46"/>
       <c r="J186" s="46"/>
       <c r="K186" s="46"/>
@@ -5581,21 +5665,21 @@
       <c r="M186" s="46"/>
     </row>
     <row r="188" spans="1:13" ht="20.25">
-      <c r="A188" s="74" t="s">
+      <c r="A188" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="B188" s="74"/>
-      <c r="C188" s="74"/>
-      <c r="D188" s="74"/>
-      <c r="E188" s="74"/>
-      <c r="F188" s="74"/>
-      <c r="G188" s="74"/>
-      <c r="H188" s="74"/>
-      <c r="I188" s="74"/>
-      <c r="J188" s="74"/>
-      <c r="K188" s="74"/>
-      <c r="L188" s="74"/>
-      <c r="M188" s="74"/>
+      <c r="B188" s="75"/>
+      <c r="C188" s="75"/>
+      <c r="D188" s="75"/>
+      <c r="E188" s="75"/>
+      <c r="F188" s="75"/>
+      <c r="G188" s="75"/>
+      <c r="H188" s="75"/>
+      <c r="I188" s="75"/>
+      <c r="J188" s="75"/>
+      <c r="K188" s="75"/>
+      <c r="L188" s="75"/>
+      <c r="M188" s="75"/>
     </row>
     <row r="189" spans="1:13" ht="75">
       <c r="A189" s="64" t="s">
@@ -5655,9 +5739,9 @@
         <v>14</v>
       </c>
       <c r="F190" s="64"/>
-      <c r="G190" s="75"/>
+      <c r="G190" s="76"/>
       <c r="H190" s="60"/>
-      <c r="I190" s="75"/>
+      <c r="I190" s="76"/>
       <c r="J190" s="64"/>
       <c r="K190" s="64"/>
       <c r="L190" s="64"/>
@@ -5680,9 +5764,9 @@
         <v>155</v>
       </c>
       <c r="F191" s="64"/>
-      <c r="G191" s="75"/>
+      <c r="G191" s="76"/>
       <c r="H191" s="60"/>
-      <c r="I191" s="75"/>
+      <c r="I191" s="76"/>
       <c r="J191" s="64"/>
       <c r="K191" s="64"/>
       <c r="L191" s="64"/>
@@ -5704,18 +5788,18 @@
       <c r="M192" s="49"/>
     </row>
     <row r="193" spans="1:13">
-      <c r="A193" s="70" t="s">
+      <c r="A193" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B193" s="70"/>
-      <c r="C193" s="70"/>
-      <c r="D193" s="70"/>
-      <c r="E193" s="70"/>
+      <c r="B193" s="74"/>
+      <c r="C193" s="74"/>
+      <c r="D193" s="74"/>
+      <c r="E193" s="74"/>
       <c r="F193" s="49"/>
-      <c r="G193" s="70" t="s">
+      <c r="G193" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="H193" s="70"/>
+      <c r="H193" s="74"/>
       <c r="I193" s="49"/>
       <c r="J193" s="49"/>
       <c r="K193" s="49"/>
@@ -5738,18 +5822,18 @@
       <c r="M194" s="49"/>
     </row>
     <row r="195" spans="1:13">
-      <c r="A195" s="70" t="s">
+      <c r="A195" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="B195" s="70"/>
-      <c r="C195" s="70"/>
-      <c r="D195" s="70"/>
-      <c r="E195" s="70"/>
+      <c r="B195" s="74"/>
+      <c r="C195" s="74"/>
+      <c r="D195" s="74"/>
+      <c r="E195" s="74"/>
       <c r="F195" s="49"/>
-      <c r="G195" s="70" t="s">
+      <c r="G195" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="H195" s="70"/>
+      <c r="H195" s="74"/>
       <c r="I195" s="49"/>
       <c r="J195" s="49"/>
       <c r="K195" s="49"/>
@@ -5772,18 +5856,18 @@
       <c r="M196" s="49"/>
     </row>
     <row r="197" spans="1:13">
-      <c r="A197" s="70" t="s">
+      <c r="A197" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B197" s="70"/>
-      <c r="C197" s="70"/>
-      <c r="D197" s="70"/>
-      <c r="E197" s="70"/>
+      <c r="B197" s="74"/>
+      <c r="C197" s="74"/>
+      <c r="D197" s="74"/>
+      <c r="E197" s="74"/>
       <c r="F197" s="49"/>
-      <c r="G197" s="70" t="s">
+      <c r="G197" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="H197" s="70"/>
+      <c r="H197" s="74"/>
       <c r="I197" s="49"/>
       <c r="J197" s="49"/>
       <c r="K197" s="49"/>
@@ -5806,18 +5890,18 @@
       <c r="M198" s="49"/>
     </row>
     <row r="199" spans="1:13" ht="20.25">
-      <c r="A199" s="70" t="s">
+      <c r="A199" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B199" s="70"/>
-      <c r="C199" s="70"/>
-      <c r="D199" s="70"/>
-      <c r="E199" s="70"/>
+      <c r="B199" s="74"/>
+      <c r="C199" s="74"/>
+      <c r="D199" s="74"/>
+      <c r="E199" s="74"/>
       <c r="F199" s="46"/>
-      <c r="G199" s="70" t="s">
+      <c r="G199" s="74" t="s">
         <v>239</v>
       </c>
-      <c r="H199" s="70"/>
+      <c r="H199" s="74"/>
       <c r="I199" s="46"/>
       <c r="J199" s="46"/>
       <c r="K199" s="46"/>
@@ -5825,21 +5909,21 @@
       <c r="M199" s="46"/>
     </row>
     <row r="201" spans="1:13" ht="20.25">
-      <c r="A201" s="74" t="s">
+      <c r="A201" s="75" t="s">
         <v>261</v>
       </c>
-      <c r="B201" s="74"/>
-      <c r="C201" s="74"/>
-      <c r="D201" s="74"/>
-      <c r="E201" s="74"/>
-      <c r="F201" s="74"/>
-      <c r="G201" s="74"/>
-      <c r="H201" s="74"/>
-      <c r="I201" s="74"/>
-      <c r="J201" s="74"/>
-      <c r="K201" s="74"/>
-      <c r="L201" s="74"/>
-      <c r="M201" s="74"/>
+      <c r="B201" s="75"/>
+      <c r="C201" s="75"/>
+      <c r="D201" s="75"/>
+      <c r="E201" s="75"/>
+      <c r="F201" s="75"/>
+      <c r="G201" s="75"/>
+      <c r="H201" s="75"/>
+      <c r="I201" s="75"/>
+      <c r="J201" s="75"/>
+      <c r="K201" s="75"/>
+      <c r="L201" s="75"/>
+      <c r="M201" s="75"/>
     </row>
     <row r="202" spans="1:13" ht="75">
       <c r="A202" s="65" t="s">
@@ -5899,9 +5983,9 @@
         <v>264</v>
       </c>
       <c r="F203" s="65"/>
-      <c r="G203" s="75"/>
-      <c r="H203" s="71"/>
-      <c r="I203" s="75"/>
+      <c r="G203" s="76"/>
+      <c r="H203" s="77"/>
+      <c r="I203" s="76"/>
       <c r="J203" s="65"/>
       <c r="K203" s="65"/>
       <c r="L203" s="65"/>
@@ -5924,9 +6008,9 @@
         <v>14</v>
       </c>
       <c r="F204" s="65"/>
-      <c r="G204" s="75"/>
-      <c r="H204" s="72"/>
-      <c r="I204" s="75"/>
+      <c r="G204" s="76"/>
+      <c r="H204" s="79"/>
+      <c r="I204" s="76"/>
       <c r="J204" s="65"/>
       <c r="K204" s="65"/>
       <c r="L204" s="65"/>
@@ -5949,9 +6033,9 @@
         <v>272</v>
       </c>
       <c r="F205" s="65"/>
-      <c r="G205" s="75"/>
-      <c r="H205" s="73"/>
-      <c r="I205" s="75"/>
+      <c r="G205" s="76"/>
+      <c r="H205" s="78"/>
+      <c r="I205" s="76"/>
       <c r="J205" s="65"/>
       <c r="K205" s="65"/>
       <c r="L205" s="65"/>
@@ -5973,18 +6057,18 @@
       <c r="M206" s="49"/>
     </row>
     <row r="207" spans="1:13">
-      <c r="A207" s="70" t="s">
+      <c r="A207" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B207" s="70"/>
-      <c r="C207" s="70"/>
-      <c r="D207" s="70"/>
-      <c r="E207" s="70"/>
+      <c r="B207" s="74"/>
+      <c r="C207" s="74"/>
+      <c r="D207" s="74"/>
+      <c r="E207" s="74"/>
       <c r="F207" s="49"/>
-      <c r="G207" s="70" t="s">
+      <c r="G207" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="H207" s="70"/>
+      <c r="H207" s="74"/>
       <c r="I207" s="49"/>
       <c r="J207" s="49"/>
       <c r="K207" s="49"/>
@@ -6007,18 +6091,18 @@
       <c r="M208" s="49"/>
     </row>
     <row r="209" spans="1:13">
-      <c r="A209" s="70" t="s">
+      <c r="A209" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="B209" s="70"/>
-      <c r="C209" s="70"/>
-      <c r="D209" s="70"/>
-      <c r="E209" s="70"/>
+      <c r="B209" s="74"/>
+      <c r="C209" s="74"/>
+      <c r="D209" s="74"/>
+      <c r="E209" s="74"/>
       <c r="F209" s="49"/>
-      <c r="G209" s="70" t="s">
+      <c r="G209" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="H209" s="70"/>
+      <c r="H209" s="74"/>
       <c r="I209" s="49"/>
       <c r="J209" s="49"/>
       <c r="K209" s="49"/>
@@ -6041,18 +6125,18 @@
       <c r="M210" s="49"/>
     </row>
     <row r="211" spans="1:13">
-      <c r="A211" s="70" t="s">
+      <c r="A211" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B211" s="70"/>
-      <c r="C211" s="70"/>
-      <c r="D211" s="70"/>
-      <c r="E211" s="70"/>
+      <c r="B211" s="74"/>
+      <c r="C211" s="74"/>
+      <c r="D211" s="74"/>
+      <c r="E211" s="74"/>
       <c r="F211" s="49"/>
-      <c r="G211" s="70" t="s">
+      <c r="G211" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="H211" s="70"/>
+      <c r="H211" s="74"/>
       <c r="I211" s="49"/>
       <c r="J211" s="49"/>
       <c r="K211" s="49"/>
@@ -6075,18 +6159,18 @@
       <c r="M212" s="49"/>
     </row>
     <row r="213" spans="1:13" ht="20.25">
-      <c r="A213" s="70" t="s">
+      <c r="A213" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B213" s="70"/>
-      <c r="C213" s="70"/>
-      <c r="D213" s="70"/>
-      <c r="E213" s="70"/>
+      <c r="B213" s="74"/>
+      <c r="C213" s="74"/>
+      <c r="D213" s="74"/>
+      <c r="E213" s="74"/>
       <c r="F213" s="46"/>
-      <c r="G213" s="70" t="s">
+      <c r="G213" s="74" t="s">
         <v>239</v>
       </c>
-      <c r="H213" s="70"/>
+      <c r="H213" s="74"/>
       <c r="I213" s="46"/>
       <c r="J213" s="46"/>
       <c r="K213" s="46"/>
@@ -6094,21 +6178,21 @@
       <c r="M213" s="46"/>
     </row>
     <row r="215" spans="1:13" ht="20.25">
-      <c r="A215" s="74" t="s">
+      <c r="A215" s="75" t="s">
         <v>277</v>
       </c>
-      <c r="B215" s="74"/>
-      <c r="C215" s="74"/>
-      <c r="D215" s="74"/>
-      <c r="E215" s="74"/>
-      <c r="F215" s="74"/>
-      <c r="G215" s="74"/>
-      <c r="H215" s="74"/>
-      <c r="I215" s="74"/>
-      <c r="J215" s="74"/>
-      <c r="K215" s="74"/>
-      <c r="L215" s="74"/>
-      <c r="M215" s="74"/>
+      <c r="B215" s="75"/>
+      <c r="C215" s="75"/>
+      <c r="D215" s="75"/>
+      <c r="E215" s="75"/>
+      <c r="F215" s="75"/>
+      <c r="G215" s="75"/>
+      <c r="H215" s="75"/>
+      <c r="I215" s="75"/>
+      <c r="J215" s="75"/>
+      <c r="K215" s="75"/>
+      <c r="L215" s="75"/>
+      <c r="M215" s="75"/>
     </row>
     <row r="216" spans="1:13" ht="75">
       <c r="A216" s="67" t="s">
@@ -6168,9 +6252,9 @@
         <v>264</v>
       </c>
       <c r="F217" s="67"/>
-      <c r="G217" s="75"/>
-      <c r="H217" s="71"/>
-      <c r="I217" s="75"/>
+      <c r="G217" s="76"/>
+      <c r="H217" s="77"/>
+      <c r="I217" s="76"/>
       <c r="J217" s="67"/>
       <c r="K217" s="67"/>
       <c r="L217" s="67"/>
@@ -6193,9 +6277,9 @@
         <v>14</v>
       </c>
       <c r="F218" s="67"/>
-      <c r="G218" s="75"/>
-      <c r="H218" s="72"/>
-      <c r="I218" s="75"/>
+      <c r="G218" s="76"/>
+      <c r="H218" s="79"/>
+      <c r="I218" s="76"/>
       <c r="J218" s="67"/>
       <c r="K218" s="67"/>
       <c r="L218" s="67"/>
@@ -6218,9 +6302,9 @@
         <v>14</v>
       </c>
       <c r="F219" s="67"/>
-      <c r="G219" s="75"/>
-      <c r="H219" s="72"/>
-      <c r="I219" s="75"/>
+      <c r="G219" s="76"/>
+      <c r="H219" s="79"/>
+      <c r="I219" s="76"/>
       <c r="J219" s="67"/>
       <c r="K219" s="67"/>
       <c r="L219" s="67"/>
@@ -6243,9 +6327,9 @@
         <v>14</v>
       </c>
       <c r="F220" s="67"/>
-      <c r="G220" s="75"/>
-      <c r="H220" s="73"/>
-      <c r="I220" s="75"/>
+      <c r="G220" s="76"/>
+      <c r="H220" s="78"/>
+      <c r="I220" s="76"/>
       <c r="J220" s="67"/>
       <c r="K220" s="67"/>
       <c r="L220" s="67"/>
@@ -6267,18 +6351,18 @@
       <c r="M221" s="49"/>
     </row>
     <row r="222" spans="1:13">
-      <c r="A222" s="70" t="s">
+      <c r="A222" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B222" s="70"/>
-      <c r="C222" s="70"/>
-      <c r="D222" s="70"/>
-      <c r="E222" s="70"/>
+      <c r="B222" s="74"/>
+      <c r="C222" s="74"/>
+      <c r="D222" s="74"/>
+      <c r="E222" s="74"/>
       <c r="F222" s="49"/>
-      <c r="G222" s="70" t="s">
+      <c r="G222" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="H222" s="70"/>
+      <c r="H222" s="74"/>
       <c r="I222" s="49"/>
       <c r="J222" s="49"/>
       <c r="K222" s="49"/>
@@ -6301,18 +6385,18 @@
       <c r="M223" s="49"/>
     </row>
     <row r="224" spans="1:13">
-      <c r="A224" s="70" t="s">
+      <c r="A224" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="B224" s="70"/>
-      <c r="C224" s="70"/>
-      <c r="D224" s="70"/>
-      <c r="E224" s="70"/>
+      <c r="B224" s="74"/>
+      <c r="C224" s="74"/>
+      <c r="D224" s="74"/>
+      <c r="E224" s="74"/>
       <c r="F224" s="49"/>
-      <c r="G224" s="70" t="s">
+      <c r="G224" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="H224" s="70"/>
+      <c r="H224" s="74"/>
       <c r="I224" s="49"/>
       <c r="J224" s="49"/>
       <c r="K224" s="49"/>
@@ -6335,18 +6419,18 @@
       <c r="M225" s="49"/>
     </row>
     <row r="226" spans="1:13">
-      <c r="A226" s="70" t="s">
+      <c r="A226" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B226" s="70"/>
-      <c r="C226" s="70"/>
-      <c r="D226" s="70"/>
-      <c r="E226" s="70"/>
+      <c r="B226" s="74"/>
+      <c r="C226" s="74"/>
+      <c r="D226" s="74"/>
+      <c r="E226" s="74"/>
       <c r="F226" s="49"/>
-      <c r="G226" s="70" t="s">
+      <c r="G226" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="H226" s="70"/>
+      <c r="H226" s="74"/>
       <c r="I226" s="49"/>
       <c r="J226" s="49"/>
       <c r="K226" s="49"/>
@@ -6369,18 +6453,18 @@
       <c r="M227" s="49"/>
     </row>
     <row r="228" spans="1:13" ht="20.25">
-      <c r="A228" s="70" t="s">
+      <c r="A228" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B228" s="70"/>
-      <c r="C228" s="70"/>
-      <c r="D228" s="70"/>
-      <c r="E228" s="70"/>
+      <c r="B228" s="74"/>
+      <c r="C228" s="74"/>
+      <c r="D228" s="74"/>
+      <c r="E228" s="74"/>
       <c r="F228" s="46"/>
-      <c r="G228" s="70" t="s">
+      <c r="G228" s="74" t="s">
         <v>239</v>
       </c>
-      <c r="H228" s="70"/>
+      <c r="H228" s="74"/>
       <c r="I228" s="46"/>
       <c r="J228" s="46"/>
       <c r="K228" s="46"/>
@@ -6388,21 +6472,21 @@
       <c r="M228" s="46"/>
     </row>
     <row r="230" spans="1:13" ht="20.25">
-      <c r="A230" s="74" t="s">
+      <c r="A230" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="B230" s="74"/>
-      <c r="C230" s="74"/>
-      <c r="D230" s="74"/>
-      <c r="E230" s="74"/>
-      <c r="F230" s="74"/>
-      <c r="G230" s="74"/>
-      <c r="H230" s="74"/>
-      <c r="I230" s="74"/>
-      <c r="J230" s="74"/>
-      <c r="K230" s="74"/>
-      <c r="L230" s="74"/>
-      <c r="M230" s="74"/>
+      <c r="B230" s="75"/>
+      <c r="C230" s="75"/>
+      <c r="D230" s="75"/>
+      <c r="E230" s="75"/>
+      <c r="F230" s="75"/>
+      <c r="G230" s="75"/>
+      <c r="H230" s="75"/>
+      <c r="I230" s="75"/>
+      <c r="J230" s="75"/>
+      <c r="K230" s="75"/>
+      <c r="L230" s="75"/>
+      <c r="M230" s="75"/>
     </row>
     <row r="231" spans="1:13" ht="75">
       <c r="A231" s="69" t="s">
@@ -6462,9 +6546,9 @@
         <v>295</v>
       </c>
       <c r="F232" s="69"/>
-      <c r="G232" s="75"/>
-      <c r="H232" s="71"/>
-      <c r="I232" s="75"/>
+      <c r="G232" s="76"/>
+      <c r="H232" s="77"/>
+      <c r="I232" s="76"/>
       <c r="J232" s="69"/>
       <c r="K232" s="69"/>
       <c r="L232" s="69"/>
@@ -6487,9 +6571,9 @@
         <v>14</v>
       </c>
       <c r="F233" s="69"/>
-      <c r="G233" s="75"/>
-      <c r="H233" s="73"/>
-      <c r="I233" s="75"/>
+      <c r="G233" s="76"/>
+      <c r="H233" s="78"/>
+      <c r="I233" s="76"/>
       <c r="J233" s="69"/>
       <c r="K233" s="69"/>
       <c r="L233" s="69"/>
@@ -6511,18 +6595,18 @@
       <c r="M234" s="49"/>
     </row>
     <row r="235" spans="1:13">
-      <c r="A235" s="70" t="s">
+      <c r="A235" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B235" s="70"/>
-      <c r="C235" s="70"/>
-      <c r="D235" s="70"/>
-      <c r="E235" s="70"/>
+      <c r="B235" s="74"/>
+      <c r="C235" s="74"/>
+      <c r="D235" s="74"/>
+      <c r="E235" s="74"/>
       <c r="F235" s="49"/>
-      <c r="G235" s="70" t="s">
+      <c r="G235" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="H235" s="70"/>
+      <c r="H235" s="74"/>
       <c r="I235" s="49"/>
       <c r="J235" s="49"/>
       <c r="K235" s="49"/>
@@ -6545,18 +6629,18 @@
       <c r="M236" s="49"/>
     </row>
     <row r="237" spans="1:13">
-      <c r="A237" s="70" t="s">
+      <c r="A237" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="B237" s="70"/>
-      <c r="C237" s="70"/>
-      <c r="D237" s="70"/>
-      <c r="E237" s="70"/>
+      <c r="B237" s="74"/>
+      <c r="C237" s="74"/>
+      <c r="D237" s="74"/>
+      <c r="E237" s="74"/>
       <c r="F237" s="49"/>
-      <c r="G237" s="70" t="s">
+      <c r="G237" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="H237" s="70"/>
+      <c r="H237" s="74"/>
       <c r="I237" s="49"/>
       <c r="J237" s="49"/>
       <c r="K237" s="49"/>
@@ -6579,18 +6663,18 @@
       <c r="M238" s="49"/>
     </row>
     <row r="239" spans="1:13">
-      <c r="A239" s="70" t="s">
+      <c r="A239" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B239" s="70"/>
-      <c r="C239" s="70"/>
-      <c r="D239" s="70"/>
-      <c r="E239" s="70"/>
+      <c r="B239" s="74"/>
+      <c r="C239" s="74"/>
+      <c r="D239" s="74"/>
+      <c r="E239" s="74"/>
       <c r="F239" s="49"/>
-      <c r="G239" s="70" t="s">
+      <c r="G239" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="H239" s="70"/>
+      <c r="H239" s="74"/>
       <c r="I239" s="49"/>
       <c r="J239" s="49"/>
       <c r="K239" s="49"/>
@@ -6613,81 +6697,1031 @@
       <c r="M240" s="49"/>
     </row>
     <row r="241" spans="1:13" ht="20.25">
-      <c r="A241" s="70" t="s">
+      <c r="A241" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B241" s="70"/>
-      <c r="C241" s="70"/>
-      <c r="D241" s="70"/>
-      <c r="E241" s="70"/>
+      <c r="B241" s="74"/>
+      <c r="C241" s="74"/>
+      <c r="D241" s="74"/>
+      <c r="E241" s="74"/>
       <c r="F241" s="46"/>
-      <c r="G241" s="70" t="s">
+      <c r="G241" s="74" t="s">
         <v>239</v>
       </c>
-      <c r="H241" s="70"/>
+      <c r="H241" s="74"/>
       <c r="I241" s="46"/>
       <c r="J241" s="46"/>
       <c r="K241" s="46"/>
       <c r="L241" s="46"/>
       <c r="M241" s="46"/>
     </row>
+    <row r="243" spans="1:13" ht="20.25">
+      <c r="A243" s="75" t="s">
+        <v>299</v>
+      </c>
+      <c r="B243" s="75"/>
+      <c r="C243" s="75"/>
+      <c r="D243" s="75"/>
+      <c r="E243" s="75"/>
+      <c r="F243" s="75"/>
+      <c r="G243" s="75"/>
+      <c r="H243" s="75"/>
+      <c r="I243" s="75"/>
+      <c r="J243" s="75"/>
+      <c r="K243" s="75"/>
+      <c r="L243" s="75"/>
+      <c r="M243" s="75"/>
+    </row>
+    <row r="244" spans="1:13" ht="75">
+      <c r="A244" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C244" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D244" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E244" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="F244" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="G244" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="H244" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="I244" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="J244" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="K244" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="L244" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="M244" s="70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" ht="45">
+      <c r="A245" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B245" s="70" t="s">
+        <v>186</v>
+      </c>
+      <c r="C245" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="D245" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="E245" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="F245" s="70"/>
+      <c r="G245" s="70"/>
+      <c r="H245" s="70"/>
+      <c r="I245" s="70"/>
+      <c r="J245" s="70"/>
+      <c r="K245" s="70"/>
+      <c r="L245" s="70"/>
+      <c r="M245" s="70"/>
+    </row>
+    <row r="246" spans="1:13">
+      <c r="A246" s="31"/>
+      <c r="B246" s="31"/>
+      <c r="C246" s="31"/>
+      <c r="D246" s="44"/>
+      <c r="E246" s="22"/>
+      <c r="F246" s="49"/>
+      <c r="G246" s="49"/>
+      <c r="H246" s="52"/>
+      <c r="I246" s="49"/>
+      <c r="J246" s="49"/>
+      <c r="K246" s="49"/>
+      <c r="L246" s="49"/>
+      <c r="M246" s="49"/>
+    </row>
+    <row r="247" spans="1:13">
+      <c r="A247" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B247" s="74"/>
+      <c r="C247" s="74"/>
+      <c r="D247" s="74"/>
+      <c r="E247" s="74"/>
+      <c r="F247" s="49"/>
+      <c r="G247" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="H247" s="74"/>
+      <c r="I247" s="49"/>
+      <c r="J247" s="49"/>
+      <c r="K247" s="49"/>
+      <c r="L247" s="49"/>
+      <c r="M247" s="49"/>
+    </row>
+    <row r="248" spans="1:13">
+      <c r="A248" s="49"/>
+      <c r="B248" s="49"/>
+      <c r="C248" s="43"/>
+      <c r="D248" s="49"/>
+      <c r="E248" s="49"/>
+      <c r="F248" s="49"/>
+      <c r="G248" s="49"/>
+      <c r="H248" s="49"/>
+      <c r="I248" s="49"/>
+      <c r="J248" s="49"/>
+      <c r="K248" s="49"/>
+      <c r="L248" s="49"/>
+      <c r="M248" s="49"/>
+    </row>
+    <row r="249" spans="1:13">
+      <c r="A249" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="B249" s="74"/>
+      <c r="C249" s="74"/>
+      <c r="D249" s="74"/>
+      <c r="E249" s="74"/>
+      <c r="F249" s="49"/>
+      <c r="G249" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="H249" s="74"/>
+      <c r="I249" s="49"/>
+      <c r="J249" s="49"/>
+      <c r="K249" s="49"/>
+      <c r="L249" s="49"/>
+      <c r="M249" s="49"/>
+    </row>
+    <row r="250" spans="1:13">
+      <c r="A250" s="49"/>
+      <c r="B250" s="49"/>
+      <c r="C250" s="43"/>
+      <c r="D250" s="49"/>
+      <c r="E250" s="49"/>
+      <c r="F250" s="49"/>
+      <c r="G250" s="49"/>
+      <c r="H250" s="49"/>
+      <c r="I250" s="49"/>
+      <c r="J250" s="49"/>
+      <c r="K250" s="49"/>
+      <c r="L250" s="49"/>
+      <c r="M250" s="49"/>
+    </row>
+    <row r="251" spans="1:13">
+      <c r="A251" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B251" s="74"/>
+      <c r="C251" s="74"/>
+      <c r="D251" s="74"/>
+      <c r="E251" s="74"/>
+      <c r="F251" s="49"/>
+      <c r="G251" s="74" t="s">
+        <v>253</v>
+      </c>
+      <c r="H251" s="74"/>
+      <c r="I251" s="49"/>
+      <c r="J251" s="49"/>
+      <c r="K251" s="49"/>
+      <c r="L251" s="49"/>
+      <c r="M251" s="49"/>
+    </row>
+    <row r="252" spans="1:13">
+      <c r="A252" s="49"/>
+      <c r="B252" s="49"/>
+      <c r="C252" s="43"/>
+      <c r="D252" s="49"/>
+      <c r="E252" s="49"/>
+      <c r="F252" s="49"/>
+      <c r="G252" s="49"/>
+      <c r="H252" s="49"/>
+      <c r="I252" s="49"/>
+      <c r="J252" s="49"/>
+      <c r="K252" s="49"/>
+      <c r="L252" s="49"/>
+      <c r="M252" s="49"/>
+    </row>
+    <row r="253" spans="1:13" ht="20.25">
+      <c r="A253" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B253" s="74"/>
+      <c r="C253" s="74"/>
+      <c r="D253" s="74"/>
+      <c r="E253" s="74"/>
+      <c r="F253" s="46"/>
+      <c r="G253" s="74" t="s">
+        <v>239</v>
+      </c>
+      <c r="H253" s="74"/>
+      <c r="I253" s="46"/>
+      <c r="J253" s="46"/>
+      <c r="K253" s="46"/>
+      <c r="L253" s="46"/>
+      <c r="M253" s="46"/>
+    </row>
+    <row r="255" spans="1:13" ht="20.25">
+      <c r="A255" s="75" t="s">
+        <v>303</v>
+      </c>
+      <c r="B255" s="75"/>
+      <c r="C255" s="75"/>
+      <c r="D255" s="75"/>
+      <c r="E255" s="75"/>
+      <c r="F255" s="75"/>
+      <c r="G255" s="75"/>
+      <c r="H255" s="75"/>
+      <c r="I255" s="75"/>
+      <c r="J255" s="75"/>
+      <c r="K255" s="75"/>
+      <c r="L255" s="75"/>
+      <c r="M255" s="75"/>
+    </row>
+    <row r="256" spans="1:13" ht="75">
+      <c r="A256" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C256" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D256" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E256" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="F256" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="G256" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="H256" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="I256" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="J256" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="K256" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="L256" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="M256" s="71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" ht="45">
+      <c r="A257" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B257" s="71" t="s">
+        <v>305</v>
+      </c>
+      <c r="C257" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="D257" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="E257" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="F257" s="71"/>
+      <c r="G257" s="71"/>
+      <c r="H257" s="71"/>
+      <c r="I257" s="71"/>
+      <c r="J257" s="71"/>
+      <c r="K257" s="71"/>
+      <c r="L257" s="71"/>
+      <c r="M257" s="71"/>
+    </row>
+    <row r="258" spans="1:13">
+      <c r="A258" s="31"/>
+      <c r="B258" s="31"/>
+      <c r="C258" s="31"/>
+      <c r="D258" s="44"/>
+      <c r="E258" s="22"/>
+      <c r="F258" s="49"/>
+      <c r="G258" s="49"/>
+      <c r="H258" s="52"/>
+      <c r="I258" s="49"/>
+      <c r="J258" s="49"/>
+      <c r="K258" s="49"/>
+      <c r="L258" s="49"/>
+      <c r="M258" s="49"/>
+    </row>
+    <row r="259" spans="1:13">
+      <c r="A259" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B259" s="74"/>
+      <c r="C259" s="74"/>
+      <c r="D259" s="74"/>
+      <c r="E259" s="74"/>
+      <c r="F259" s="49"/>
+      <c r="G259" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="H259" s="74"/>
+      <c r="I259" s="49"/>
+      <c r="J259" s="49"/>
+      <c r="K259" s="49"/>
+      <c r="L259" s="49"/>
+      <c r="M259" s="49"/>
+    </row>
+    <row r="260" spans="1:13">
+      <c r="A260" s="49"/>
+      <c r="B260" s="49"/>
+      <c r="C260" s="43"/>
+      <c r="D260" s="49"/>
+      <c r="E260" s="49"/>
+      <c r="F260" s="49"/>
+      <c r="G260" s="49"/>
+      <c r="H260" s="49"/>
+      <c r="I260" s="49"/>
+      <c r="J260" s="49"/>
+      <c r="K260" s="49"/>
+      <c r="L260" s="49"/>
+      <c r="M260" s="49"/>
+    </row>
+    <row r="261" spans="1:13">
+      <c r="A261" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="B261" s="74"/>
+      <c r="C261" s="74"/>
+      <c r="D261" s="74"/>
+      <c r="E261" s="74"/>
+      <c r="F261" s="49"/>
+      <c r="G261" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="H261" s="74"/>
+      <c r="I261" s="49"/>
+      <c r="J261" s="49"/>
+      <c r="K261" s="49"/>
+      <c r="L261" s="49"/>
+      <c r="M261" s="49"/>
+    </row>
+    <row r="262" spans="1:13">
+      <c r="A262" s="49"/>
+      <c r="B262" s="49"/>
+      <c r="C262" s="43"/>
+      <c r="D262" s="49"/>
+      <c r="E262" s="49"/>
+      <c r="F262" s="49"/>
+      <c r="G262" s="49"/>
+      <c r="H262" s="49"/>
+      <c r="I262" s="49"/>
+      <c r="J262" s="49"/>
+      <c r="K262" s="49"/>
+      <c r="L262" s="49"/>
+      <c r="M262" s="49"/>
+    </row>
+    <row r="263" spans="1:13">
+      <c r="A263" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B263" s="74"/>
+      <c r="C263" s="74"/>
+      <c r="D263" s="74"/>
+      <c r="E263" s="74"/>
+      <c r="F263" s="49"/>
+      <c r="G263" s="74" t="s">
+        <v>253</v>
+      </c>
+      <c r="H263" s="74"/>
+      <c r="I263" s="49"/>
+      <c r="J263" s="49"/>
+      <c r="K263" s="49"/>
+      <c r="L263" s="49"/>
+      <c r="M263" s="49"/>
+    </row>
+    <row r="264" spans="1:13">
+      <c r="A264" s="49"/>
+      <c r="B264" s="49"/>
+      <c r="C264" s="43"/>
+      <c r="D264" s="49"/>
+      <c r="E264" s="49"/>
+      <c r="F264" s="49"/>
+      <c r="G264" s="49"/>
+      <c r="H264" s="49"/>
+      <c r="I264" s="49"/>
+      <c r="J264" s="49"/>
+      <c r="K264" s="49"/>
+      <c r="L264" s="49"/>
+      <c r="M264" s="49"/>
+    </row>
+    <row r="265" spans="1:13" ht="20.25">
+      <c r="A265" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B265" s="74"/>
+      <c r="C265" s="74"/>
+      <c r="D265" s="74"/>
+      <c r="E265" s="74"/>
+      <c r="F265" s="46"/>
+      <c r="G265" s="74" t="s">
+        <v>239</v>
+      </c>
+      <c r="H265" s="74"/>
+      <c r="I265" s="46"/>
+      <c r="J265" s="46"/>
+      <c r="K265" s="46"/>
+      <c r="L265" s="46"/>
+      <c r="M265" s="46"/>
+    </row>
+    <row r="267" spans="1:13" ht="20.25">
+      <c r="A267" s="75" t="s">
+        <v>309</v>
+      </c>
+      <c r="B267" s="75"/>
+      <c r="C267" s="75"/>
+      <c r="D267" s="75"/>
+      <c r="E267" s="75"/>
+      <c r="F267" s="75"/>
+      <c r="G267" s="75"/>
+      <c r="H267" s="75"/>
+      <c r="I267" s="75"/>
+      <c r="J267" s="75"/>
+      <c r="K267" s="75"/>
+      <c r="L267" s="75"/>
+      <c r="M267" s="75"/>
+    </row>
+    <row r="268" spans="1:13" ht="75">
+      <c r="A268" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B268" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C268" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D268" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E268" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="F268" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="G268" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="H268" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="I268" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="J268" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="K268" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="L268" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="M268" s="72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" ht="45">
+      <c r="A269" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B269" s="72" t="s">
+        <v>311</v>
+      </c>
+      <c r="C269" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="D269" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="E269" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F269" s="72"/>
+      <c r="G269" s="72"/>
+      <c r="H269" s="72"/>
+      <c r="I269" s="72"/>
+      <c r="J269" s="72"/>
+      <c r="K269" s="72"/>
+      <c r="L269" s="72"/>
+      <c r="M269" s="72"/>
+    </row>
+    <row r="270" spans="1:13">
+      <c r="A270" s="31"/>
+      <c r="B270" s="31"/>
+      <c r="C270" s="31"/>
+      <c r="D270" s="44"/>
+      <c r="E270" s="22"/>
+      <c r="F270" s="49"/>
+      <c r="G270" s="49"/>
+      <c r="H270" s="52"/>
+      <c r="I270" s="49"/>
+      <c r="J270" s="49"/>
+      <c r="K270" s="49"/>
+      <c r="L270" s="49"/>
+      <c r="M270" s="49"/>
+    </row>
+    <row r="271" spans="1:13">
+      <c r="A271" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B271" s="74"/>
+      <c r="C271" s="74"/>
+      <c r="D271" s="74"/>
+      <c r="E271" s="74"/>
+      <c r="F271" s="49"/>
+      <c r="G271" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="H271" s="74"/>
+      <c r="I271" s="49"/>
+      <c r="J271" s="49"/>
+      <c r="K271" s="49"/>
+      <c r="L271" s="49"/>
+      <c r="M271" s="49"/>
+    </row>
+    <row r="272" spans="1:13">
+      <c r="A272" s="49"/>
+      <c r="B272" s="49"/>
+      <c r="C272" s="43"/>
+      <c r="D272" s="49"/>
+      <c r="E272" s="49"/>
+      <c r="F272" s="49"/>
+      <c r="G272" s="49"/>
+      <c r="H272" s="49"/>
+      <c r="I272" s="49"/>
+      <c r="J272" s="49"/>
+      <c r="K272" s="49"/>
+      <c r="L272" s="49"/>
+      <c r="M272" s="49"/>
+    </row>
+    <row r="273" spans="1:13">
+      <c r="A273" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="B273" s="74"/>
+      <c r="C273" s="74"/>
+      <c r="D273" s="74"/>
+      <c r="E273" s="74"/>
+      <c r="F273" s="49"/>
+      <c r="G273" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="H273" s="74"/>
+      <c r="I273" s="49"/>
+      <c r="J273" s="49"/>
+      <c r="K273" s="49"/>
+      <c r="L273" s="49"/>
+      <c r="M273" s="49"/>
+    </row>
+    <row r="274" spans="1:13">
+      <c r="A274" s="49"/>
+      <c r="B274" s="49"/>
+      <c r="C274" s="43"/>
+      <c r="D274" s="49"/>
+      <c r="E274" s="49"/>
+      <c r="F274" s="49"/>
+      <c r="G274" s="49"/>
+      <c r="H274" s="49"/>
+      <c r="I274" s="49"/>
+      <c r="J274" s="49"/>
+      <c r="K274" s="49"/>
+      <c r="L274" s="49"/>
+      <c r="M274" s="49"/>
+    </row>
+    <row r="275" spans="1:13">
+      <c r="A275" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B275" s="74"/>
+      <c r="C275" s="74"/>
+      <c r="D275" s="74"/>
+      <c r="E275" s="74"/>
+      <c r="F275" s="49"/>
+      <c r="G275" s="74" t="s">
+        <v>253</v>
+      </c>
+      <c r="H275" s="74"/>
+      <c r="I275" s="49"/>
+      <c r="J275" s="49"/>
+      <c r="K275" s="49"/>
+      <c r="L275" s="49"/>
+      <c r="M275" s="49"/>
+    </row>
+    <row r="276" spans="1:13">
+      <c r="A276" s="49"/>
+      <c r="B276" s="49"/>
+      <c r="C276" s="43"/>
+      <c r="D276" s="49"/>
+      <c r="E276" s="49"/>
+      <c r="F276" s="49"/>
+      <c r="G276" s="49"/>
+      <c r="H276" s="49"/>
+      <c r="I276" s="49"/>
+      <c r="J276" s="49"/>
+      <c r="K276" s="49"/>
+      <c r="L276" s="49"/>
+      <c r="M276" s="49"/>
+    </row>
+    <row r="277" spans="1:13" ht="20.25">
+      <c r="A277" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B277" s="74"/>
+      <c r="C277" s="74"/>
+      <c r="D277" s="74"/>
+      <c r="E277" s="74"/>
+      <c r="F277" s="46"/>
+      <c r="G277" s="74" t="s">
+        <v>239</v>
+      </c>
+      <c r="H277" s="74"/>
+      <c r="I277" s="46"/>
+      <c r="J277" s="46"/>
+      <c r="K277" s="46"/>
+      <c r="L277" s="46"/>
+      <c r="M277" s="46"/>
+    </row>
+    <row r="279" spans="1:13" ht="20.25">
+      <c r="A279" s="75" t="s">
+        <v>314</v>
+      </c>
+      <c r="B279" s="75"/>
+      <c r="C279" s="75"/>
+      <c r="D279" s="75"/>
+      <c r="E279" s="75"/>
+      <c r="F279" s="75"/>
+      <c r="G279" s="75"/>
+      <c r="H279" s="75"/>
+      <c r="I279" s="75"/>
+      <c r="J279" s="75"/>
+      <c r="K279" s="75"/>
+      <c r="L279" s="75"/>
+      <c r="M279" s="75"/>
+    </row>
+    <row r="280" spans="1:13" ht="75">
+      <c r="A280" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="B280" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C280" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D280" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E280" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="F280" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="G280" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="H280" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="I280" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J280" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="K280" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="L280" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="M280" s="73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" ht="45">
+      <c r="A281" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B281" s="73" t="s">
+        <v>317</v>
+      </c>
+      <c r="C281" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="D281" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="E281" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F281" s="73"/>
+      <c r="G281" s="76"/>
+      <c r="H281" s="77"/>
+      <c r="I281" s="76"/>
+      <c r="J281" s="73"/>
+      <c r="K281" s="73"/>
+      <c r="L281" s="73"/>
+      <c r="M281" s="73"/>
+    </row>
+    <row r="282" spans="1:13" ht="30">
+      <c r="A282" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B282" s="73" t="s">
+        <v>319</v>
+      </c>
+      <c r="C282" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="D282" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="E282" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F282" s="73"/>
+      <c r="G282" s="76"/>
+      <c r="H282" s="78"/>
+      <c r="I282" s="76"/>
+      <c r="J282" s="73"/>
+      <c r="K282" s="73"/>
+      <c r="L282" s="73"/>
+      <c r="M282" s="73"/>
+    </row>
+    <row r="283" spans="1:13">
+      <c r="A283" s="31"/>
+      <c r="B283" s="31"/>
+      <c r="C283" s="31"/>
+      <c r="D283" s="44"/>
+      <c r="E283" s="22"/>
+      <c r="F283" s="49"/>
+      <c r="G283" s="49"/>
+      <c r="H283" s="52"/>
+      <c r="I283" s="49"/>
+      <c r="J283" s="49"/>
+      <c r="K283" s="49"/>
+      <c r="L283" s="49"/>
+      <c r="M283" s="49"/>
+    </row>
+    <row r="284" spans="1:13">
+      <c r="A284" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B284" s="74"/>
+      <c r="C284" s="74"/>
+      <c r="D284" s="74"/>
+      <c r="E284" s="74"/>
+      <c r="F284" s="49"/>
+      <c r="G284" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="H284" s="74"/>
+      <c r="I284" s="49"/>
+      <c r="J284" s="49"/>
+      <c r="K284" s="49"/>
+      <c r="L284" s="49"/>
+      <c r="M284" s="49"/>
+    </row>
+    <row r="285" spans="1:13">
+      <c r="A285" s="49"/>
+      <c r="B285" s="49"/>
+      <c r="C285" s="43"/>
+      <c r="D285" s="49"/>
+      <c r="E285" s="49"/>
+      <c r="F285" s="49"/>
+      <c r="G285" s="49"/>
+      <c r="H285" s="49"/>
+      <c r="I285" s="49"/>
+      <c r="J285" s="49"/>
+      <c r="K285" s="49"/>
+      <c r="L285" s="49"/>
+      <c r="M285" s="49"/>
+    </row>
+    <row r="286" spans="1:13">
+      <c r="A286" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="B286" s="74"/>
+      <c r="C286" s="74"/>
+      <c r="D286" s="74"/>
+      <c r="E286" s="74"/>
+      <c r="F286" s="49"/>
+      <c r="G286" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="H286" s="74"/>
+      <c r="I286" s="49"/>
+      <c r="J286" s="49"/>
+      <c r="K286" s="49"/>
+      <c r="L286" s="49"/>
+      <c r="M286" s="49"/>
+    </row>
+    <row r="287" spans="1:13">
+      <c r="A287" s="49"/>
+      <c r="B287" s="49"/>
+      <c r="C287" s="43"/>
+      <c r="D287" s="49"/>
+      <c r="E287" s="49"/>
+      <c r="F287" s="49"/>
+      <c r="G287" s="49"/>
+      <c r="H287" s="49"/>
+      <c r="I287" s="49"/>
+      <c r="J287" s="49"/>
+      <c r="K287" s="49"/>
+      <c r="L287" s="49"/>
+      <c r="M287" s="49"/>
+    </row>
+    <row r="288" spans="1:13">
+      <c r="A288" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B288" s="74"/>
+      <c r="C288" s="74"/>
+      <c r="D288" s="74"/>
+      <c r="E288" s="74"/>
+      <c r="F288" s="49"/>
+      <c r="G288" s="74" t="s">
+        <v>253</v>
+      </c>
+      <c r="H288" s="74"/>
+      <c r="I288" s="49"/>
+      <c r="J288" s="49"/>
+      <c r="K288" s="49"/>
+      <c r="L288" s="49"/>
+      <c r="M288" s="49"/>
+    </row>
+    <row r="289" spans="1:13">
+      <c r="A289" s="49"/>
+      <c r="B289" s="49"/>
+      <c r="C289" s="43"/>
+      <c r="D289" s="49"/>
+      <c r="E289" s="49"/>
+      <c r="F289" s="49"/>
+      <c r="G289" s="49"/>
+      <c r="H289" s="49"/>
+      <c r="I289" s="49"/>
+      <c r="J289" s="49"/>
+      <c r="K289" s="49"/>
+      <c r="L289" s="49"/>
+      <c r="M289" s="49"/>
+    </row>
+    <row r="290" spans="1:13" ht="20.25">
+      <c r="A290" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B290" s="74"/>
+      <c r="C290" s="74"/>
+      <c r="D290" s="74"/>
+      <c r="E290" s="74"/>
+      <c r="F290" s="46"/>
+      <c r="G290" s="74" t="s">
+        <v>239</v>
+      </c>
+      <c r="H290" s="74"/>
+      <c r="I290" s="46"/>
+      <c r="J290" s="46"/>
+      <c r="K290" s="46"/>
+      <c r="L290" s="46"/>
+      <c r="M290" s="46"/>
+    </row>
   </sheetData>
-  <mergeCells count="165">
-    <mergeCell ref="A241:E241"/>
-    <mergeCell ref="G241:H241"/>
-    <mergeCell ref="A230:M230"/>
-    <mergeCell ref="G232:G233"/>
-    <mergeCell ref="H232:H233"/>
-    <mergeCell ref="I232:I233"/>
-    <mergeCell ref="A235:E235"/>
-    <mergeCell ref="G235:H235"/>
-    <mergeCell ref="A237:E237"/>
-    <mergeCell ref="G237:H237"/>
-    <mergeCell ref="A239:E239"/>
-    <mergeCell ref="G239:H239"/>
-    <mergeCell ref="A228:E228"/>
-    <mergeCell ref="G228:H228"/>
-    <mergeCell ref="A215:M215"/>
-    <mergeCell ref="G217:G220"/>
-    <mergeCell ref="H217:H220"/>
-    <mergeCell ref="I217:I220"/>
-    <mergeCell ref="A222:E222"/>
-    <mergeCell ref="G222:H222"/>
-    <mergeCell ref="A224:E224"/>
-    <mergeCell ref="G224:H224"/>
-    <mergeCell ref="A226:E226"/>
-    <mergeCell ref="G226:H226"/>
-    <mergeCell ref="A199:E199"/>
-    <mergeCell ref="G199:H199"/>
-    <mergeCell ref="A188:M188"/>
-    <mergeCell ref="G190:G191"/>
-    <mergeCell ref="I190:I191"/>
-    <mergeCell ref="A193:E193"/>
-    <mergeCell ref="G193:H193"/>
-    <mergeCell ref="A195:E195"/>
-    <mergeCell ref="G195:H195"/>
-    <mergeCell ref="A197:E197"/>
-    <mergeCell ref="G197:H197"/>
-    <mergeCell ref="A186:E186"/>
-    <mergeCell ref="G186:H186"/>
-    <mergeCell ref="A175:M175"/>
-    <mergeCell ref="G177:G178"/>
-    <mergeCell ref="I177:I178"/>
-    <mergeCell ref="A180:E180"/>
-    <mergeCell ref="G180:H180"/>
-    <mergeCell ref="A182:E182"/>
-    <mergeCell ref="G182:H182"/>
-    <mergeCell ref="A184:E184"/>
-    <mergeCell ref="G184:H184"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="A105:E105"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G90:G97"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="G101:H101"/>
+  <mergeCells count="204">
+    <mergeCell ref="A267:M267"/>
+    <mergeCell ref="A271:E271"/>
+    <mergeCell ref="G271:H271"/>
+    <mergeCell ref="A273:E273"/>
+    <mergeCell ref="G273:H273"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="G275:H275"/>
+    <mergeCell ref="A277:E277"/>
+    <mergeCell ref="G277:H277"/>
+    <mergeCell ref="A253:E253"/>
+    <mergeCell ref="G253:H253"/>
+    <mergeCell ref="A243:M243"/>
+    <mergeCell ref="A247:E247"/>
+    <mergeCell ref="G247:H247"/>
+    <mergeCell ref="A249:E249"/>
+    <mergeCell ref="G249:H249"/>
+    <mergeCell ref="A251:E251"/>
+    <mergeCell ref="G251:H251"/>
+    <mergeCell ref="A213:E213"/>
+    <mergeCell ref="G213:H213"/>
+    <mergeCell ref="H203:H205"/>
+    <mergeCell ref="A201:M201"/>
+    <mergeCell ref="G203:G205"/>
+    <mergeCell ref="I203:I205"/>
+    <mergeCell ref="A207:E207"/>
+    <mergeCell ref="G207:H207"/>
+    <mergeCell ref="A209:E209"/>
+    <mergeCell ref="G209:H209"/>
+    <mergeCell ref="A211:E211"/>
+    <mergeCell ref="G211:H211"/>
+    <mergeCell ref="A169:E169"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="A171:E171"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="A173:E173"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="A162:M162"/>
+    <mergeCell ref="G164:G165"/>
+    <mergeCell ref="I164:I165"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="A156:E156"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="A160:E160"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="A146:M146"/>
+    <mergeCell ref="G148:G152"/>
+    <mergeCell ref="I148:I152"/>
+    <mergeCell ref="A154:E154"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="A144:E144"/>
+    <mergeCell ref="A138:E138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="A142:E142"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="A123:E123"/>
+    <mergeCell ref="A125:M125"/>
+    <mergeCell ref="G127:G136"/>
+    <mergeCell ref="I127:I136"/>
+    <mergeCell ref="A117:E117"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="A119:E119"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="A121:E121"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="A107:M107"/>
+    <mergeCell ref="G109:G115"/>
+    <mergeCell ref="I109:I115"/>
+    <mergeCell ref="A73:M73"/>
+    <mergeCell ref="A99:E99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="I62:I65"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="I90:I97"/>
+    <mergeCell ref="H92:H97"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A88:M88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="A60:M60"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A47:M47"/>
+    <mergeCell ref="G49:G51"/>
+    <mergeCell ref="G62:G65"/>
+    <mergeCell ref="H62:H65"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="A1:M1"/>
@@ -6712,92 +7746,82 @@
     <mergeCell ref="A34:M34"/>
     <mergeCell ref="G36:G39"/>
     <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="H36:H39"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="A60:M60"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A47:M47"/>
-    <mergeCell ref="G49:G51"/>
-    <mergeCell ref="G62:G65"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="A73:M73"/>
-    <mergeCell ref="A99:E99"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="I62:I65"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="I90:I97"/>
-    <mergeCell ref="H92:H97"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A88:M88"/>
-    <mergeCell ref="A117:E117"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="A119:E119"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="A121:E121"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="A107:M107"/>
-    <mergeCell ref="G109:G115"/>
-    <mergeCell ref="I109:I115"/>
-    <mergeCell ref="A144:E144"/>
-    <mergeCell ref="A138:E138"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="A142:E142"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="A123:E123"/>
-    <mergeCell ref="A125:M125"/>
-    <mergeCell ref="G127:G136"/>
-    <mergeCell ref="I127:I136"/>
-    <mergeCell ref="A156:E156"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="A160:E160"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="A146:M146"/>
-    <mergeCell ref="G148:G152"/>
-    <mergeCell ref="I148:I152"/>
-    <mergeCell ref="A154:E154"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="A169:E169"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="A171:E171"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="A173:E173"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="A162:M162"/>
-    <mergeCell ref="G164:G165"/>
-    <mergeCell ref="I164:I165"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="A213:E213"/>
-    <mergeCell ref="G213:H213"/>
-    <mergeCell ref="H203:H205"/>
-    <mergeCell ref="A201:M201"/>
-    <mergeCell ref="G203:G205"/>
-    <mergeCell ref="I203:I205"/>
-    <mergeCell ref="A207:E207"/>
-    <mergeCell ref="G207:H207"/>
-    <mergeCell ref="A209:E209"/>
-    <mergeCell ref="G209:H209"/>
-    <mergeCell ref="A211:E211"/>
-    <mergeCell ref="G211:H211"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G90:G97"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="A186:E186"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="A175:M175"/>
+    <mergeCell ref="G177:G178"/>
+    <mergeCell ref="I177:I178"/>
+    <mergeCell ref="A180:E180"/>
+    <mergeCell ref="G180:H180"/>
+    <mergeCell ref="A182:E182"/>
+    <mergeCell ref="G182:H182"/>
+    <mergeCell ref="A184:E184"/>
+    <mergeCell ref="G184:H184"/>
+    <mergeCell ref="A199:E199"/>
+    <mergeCell ref="G199:H199"/>
+    <mergeCell ref="A188:M188"/>
+    <mergeCell ref="G190:G191"/>
+    <mergeCell ref="I190:I191"/>
+    <mergeCell ref="A193:E193"/>
+    <mergeCell ref="G193:H193"/>
+    <mergeCell ref="A195:E195"/>
+    <mergeCell ref="G195:H195"/>
+    <mergeCell ref="A197:E197"/>
+    <mergeCell ref="G197:H197"/>
+    <mergeCell ref="A228:E228"/>
+    <mergeCell ref="G228:H228"/>
+    <mergeCell ref="A215:M215"/>
+    <mergeCell ref="G217:G220"/>
+    <mergeCell ref="H217:H220"/>
+    <mergeCell ref="I217:I220"/>
+    <mergeCell ref="A222:E222"/>
+    <mergeCell ref="G222:H222"/>
+    <mergeCell ref="A224:E224"/>
+    <mergeCell ref="G224:H224"/>
+    <mergeCell ref="A226:E226"/>
+    <mergeCell ref="G226:H226"/>
+    <mergeCell ref="A241:E241"/>
+    <mergeCell ref="G241:H241"/>
+    <mergeCell ref="A230:M230"/>
+    <mergeCell ref="G232:G233"/>
+    <mergeCell ref="H232:H233"/>
+    <mergeCell ref="I232:I233"/>
+    <mergeCell ref="A235:E235"/>
+    <mergeCell ref="G235:H235"/>
+    <mergeCell ref="A237:E237"/>
+    <mergeCell ref="G237:H237"/>
+    <mergeCell ref="A239:E239"/>
+    <mergeCell ref="G239:H239"/>
+    <mergeCell ref="A255:M255"/>
+    <mergeCell ref="A259:E259"/>
+    <mergeCell ref="G259:H259"/>
+    <mergeCell ref="A261:E261"/>
+    <mergeCell ref="G261:H261"/>
+    <mergeCell ref="A263:E263"/>
+    <mergeCell ref="G263:H263"/>
+    <mergeCell ref="A265:E265"/>
+    <mergeCell ref="G265:H265"/>
+    <mergeCell ref="A290:E290"/>
+    <mergeCell ref="G290:H290"/>
+    <mergeCell ref="A279:M279"/>
+    <mergeCell ref="G281:G282"/>
+    <mergeCell ref="H281:H282"/>
+    <mergeCell ref="I281:I282"/>
+    <mergeCell ref="A284:E284"/>
+    <mergeCell ref="G284:H284"/>
+    <mergeCell ref="A286:E286"/>
+    <mergeCell ref="G286:H286"/>
+    <mergeCell ref="A288:E288"/>
+    <mergeCell ref="G288:H288"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
@@ -6808,9 +7832,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A82" sqref="A82:E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -6828,30 +7852,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
     </row>
     <row r="2" spans="1:9" ht="18.75">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
     </row>
     <row r="4" spans="1:9" ht="63">
       <c r="A4" s="7" t="s">
@@ -7482,7 +8506,7 @@
       </c>
       <c r="C27" s="12" t="str">
         <f>'Ремонтные листы'!C62</f>
-        <v>№8602</v>
+        <v>№8622</v>
       </c>
       <c r="D27" s="56" t="str">
         <f>'Ремонтные листы'!D62</f>
@@ -8823,56 +9847,131 @@
       <c r="H78" s="11"/>
       <c r="I78" s="13"/>
     </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="12"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
+    <row r="79" spans="1:9" ht="30">
+      <c r="A79" s="12" t="str">
+        <f>'Ремонтные листы'!A245</f>
+        <v>23.09.2022 в 09:30</v>
+      </c>
+      <c r="B79" s="12" t="str">
+        <f>'Ремонтные листы'!B245</f>
+        <v>1740-5237</v>
+      </c>
+      <c r="C79" s="12" t="str">
+        <f>'Ремонтные листы'!C245</f>
+        <v>№8228</v>
+      </c>
+      <c r="D79" s="12" t="str">
+        <f>'Ремонтные листы'!D245</f>
+        <v>Магнитопровод, 8БК616.013</v>
+      </c>
+      <c r="E79" s="12" t="str">
+        <f>'Ремонтные листы'!E245</f>
+        <v>замена резины, заусенец</v>
+      </c>
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
       <c r="I79" s="13"/>
     </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="12"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
+    <row r="80" spans="1:9" ht="30">
+      <c r="A80" s="12" t="str">
+        <f>'Ремонтные листы'!A257</f>
+        <v>26.09.2022 в 07:56</v>
+      </c>
+      <c r="B80" s="12" t="str">
+        <f>'Ремонтные листы'!B257</f>
+        <v>1651-6000</v>
+      </c>
+      <c r="C80" s="12" t="str">
+        <f>'Ремонтные листы'!C257</f>
+        <v>№705</v>
+      </c>
+      <c r="D80" s="12" t="str">
+        <f>'Ремонтные листы'!D257</f>
+        <v>Разгонка 143 планки, 741352.143</v>
+      </c>
+      <c r="E80" s="12" t="str">
+        <f>'Ремонтные листы'!E257</f>
+        <v>ломает ухо</v>
+      </c>
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
       <c r="I80" s="13"/>
     </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="12"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
+    <row r="81" spans="1:9" ht="30">
+      <c r="A81" s="12" t="str">
+        <f>'Ремонтные листы'!A269</f>
+        <v>29.09.2022 в 14:00</v>
+      </c>
+      <c r="B81" s="12" t="str">
+        <f>'Ремонтные листы'!B269</f>
+        <v>1700-5420-01</v>
+      </c>
+      <c r="C81" s="12" t="str">
+        <f>'Ремонтные листы'!C269</f>
+        <v>№5152</v>
+      </c>
+      <c r="D81" s="12" t="str">
+        <f>'Ремонтные листы'!D269</f>
+        <v>Пластина 005, 741335.005</v>
+      </c>
+      <c r="E81" s="12" t="str">
+        <f>'Ремонтные листы'!E269</f>
+        <v>заусенец</v>
+      </c>
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
       <c r="I81" s="13"/>
     </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="12"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
+    <row r="82" spans="1:9" ht="30">
+      <c r="A82" s="12" t="str">
+        <f>'Ремонтные листы'!A281</f>
+        <v>30.09.2022 в 10:30</v>
+      </c>
+      <c r="B82" s="12" t="str">
+        <f>'Ремонтные листы'!B281</f>
+        <v>1651-5045</v>
+      </c>
+      <c r="C82" s="12" t="str">
+        <f>'Ремонтные листы'!C281</f>
+        <v>№4331</v>
+      </c>
+      <c r="D82" s="12" t="str">
+        <f>'Ремонтные листы'!D281</f>
+        <v>Запрессовка витка, 5РЕ 640.107</v>
+      </c>
+      <c r="E82" s="12" t="str">
+        <f>'Ремонтные листы'!E281</f>
+        <v>поломка пуансона</v>
+      </c>
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
       <c r="I82" s="13"/>
     </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="12"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
+    <row r="83" spans="1:9" ht="30">
+      <c r="A83" s="12" t="str">
+        <f>'Ремонтные листы'!A282</f>
+        <v>30.09.2022 в 13:41</v>
+      </c>
+      <c r="B83" s="12" t="str">
+        <f>'Ремонтные листы'!B282</f>
+        <v>1700-5077</v>
+      </c>
+      <c r="C83" s="12" t="str">
+        <f>'Ремонтные листы'!C282</f>
+        <v>№8219</v>
+      </c>
+      <c r="D83" s="12" t="str">
+        <f>'Ремонтные листы'!D282</f>
+        <v>Гайка 196, 8БК940.196</v>
+      </c>
+      <c r="E83" s="12" t="str">
+        <f>'Ремонтные листы'!E282</f>
+        <v>проблема с матрицей</v>
+      </c>
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
